--- a/data/citys.xlsx
+++ b/data/citys.xlsx
@@ -4744,10 +4744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>119.3537107,19.25093078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>109.6648049,18.61319794</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4785,6 +4781,10 @@
   </si>
   <si>
     <t>117.7422988,31.49093374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109.3537107,19.25093078</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5141,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5345,7 +5345,7 @@
         <v>741</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -6797,7 +6797,7 @@
         <v>827</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1510</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -6814,7 +6814,7 @@
         <v>827</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -6831,7 +6831,7 @@
         <v>827</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -6848,7 +6848,7 @@
         <v>827</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -6865,7 +6865,7 @@
         <v>827</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
@@ -6882,7 +6882,7 @@
         <v>827</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -6899,7 +6899,7 @@
         <v>827</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -6916,7 +6916,7 @@
         <v>827</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -6933,7 +6933,7 @@
         <v>827</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -6950,7 +6950,7 @@
         <v>827</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/citys.xlsx
+++ b/data/citys.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -5250,8 +5250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F353" sqref="F353"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5310,7 +5310,7 @@
         <v>728</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D2,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D2,Sheet2!A:B,2,0)</f>
         <v>116.395645038,39.9299857781</v>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
         <v>729</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D3,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D3,Sheet2!A:B,2,0)</f>
         <v>117.210813092,39.1439299033</v>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
         <v>826</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D4,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D4,Sheet2!A:B,2,0)</f>
         <v>114.522081844,38.0489583146</v>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
         <v>829</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D5,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D5,Sheet2!A:B,2,0)</f>
         <v>115.494810169,38.886564548</v>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
         <v>830</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D6,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D6,Sheet2!A:B,2,0)</f>
         <v>117.933822456,40.9925210525</v>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
         <v>831</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D7,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D7,Sheet2!A:B,2,0)</f>
         <v>114.482693932,36.6093079285</v>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
         <v>832</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D8,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D8,Sheet2!A:B,2,0)</f>
         <v>118.183450598,39.6505309225</v>
       </c>
     </row>
@@ -5483,7 +5483,7 @@
         <v>834</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D9,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D9,Sheet2!A:B,2,0)</f>
         <v>119.604367616,39.9454615659</v>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
         <v>835</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D10,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D10,Sheet2!A:B,2,0)</f>
         <v>116.863806476,38.2976153503</v>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
         <v>836</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D11,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D11,Sheet2!A:B,2,0)</f>
         <v>115.686228653,37.7469290459</v>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
         <v>835</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D12,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D12,Sheet2!A:B,2,0)</f>
         <v>116.703602223,39.5186106251</v>
       </c>
     </row>
@@ -5582,7 +5582,7 @@
         <v>837</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D13,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D13,Sheet2!A:B,2,0)</f>
         <v>114.520486813,37.0695311969</v>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
         <v>838</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D14,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D14,Sheet2!A:B,2,0)</f>
         <v>114.89378153,40.8111884911</v>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
         <v>997</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D15,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D15,Sheet2!A:B,2,0)</f>
         <v>112.550863589,37.890277054</v>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
         <v>998</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D16,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D16,Sheet2!A:B,2,0)</f>
         <v>113.120292086,36.2016643857</v>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
         <v>999</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D17,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D17,Sheet2!A:B,2,0)</f>
         <v>113.290508673,40.1137444997</v>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
         <v>1000</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D18,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D18,Sheet2!A:B,2,0)</f>
         <v>112.867332758,35.4998344672</v>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
         <v>1001</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D19,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D19,Sheet2!A:B,2,0)</f>
         <v>112.7385144,37.6933615268</v>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
         <v>1002</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D20,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D20,Sheet2!A:B,2,0)</f>
         <v>111.538787596,36.0997454436</v>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
         <v>1003</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D21,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D21,Sheet2!A:B,2,0)</f>
         <v>111.143156602,37.527316097</v>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
         <v>1005</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D22,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D22,Sheet2!A:B,2,0)</f>
         <v>112.479927727,39.3376719662</v>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
         <v>1006</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D23,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D23,Sheet2!A:B,2,0)</f>
         <v>112.727938829,38.461030573</v>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
         <v>1007</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D24,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D24,Sheet2!A:B,2,0)</f>
         <v>111.006853653,35.0388594798</v>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
         <v>1008</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D25,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D25,Sheet2!A:B,2,0)</f>
         <v>113.569237602,37.8695294932</v>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
         <v>951</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D26,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D26,Sheet2!A:B,2,0)</f>
         <v>111.66035052,40.8283188731</v>
       </c>
     </row>
@@ -5924,7 +5924,7 @@
         <v>953</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D27,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D27,Sheet2!A:B,2,0)</f>
         <v>109.846238532,40.6471194257</v>
       </c>
     </row>
@@ -5948,7 +5948,7 @@
         <v>954</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D28,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D28,Sheet2!A:B,2,0)</f>
         <v>118.930761192,42.2971123203</v>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
         <v>955</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D29,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D29,Sheet2!A:B,2,0)</f>
         <v>109.993706251,39.8164895606</v>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
         <v>956</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D30,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D30,Sheet2!A:B,2,0)</f>
         <v>113.112846391,41.0223629468</v>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
         <v>957</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D31,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D31,Sheet2!A:B,2,0)</f>
         <v>106.831999097,39.6831770068</v>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
         <v>958</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D32,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D32,Sheet2!A:B,2,0)</f>
         <v>122.048166514,46.0837570652</v>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
         <v>959</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D33,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D33,Sheet2!A:B,2,0)</f>
         <v>119.760821794,49.2016360546</v>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
         <v>960</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D34,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D34,Sheet2!A:B,2,0)</f>
         <v>122.260363263,43.633756073</v>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
         <v>961</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D35,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D35,Sheet2!A:B,2,0)</f>
         <v>105.695682871,38.8430752644</v>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
         <v>962</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D36,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D36,Sheet2!A:B,2,0)</f>
         <v>107.42380672,40.7691799024</v>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
         <v>936</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D38,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D38,Sheet2!A:B,2,0)</f>
         <v>123.432790922,41.8086447835</v>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
         <v>937</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D39,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D39,Sheet2!A:B,2,0)</f>
         <v>121.593477781,38.9487099383</v>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
         <v>938</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D40,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D40,Sheet2!A:B,2,0)</f>
         <v>123.007763329,41.1187436822</v>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
         <v>939</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D41,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D41,Sheet2!A:B,2,0)</f>
         <v>124.338543115,40.1290228266</v>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
         <v>940</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D42,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D42,Sheet2!A:B,2,0)</f>
         <v>123.929819767,41.8773038296</v>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
         <v>941</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D43,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D43,Sheet2!A:B,2,0)</f>
         <v>121.147748738,41.1308788759</v>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
         <v>942</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D44,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D44,Sheet2!A:B,2,0)</f>
         <v>122.233391371,40.6686510665</v>
       </c>
     </row>
@@ -6362,7 +6362,7 @@
         <v>944</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D45,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D45,Sheet2!A:B,2,0)</f>
         <v>123.77806237,41.3258376266</v>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
         <v>945</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D46,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D46,Sheet2!A:B,2,0)</f>
         <v>120.446162703,41.5718276679</v>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
         <v>946</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D47,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D47,Sheet2!A:B,2,0)</f>
         <v>121.660822129,42.0192501071</v>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
         <v>947</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D48,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D48,Sheet2!A:B,2,0)</f>
         <v>120.860757645,40.7430298813</v>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
         <v>948</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D49,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D49,Sheet2!A:B,2,0)</f>
         <v>123.172451205,41.2733392656</v>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
         <v>949</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D50,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D50,Sheet2!A:B,2,0)</f>
         <v>122.07322781,41.141248023</v>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
         <v>950</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D51,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D51,Sheet2!A:B,2,0)</f>
         <v>123.854849615,42.2997570121</v>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
         <v>901</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D52,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D52,Sheet2!A:B,2,0)</f>
         <v>125.313642427,43.8983376071</v>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
         <v>902</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D53,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D53,Sheet2!A:B,2,0)</f>
         <v>126.564543989,43.8719883344</v>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
         <v>904</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D55,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D55,Sheet2!A:B,2,0)</f>
         <v>122.840776679,45.6210862752</v>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
         <v>905</v>
       </c>
       <c r="G56" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D56,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D56,Sheet2!A:B,2,0)</f>
         <v>126.435797675,41.945859397</v>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
         <v>907</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D57,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D57,Sheet2!A:B,2,0)</f>
         <v>125.133686052,42.9233026191</v>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
         <v>908</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D58,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D58,Sheet2!A:B,2,0)</f>
         <v>124.391382074,43.1755247011</v>
       </c>
     </row>
@@ -6699,7 +6699,7 @@
         <v>909</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D59,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D59,Sheet2!A:B,2,0)</f>
         <v>124.832994532,45.1360489701</v>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
         <v>910</v>
       </c>
       <c r="G60" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D60,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D60,Sheet2!A:B,2,0)</f>
         <v>125.942650139,41.7363971299</v>
       </c>
     </row>
@@ -6748,7 +6748,7 @@
         <v>860</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D61,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D61,Sheet2!A:B,2,0)</f>
         <v>126.657716855,45.7732246332</v>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
         <v>861</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D62,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D62,Sheet2!A:B,2,0)</f>
         <v>125.02183973,46.59670902</v>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
         <v>862</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D63,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D63,Sheet2!A:B,2,0)</f>
         <v>123.987288942,47.3476998134</v>
       </c>
     </row>
@@ -6822,7 +6822,7 @@
         <v>863</v>
       </c>
       <c r="G64" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D64,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D64,Sheet2!A:B,2,0)</f>
         <v>130.284734586,46.8137796047</v>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
         <v>865</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D66,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D66,Sheet2!A:B,2,0)</f>
         <v>127.500830295,50.2506900907</v>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
         <v>866</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D67,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D67,Sheet2!A:B,2,0)</f>
         <v>130.292472051,47.3386659037</v>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
         <v>867</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D68,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D68,Sheet2!A:B,2,0)</f>
         <v>130.941767273,45.3215398866</v>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
         <v>868</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D69,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D69,Sheet2!A:B,2,0)</f>
         <v>129.608035396,44.5885211528</v>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
         <v>869</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D70,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D70,Sheet2!A:B,2,0)</f>
         <v>131.019048047,45.7750053686</v>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
         <v>870</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D71,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D71,Sheet2!A:B,2,0)</f>
         <v>126.989094572,46.646063927</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
         <v>871</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D72,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D72,Sheet2!A:B,2,0)</f>
         <v>131.17140174,46.6551020625</v>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
         <v>872</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D73,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D73,Sheet2!A:B,2,0)</f>
         <v>128.910765978,47.7346850751</v>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
         <v>730</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D74,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D74,Sheet2!A:B,2,0)</f>
         <v>121.487899486,31.24916171</v>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
         <v>911</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D75,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D75,Sheet2!A:B,2,0)</f>
         <v>118.778074408,32.0572355018</v>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
         <v>912</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D76,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D76,Sheet2!A:B,2,0)</f>
         <v>120.619907115,31.317987368</v>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
         <v>914</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D77,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D77,Sheet2!A:B,2,0)</f>
         <v>119.981861013,31.7713967447</v>
       </c>
     </row>
@@ -7162,7 +7162,7 @@
         <v>915</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D78,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D78,Sheet2!A:B,2,0)</f>
         <v>119.173872217,34.601548967</v>
       </c>
     </row>
@@ -7187,7 +7187,7 @@
         <v>916</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D79,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D79,Sheet2!A:B,2,0)</f>
         <v>119.919606016,32.4760532748</v>
       </c>
     </row>
@@ -7212,7 +7212,7 @@
         <v>917</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D80,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D80,Sheet2!A:B,2,0)</f>
         <v>120.305455901,31.5700374519</v>
       </c>
     </row>
@@ -7237,7 +7237,7 @@
         <v>918</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D81,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D81,Sheet2!A:B,2,0)</f>
         <v>117.188106623,34.2715534311</v>
       </c>
     </row>
@@ -7262,7 +7262,7 @@
         <v>916</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D82,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D82,Sheet2!A:B,2,0)</f>
         <v>119.427777551,32.4085052546</v>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
         <v>919</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D83,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D83,Sheet2!A:B,2,0)</f>
         <v>119.455835405,32.2044094436</v>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
         <v>920</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D84,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D84,Sheet2!A:B,2,0)</f>
         <v>119.030186365,33.6065127393</v>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
         <v>921</v>
       </c>
       <c r="G85" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D85,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D85,Sheet2!A:B,2,0)</f>
         <v>120.873800951,32.0146645408</v>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
         <v>920</v>
       </c>
       <c r="G86" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D86,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D86,Sheet2!A:B,2,0)</f>
         <v>118.296893379,33.9520497337</v>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
         <v>922</v>
       </c>
       <c r="G87" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D87,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D87,Sheet2!A:B,2,0)</f>
         <v>120.148871818,33.3798618771</v>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
         <v>1077</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D88,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D88,Sheet2!A:B,2,0)</f>
         <v>120.219375416,30.2592444615</v>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
         <v>1078</v>
       </c>
       <c r="G89" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D89,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D89,Sheet2!A:B,2,0)</f>
         <v>121.579005973,29.8852589659</v>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
         <v>1079</v>
       </c>
       <c r="G90" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D90,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D90,Sheet2!A:B,2,0)</f>
         <v>120.760427699,30.7739922396</v>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
         <v>1080</v>
       </c>
       <c r="G91" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D91,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D91,Sheet2!A:B,2,0)</f>
         <v>120.592467386,30.0023645805</v>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
         <v>827</v>
       </c>
       <c r="G92" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D92,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D92,Sheet2!A:B,2,0)</f>
         <v>120.690634734,28.002837594</v>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
         <v>1082</v>
       </c>
       <c r="G93" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D93,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D93,Sheet2!A:B,2,0)</f>
         <v>122.169872098,30.0360103026</v>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
         <v>1083</v>
       </c>
       <c r="G94" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D94,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D94,Sheet2!A:B,2,0)</f>
         <v>120.137243163,30.8779251557</v>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
         <v>1084</v>
       </c>
       <c r="G95" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D95,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D95,Sheet2!A:B,2,0)</f>
         <v>119.652575704,29.1028991054</v>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
         <v>1085</v>
       </c>
       <c r="G96" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D96,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D96,Sheet2!A:B,2,0)</f>
         <v>119.929575843,28.4562995521</v>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
         <v>1086</v>
       </c>
       <c r="G97" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D97,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D97,Sheet2!A:B,2,0)</f>
         <v>121.440612936,28.6682832857</v>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
         <v>1087</v>
       </c>
       <c r="G98" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D98,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D98,Sheet2!A:B,2,0)</f>
         <v>118.875841652,28.9569104475</v>
       </c>
     </row>
@@ -7684,7 +7684,7 @@
         <v>732</v>
       </c>
       <c r="G99" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D99,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D99,Sheet2!A:B,2,0)</f>
         <v>117.282699092,31.8669422607</v>
       </c>
     </row>
@@ -7709,7 +7709,7 @@
         <v>733</v>
       </c>
       <c r="G100" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D100,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D100,Sheet2!A:B,2,0)</f>
         <v>118.384108423,31.3660197875</v>
       </c>
     </row>
@@ -7734,7 +7734,7 @@
         <v>734</v>
       </c>
       <c r="G101" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D101,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D101,Sheet2!A:B,2,0)</f>
         <v>117.058738772,30.5378978174</v>
       </c>
     </row>
@@ -7758,7 +7758,7 @@
         <v>735</v>
       </c>
       <c r="G102" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D102,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D102,Sheet2!A:B,2,0)</f>
         <v>117.357079866,32.9294989067</v>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
         <v>736</v>
       </c>
       <c r="G103" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D103,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D103,Sheet2!A:B,2,0)</f>
         <v>115.787928245,33.8712105653</v>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
         <v>738</v>
       </c>
       <c r="G105" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D105,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D105,Sheet2!A:B,2,0)</f>
         <v>117.494476772,30.6600192482</v>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
         <v>739</v>
       </c>
       <c r="G106" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D106,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D106,Sheet2!A:B,2,0)</f>
         <v>118.324570351,32.3173505954</v>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
         <v>736</v>
       </c>
       <c r="G107" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D107,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D107,Sheet2!A:B,2,0)</f>
         <v>115.820932259,32.9012113306</v>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
         <v>740</v>
       </c>
       <c r="G108" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D108,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D108,Sheet2!A:B,2,0)</f>
         <v>118.293569632,29.7344348562</v>
       </c>
     </row>
@@ -7925,7 +7925,7 @@
         <v>741</v>
       </c>
       <c r="G109" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D109,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D109,Sheet2!A:B,2,0)</f>
         <v>116.791447429,33.9600233054</v>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
         <v>742</v>
       </c>
       <c r="G110" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D110,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D110,Sheet2!A:B,2,0)</f>
         <v>117.018638863,32.6428118237</v>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
         <v>743</v>
       </c>
       <c r="G111" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D111,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D111,Sheet2!A:B,2,0)</f>
         <v>116.505252683,31.7555583552</v>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
         <v>744</v>
       </c>
       <c r="G112" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D112,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D112,Sheet2!A:B,2,0)</f>
         <v>118.515881847,31.6885281589</v>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
         <v>745</v>
       </c>
       <c r="G113" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D113,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D113,Sheet2!A:B,2,0)</f>
         <v>116.988692412,33.6367723858</v>
       </c>
     </row>
@@ -8046,7 +8046,7 @@
         <v>746</v>
       </c>
       <c r="G114" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D114,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D114,Sheet2!A:B,2,0)</f>
         <v>117.819428729,30.9409296947</v>
       </c>
     </row>
@@ -8070,7 +8070,7 @@
         <v>747</v>
       </c>
       <c r="G115" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D115,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D115,Sheet2!A:B,2,0)</f>
         <v>118.752096311,30.9516423543</v>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
         <v>748</v>
       </c>
       <c r="G116" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D116,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D116,Sheet2!A:B,2,0)</f>
         <v>119.330221107,26.0471254966</v>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
         <v>749</v>
       </c>
       <c r="G117" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D117,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D117,Sheet2!A:B,2,0)</f>
         <v>118.103886046,24.4892306125</v>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
         <v>750</v>
       </c>
       <c r="G118" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D118,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D118,Sheet2!A:B,2,0)</f>
         <v>118.600362343,24.901652384</v>
       </c>
     </row>
@@ -8170,7 +8170,7 @@
         <v>751</v>
       </c>
       <c r="G119" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D119,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D119,Sheet2!A:B,2,0)</f>
         <v>117.017996739,25.0786854335</v>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
         <v>752</v>
       </c>
       <c r="G120" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D120,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D120,Sheet2!A:B,2,0)</f>
         <v>119.54208215,26.6565274192</v>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
         <v>753</v>
       </c>
       <c r="G121" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D121,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D121,Sheet2!A:B,2,0)</f>
         <v>118.181882949,26.6436264742</v>
       </c>
     </row>
@@ -8242,7 +8242,7 @@
         <v>754</v>
       </c>
       <c r="G122" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D122,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D122,Sheet2!A:B,2,0)</f>
         <v>119.077730964,25.4484501367</v>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
         <v>756</v>
       </c>
       <c r="G123" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D123,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D123,Sheet2!A:B,2,0)</f>
         <v>117.642193934,26.2708352794</v>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
         <v>757</v>
       </c>
       <c r="G124" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D124,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D124,Sheet2!A:B,2,0)</f>
         <v>117.676204679,24.5170647798</v>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
         <v>923</v>
       </c>
       <c r="G125" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D125,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D125,Sheet2!A:B,2,0)</f>
         <v>115.893527546,28.6895780001</v>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
         <v>924</v>
       </c>
       <c r="G126" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D126,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D126,Sheet2!A:B,2,0)</f>
         <v>114.935909079,25.8452955363</v>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
         <v>925</v>
       </c>
       <c r="G127" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D127,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D127,Sheet2!A:B,2,0)</f>
         <v>115.999848022,29.7196395261</v>
       </c>
     </row>
@@ -8390,7 +8390,7 @@
         <v>926</v>
       </c>
       <c r="G128" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D128,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D128,Sheet2!A:B,2,0)</f>
         <v>117.186522625,29.3035627684</v>
       </c>
     </row>
@@ -8414,7 +8414,7 @@
         <v>927</v>
       </c>
       <c r="G129" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D129,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D129,Sheet2!A:B,2,0)</f>
         <v>114.992038711,27.1138476502</v>
       </c>
     </row>
@@ -8438,7 +8438,7 @@
         <v>928</v>
       </c>
       <c r="G130" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D130,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D130,Sheet2!A:B,2,0)</f>
         <v>113.859917033,27.639544223</v>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
         <v>930</v>
       </c>
       <c r="G131" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D131,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D131,Sheet2!A:B,2,0)</f>
         <v>117.955463877,28.4576225539</v>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
         <v>932</v>
       </c>
       <c r="G132" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D132,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D132,Sheet2!A:B,2,0)</f>
         <v>114.947117417,27.8223215586</v>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
         <v>933</v>
       </c>
       <c r="G133" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D133,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D133,Sheet2!A:B,2,0)</f>
         <v>114.400038672,27.8111298958</v>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>934</v>
       </c>
       <c r="G134" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D134,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D134,Sheet2!A:B,2,0)</f>
         <v>117.035450186,28.2413095972</v>
       </c>
     </row>
@@ -8558,7 +8558,7 @@
         <v>935</v>
       </c>
       <c r="G135" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D135,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D135,Sheet2!A:B,2,0)</f>
         <v>116.360918867,27.9545451703</v>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
         <v>978</v>
       </c>
       <c r="G136" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D136,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D136,Sheet2!A:B,2,0)</f>
         <v>117.024967066,36.6827847272</v>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
         <v>980</v>
       </c>
       <c r="G137" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D137,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D137,Sheet2!A:B,2,0)</f>
         <v>120.384428184,36.1052149013</v>
       </c>
     </row>
@@ -8633,7 +8633,7 @@
         <v>981</v>
       </c>
       <c r="G138" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D138,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D138,Sheet2!A:B,2,0)</f>
         <v>122.093958366,37.5287870813</v>
       </c>
     </row>
@@ -8658,7 +8658,7 @@
         <v>983</v>
       </c>
       <c r="G139" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D139,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D139,Sheet2!A:B,2,0)</f>
         <v>121.30955503,37.5365615629</v>
       </c>
     </row>
@@ -8683,7 +8683,7 @@
         <v>984</v>
       </c>
       <c r="G140" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D140,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D140,Sheet2!A:B,2,0)</f>
         <v>119.142633823,36.7161148731</v>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
         <v>985</v>
       </c>
       <c r="G141" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D141,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D141,Sheet2!A:B,2,0)</f>
         <v>117.089414917,36.1880777589</v>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
         <v>986</v>
       </c>
       <c r="G142" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D142,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D142,Sheet2!A:B,2,0)</f>
         <v>117.968292415,37.4053139418</v>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
         <v>987</v>
       </c>
       <c r="G143" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D143,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D143,Sheet2!A:B,2,0)</f>
         <v>116.328161364,37.4608259263</v>
       </c>
     </row>
@@ -8782,7 +8782,7 @@
         <v>988</v>
       </c>
       <c r="G144" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D144,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D144,Sheet2!A:B,2,0)</f>
         <v>118.583926333,37.4871211553</v>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
         <v>989</v>
       </c>
       <c r="G145" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D145,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D145,Sheet2!A:B,2,0)</f>
         <v>115.463359775,35.2624404961</v>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
         <v>990</v>
       </c>
       <c r="G146" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D146,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D146,Sheet2!A:B,2,0)</f>
         <v>116.600797625,35.4021216643</v>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
         <v>991</v>
       </c>
       <c r="G147" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D147,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D147,Sheet2!A:B,2,0)</f>
         <v>115.986869139,36.4558285147</v>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
         <v>992</v>
       </c>
       <c r="G148" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D148,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D148,Sheet2!A:B,2,0)</f>
         <v>118.340768237,35.0724090744</v>
       </c>
     </row>
@@ -8905,7 +8905,7 @@
         <v>993</v>
       </c>
       <c r="G149" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D149,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D149,Sheet2!A:B,2,0)</f>
         <v>117.684666912,36.2336541336</v>
       </c>
     </row>
@@ -8930,7 +8930,7 @@
         <v>994</v>
       </c>
       <c r="G150" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D150,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D150,Sheet2!A:B,2,0)</f>
         <v>119.507179943,35.4202251931</v>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
         <v>995</v>
       </c>
       <c r="G151" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D151,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D151,Sheet2!A:B,2,0)</f>
         <v>118.059134278,36.8046848542</v>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
         <v>996</v>
       </c>
       <c r="G152" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D152,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D152,Sheet2!A:B,2,0)</f>
         <v>117.279305383,34.8078830784</v>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
         <v>840</v>
       </c>
       <c r="G153" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D153,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D153,Sheet2!A:B,2,0)</f>
         <v>113.64964385,34.7566100641</v>
       </c>
     </row>
@@ -9029,7 +9029,7 @@
         <v>841</v>
       </c>
       <c r="G154" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D154,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D154,Sheet2!A:B,2,0)</f>
         <v>112.447524769,34.6573678177</v>
       </c>
     </row>
@@ -9053,7 +9053,7 @@
         <v>842</v>
       </c>
       <c r="G155" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D155,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D155,Sheet2!A:B,2,0)</f>
         <v>114.351642118,34.8018541758</v>
       </c>
     </row>
@@ -9077,7 +9077,7 @@
         <v>843</v>
       </c>
       <c r="G156" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D156,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D156,Sheet2!A:B,2,0)</f>
         <v>113.83531246,34.0267395887</v>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
         <v>844</v>
       </c>
       <c r="G157" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D157,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D157,Sheet2!A:B,2,0)</f>
         <v>114.351806508,36.1102667222</v>
       </c>
     </row>
@@ -9126,7 +9126,7 @@
         <v>845</v>
       </c>
       <c r="G158" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D158,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D158,Sheet2!A:B,2,0)</f>
         <v>113.300848978,33.7453014565</v>
       </c>
     </row>
@@ -9150,7 +9150,7 @@
         <v>846</v>
       </c>
       <c r="G159" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D159,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D159,Sheet2!A:B,2,0)</f>
         <v>114.297769838,35.7554258742</v>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
         <v>847</v>
       </c>
       <c r="G160" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D160,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D160,Sheet2!A:B,2,0)</f>
         <v>113.211835885,35.234607555</v>
       </c>
     </row>
@@ -9198,7 +9198,7 @@
         <v>848</v>
       </c>
       <c r="G161" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D161,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D161,Sheet2!A:B,2,0)</f>
         <v>114.0460614,33.5762786885</v>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
         <v>849</v>
       </c>
       <c r="G162" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D162,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D162,Sheet2!A:B,2,0)</f>
         <v>112.542841901,33.0114195691</v>
       </c>
     </row>
@@ -9247,7 +9247,7 @@
         <v>850</v>
       </c>
       <c r="G163" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D163,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D163,Sheet2!A:B,2,0)</f>
         <v>115.026627441,35.7532978882</v>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
         <v>852</v>
       </c>
       <c r="G164" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D164,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D164,Sheet2!A:B,2,0)</f>
         <v>111.181262093,34.7833199411</v>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
         <v>853</v>
       </c>
       <c r="G165" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D165,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D165,Sheet2!A:B,2,0)</f>
         <v>115.641885688,34.4385886402</v>
       </c>
     </row>
@@ -9320,7 +9320,7 @@
         <v>854</v>
       </c>
       <c r="G166" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D166,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D166,Sheet2!A:B,2,0)</f>
         <v>113.912690161,35.3072575577</v>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
         <v>856</v>
       </c>
       <c r="G167" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D167,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D167,Sheet2!A:B,2,0)</f>
         <v>114.085490993,32.1285823075</v>
       </c>
     </row>
@@ -9368,7 +9368,7 @@
         <v>857</v>
       </c>
       <c r="G168" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D168,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D168,Sheet2!A:B,2,0)</f>
         <v>114.049153547,32.9831581541</v>
       </c>
     </row>
@@ -9392,7 +9392,7 @@
         <v>858</v>
       </c>
       <c r="G169" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D169,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D169,Sheet2!A:B,2,0)</f>
         <v>114.654101942,33.6237408181</v>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
         <v>873</v>
       </c>
       <c r="G170" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D170,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D170,Sheet2!A:B,2,0)</f>
         <v>114.316200103,30.5810841269</v>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
         <v>874</v>
       </c>
       <c r="G171" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D171,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D171,Sheet2!A:B,2,0)</f>
         <v>112.250092848,32.2291685915</v>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
         <v>875</v>
       </c>
       <c r="G172" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D172,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D172,Sheet2!A:B,2,0)</f>
         <v>110.801228917,32.6369943395</v>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
         <v>876</v>
       </c>
       <c r="G173" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D173,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D173,Sheet2!A:B,2,0)</f>
         <v>115.050683164,30.2161271277</v>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
         <v>877</v>
       </c>
       <c r="G174" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D174,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D174,Sheet2!A:B,2,0)</f>
         <v>114.895594041,30.3844393228</v>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>879</v>
       </c>
       <c r="G176" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D176,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D176,Sheet2!A:B,2,0)</f>
         <v>114.906618047,30.4461089379</v>
       </c>
     </row>
@@ -9584,7 +9584,7 @@
         <v>880</v>
       </c>
       <c r="G177" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D177,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D177,Sheet2!A:B,2,0)</f>
         <v>112.241865807,30.332590523</v>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
         <v>881</v>
       </c>
       <c r="G178" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D178,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D178,Sheet2!A:B,2,0)</f>
         <v>112.217330299,31.0426112029</v>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
         <v>874</v>
       </c>
       <c r="G179" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D179,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D179,Sheet2!A:B,2,0)</f>
         <v>113.379358364,31.7178576082</v>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
         <v>882</v>
       </c>
       <c r="G180" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D180,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D180,Sheet2!A:B,2,0)</f>
         <v>111.310981092,30.732757818</v>
       </c>
     </row>
@@ -9727,7 +9727,7 @@
         <v>883</v>
       </c>
       <c r="G183" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D183,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D183,Sheet2!A:B,2,0)</f>
         <v>113.935734392,30.9279547842</v>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
         <v>884</v>
       </c>
       <c r="G184" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D184,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D184,Sheet2!A:B,2,0)</f>
         <v>114.300060592,29.8806567577</v>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
         <v>885</v>
       </c>
       <c r="G185" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D185,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D185,Sheet2!A:B,2,0)</f>
         <v>112.979352788,28.2134782309</v>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
         <v>886</v>
       </c>
       <c r="G186" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D186,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D186,Sheet2!A:B,2,0)</f>
         <v>113.146195519,29.3780070755</v>
       </c>
     </row>
@@ -9826,7 +9826,7 @@
         <v>887</v>
       </c>
       <c r="G187" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D187,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D187,Sheet2!A:B,2,0)</f>
         <v>112.935555633,27.835095053</v>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
         <v>889</v>
       </c>
       <c r="G188" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D188,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D188,Sheet2!A:B,2,0)</f>
         <v>111.653718137,29.0121488552</v>
       </c>
     </row>
@@ -9875,7 +9875,7 @@
         <v>891</v>
       </c>
       <c r="G189" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D189,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D189,Sheet2!A:B,2,0)</f>
         <v>113.037704468,25.7822639757</v>
       </c>
     </row>
@@ -9900,7 +9900,7 @@
         <v>892</v>
       </c>
       <c r="G190" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D190,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D190,Sheet2!A:B,2,0)</f>
         <v>112.583818811,26.8981644154</v>
       </c>
     </row>
@@ -9924,7 +9924,7 @@
         <v>893</v>
       </c>
       <c r="G191" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D191,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D191,Sheet2!A:B,2,0)</f>
         <v>109.986958796,27.5574829012</v>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
         <v>894</v>
       </c>
       <c r="G192" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D192,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D192,Sheet2!A:B,2,0)</f>
         <v>111.996396357,27.7410733023</v>
       </c>
     </row>
@@ -9972,7 +9972,7 @@
         <v>895</v>
       </c>
       <c r="G193" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D193,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D193,Sheet2!A:B,2,0)</f>
         <v>111.461525404,27.2368112449</v>
       </c>
     </row>
@@ -9996,7 +9996,7 @@
         <v>896</v>
       </c>
       <c r="G194" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D194,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D194,Sheet2!A:B,2,0)</f>
         <v>112.366546645,28.5880877799</v>
       </c>
     </row>
@@ -10020,7 +10020,7 @@
         <v>897</v>
       </c>
       <c r="G195" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D195,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D195,Sheet2!A:B,2,0)</f>
         <v>111.614647686,26.4359716468</v>
       </c>
     </row>
@@ -10045,7 +10045,7 @@
         <v>898</v>
       </c>
       <c r="G196" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D196,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D196,Sheet2!A:B,2,0)</f>
         <v>113.131695341,27.8274329277</v>
       </c>
     </row>
@@ -10069,7 +10069,7 @@
         <v>899</v>
       </c>
       <c r="G197" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D197,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D197,Sheet2!A:B,2,0)</f>
         <v>110.481620157,29.1248893532</v>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
         <v>775</v>
       </c>
       <c r="G199" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D199,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D199,Sheet2!A:B,2,0)</f>
         <v>113.307649675,23.1200491021</v>
       </c>
     </row>
@@ -10142,7 +10142,7 @@
         <v>776</v>
       </c>
       <c r="G200" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D200,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D200,Sheet2!A:B,2,0)</f>
         <v>114.025973657,22.5460535462</v>
       </c>
     </row>
@@ -10167,7 +10167,7 @@
         <v>777</v>
       </c>
       <c r="G201" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D201,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D201,Sheet2!A:B,2,0)</f>
         <v>113.562447026,22.2569146461</v>
       </c>
     </row>
@@ -10192,7 +10192,7 @@
         <v>778</v>
       </c>
       <c r="G202" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D202,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D202,Sheet2!A:B,2,0)</f>
         <v>113.763433991,23.0430238154</v>
       </c>
     </row>
@@ -10217,7 +10217,7 @@
         <v>779</v>
       </c>
       <c r="G203" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D203,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D203,Sheet2!A:B,2,0)</f>
         <v>113.134025635,23.0350948405</v>
       </c>
     </row>
@@ -10242,7 +10242,7 @@
         <v>781</v>
       </c>
       <c r="G204" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D204,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D204,Sheet2!A:B,2,0)</f>
         <v>114.41065808,23.1135398524</v>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
         <v>782</v>
       </c>
       <c r="G205" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D205,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D205,Sheet2!A:B,2,0)</f>
         <v>113.078125341,22.5751167835</v>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
         <v>783</v>
       </c>
       <c r="G206" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D206,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D206,Sheet2!A:B,2,0)</f>
         <v>113.422060021,22.5451775145</v>
       </c>
     </row>
@@ -10317,7 +10317,7 @@
         <v>777</v>
       </c>
       <c r="G207" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D207,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D207,Sheet2!A:B,2,0)</f>
         <v>116.728650288,23.3839084533</v>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
         <v>784</v>
       </c>
       <c r="G208" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D208,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D208,Sheet2!A:B,2,0)</f>
         <v>110.365067263,21.2574631038</v>
       </c>
     </row>
@@ -10365,7 +10365,7 @@
         <v>786</v>
       </c>
       <c r="G209" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D209,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D209,Sheet2!A:B,2,0)</f>
         <v>116.630075991,23.6618116765</v>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
         <v>787</v>
       </c>
       <c r="G210" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D210,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D210,Sheet2!A:B,2,0)</f>
         <v>114.713721476,23.7572508505</v>
       </c>
     </row>
@@ -10414,7 +10414,7 @@
         <v>789</v>
       </c>
       <c r="G211" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D211,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D211,Sheet2!A:B,2,0)</f>
         <v>116.379500855,23.5479994669</v>
       </c>
     </row>
@@ -10438,7 +10438,7 @@
         <v>790</v>
       </c>
       <c r="G212" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D212,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D212,Sheet2!A:B,2,0)</f>
         <v>110.931245331,21.6682257188</v>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
         <v>780</v>
       </c>
       <c r="G213" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D213,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D213,Sheet2!A:B,2,0)</f>
         <v>116.126403098,24.304570606</v>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
         <v>791</v>
       </c>
       <c r="G214" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D214,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D214,Sheet2!A:B,2,0)</f>
         <v>113.040773349,23.6984685504</v>
       </c>
     </row>
@@ -10510,7 +10510,7 @@
         <v>792</v>
       </c>
       <c r="G215" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D215,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D215,Sheet2!A:B,2,0)</f>
         <v>113.594461107,24.8029603119</v>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
         <v>793</v>
       </c>
       <c r="G216" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D216,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D216,Sheet2!A:B,2,0)</f>
         <v>115.372924289,22.7787305002</v>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
         <v>794</v>
       </c>
       <c r="G217" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D217,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D217,Sheet2!A:B,2,0)</f>
         <v>111.977009756,21.8715173045</v>
       </c>
     </row>
@@ -10582,7 +10582,7 @@
         <v>795</v>
       </c>
       <c r="G218" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D218,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D218,Sheet2!A:B,2,0)</f>
         <v>112.050945959,22.9379756855</v>
       </c>
     </row>
@@ -10607,7 +10607,7 @@
         <v>795</v>
       </c>
       <c r="G219" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D219,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D219,Sheet2!A:B,2,0)</f>
         <v>112.47965337,23.0786632829</v>
       </c>
     </row>
@@ -10632,7 +10632,7 @@
         <v>796</v>
       </c>
       <c r="G220" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D220,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D220,Sheet2!A:B,2,0)</f>
         <v>108.297233556,22.8064929356</v>
       </c>
     </row>
@@ -10656,7 +10656,7 @@
         <v>797</v>
       </c>
       <c r="G221" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D221,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D221,Sheet2!A:B,2,0)</f>
         <v>109.122627919,21.472718235</v>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
         <v>798</v>
       </c>
       <c r="G222" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D222,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D222,Sheet2!A:B,2,0)</f>
         <v>108.351791153,21.6173984705</v>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
         <v>799</v>
       </c>
       <c r="G223" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D223,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D223,Sheet2!A:B,2,0)</f>
         <v>110.260920147,25.262901246</v>
       </c>
     </row>
@@ -10730,7 +10730,7 @@
         <v>800</v>
       </c>
       <c r="G224" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D224,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D224,Sheet2!A:B,2,0)</f>
         <v>109.42240181,24.3290533525</v>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
         <v>801</v>
       </c>
       <c r="G225" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D225,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D225,Sheet2!A:B,2,0)</f>
         <v>107.357322038,22.4154552965</v>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
         <v>802</v>
       </c>
       <c r="G226" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D226,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D226,Sheet2!A:B,2,0)</f>
         <v>109.231816505,23.7411659265</v>
       </c>
     </row>
@@ -10802,7 +10802,7 @@
         <v>804</v>
       </c>
       <c r="G227" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D227,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D227,Sheet2!A:B,2,0)</f>
         <v>111.30547195,23.4853946367</v>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
         <v>805</v>
       </c>
       <c r="G228" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D228,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D228,Sheet2!A:B,2,0)</f>
         <v>108.069947709,24.6995207829</v>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
         <v>806</v>
       </c>
       <c r="G229" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D229,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D229,Sheet2!A:B,2,0)</f>
         <v>110.151676316,22.6439736084</v>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
         <v>806</v>
       </c>
       <c r="G230" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D230,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D230,Sheet2!A:B,2,0)</f>
         <v>109.613707557,23.1033731644</v>
       </c>
     </row>
@@ -10898,7 +10898,7 @@
         <v>807</v>
       </c>
       <c r="G231" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D231,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D231,Sheet2!A:B,2,0)</f>
         <v>111.552594179,24.4110535471</v>
       </c>
     </row>
@@ -10922,7 +10922,7 @@
         <v>809</v>
       </c>
       <c r="G232" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D232,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D232,Sheet2!A:B,2,0)</f>
         <v>108.638798056,21.9733504653</v>
       </c>
     </row>
@@ -10946,7 +10946,7 @@
         <v>811</v>
       </c>
       <c r="G233" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D233,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D233,Sheet2!A:B,2,0)</f>
         <v>106.631821404,23.9015123679</v>
       </c>
     </row>
@@ -10971,7 +10971,7 @@
         <v>821</v>
       </c>
       <c r="G234" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D234,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D234,Sheet2!A:B,2,0)</f>
         <v>110.330801848,20.022071277</v>
       </c>
     </row>
@@ -10996,7 +10996,7 @@
         <v>822</v>
       </c>
       <c r="G235" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D235,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D235,Sheet2!A:B,2,0)</f>
         <v>109.522771281,18.2577759149</v>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
         <v>731</v>
       </c>
       <c r="G246" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D246,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D246,Sheet2!A:B,2,0)</f>
         <v>106.530635013,29.5446061089</v>
       </c>
     </row>
@@ -11276,7 +11276,7 @@
         <v>1020</v>
       </c>
       <c r="G247" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D247,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D247,Sheet2!A:B,2,0)</f>
         <v>104.067923463,30.6799428454</v>
       </c>
     </row>
@@ -11301,7 +11301,7 @@
         <v>1022</v>
       </c>
       <c r="G248" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D248,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D248,Sheet2!A:B,2,0)</f>
         <v>104.705518975,31.5047012581</v>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
         <v>1023</v>
       </c>
       <c r="G249" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D249,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D249,Sheet2!A:B,2,0)</f>
         <v>104.635930302,30.132191434</v>
       </c>
     </row>
@@ -11349,7 +11349,7 @@
         <v>1024</v>
       </c>
       <c r="G250" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D250,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D250,Sheet2!A:B,2,0)</f>
         <v>106.757915842,31.8691891592</v>
       </c>
     </row>
@@ -11374,7 +11374,7 @@
         <v>1025</v>
       </c>
       <c r="G251" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D251,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D251,Sheet2!A:B,2,0)</f>
         <v>104.402397818,31.1311396527</v>
       </c>
     </row>
@@ -11398,7 +11398,7 @@
         <v>731</v>
       </c>
       <c r="G252" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D252,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D252,Sheet2!A:B,2,0)</f>
         <v>107.494973447,31.2141988589</v>
       </c>
     </row>
@@ -11422,7 +11422,7 @@
         <v>1026</v>
       </c>
       <c r="G253" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D253,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D253,Sheet2!A:B,2,0)</f>
         <v>106.635720331,30.4639838879</v>
       </c>
     </row>
@@ -11446,7 +11446,7 @@
         <v>1027</v>
       </c>
       <c r="G254" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D254,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D254,Sheet2!A:B,2,0)</f>
         <v>105.81968694,32.4410401584</v>
       </c>
     </row>
@@ -11470,7 +11470,7 @@
         <v>1028</v>
       </c>
       <c r="G255" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D255,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D255,Sheet2!A:B,2,0)</f>
         <v>103.760824239,29.6009576111</v>
       </c>
     </row>
@@ -11494,7 +11494,7 @@
         <v>1029</v>
       </c>
       <c r="G256" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D256,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D256,Sheet2!A:B,2,0)</f>
         <v>105.443970289,28.8959298039</v>
       </c>
     </row>
@@ -11518,7 +11518,7 @@
         <v>1028</v>
       </c>
       <c r="G257" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D257,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D257,Sheet2!A:B,2,0)</f>
         <v>103.841429563,30.0611150799</v>
       </c>
     </row>
@@ -11542,7 +11542,7 @@
         <v>1023</v>
       </c>
       <c r="G258" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D258,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D258,Sheet2!A:B,2,0)</f>
         <v>105.073055992,29.5994615348</v>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
         <v>1030</v>
       </c>
       <c r="G259" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D259,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D259,Sheet2!A:B,2,0)</f>
         <v>106.105553984,30.8009651682</v>
       </c>
     </row>
@@ -11590,7 +11590,7 @@
         <v>1031</v>
       </c>
       <c r="G260" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D260,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D260,Sheet2!A:B,2,0)</f>
         <v>101.722423152,26.5875712571</v>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
         <v>1032</v>
       </c>
       <c r="G261" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D261,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D261,Sheet2!A:B,2,0)</f>
         <v>105.564887792,30.5574913504</v>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
         <v>1033</v>
       </c>
       <c r="G262" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D262,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D262,Sheet2!A:B,2,0)</f>
         <v>104.633019062,28.7696747963</v>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
         <v>1034</v>
       </c>
       <c r="G263" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D263,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D263,Sheet2!A:B,2,0)</f>
         <v>103.009356466,29.9997163371</v>
       </c>
     </row>
@@ -11686,7 +11686,7 @@
         <v>1035</v>
       </c>
       <c r="G264" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D264,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D264,Sheet2!A:B,2,0)</f>
         <v>104.776071339,29.3591568895</v>
       </c>
     </row>
@@ -11780,7 +11780,7 @@
         <v>812</v>
       </c>
       <c r="G268" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D268,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D268,Sheet2!A:B,2,0)</f>
         <v>106.709177096,26.6299067414</v>
       </c>
     </row>
@@ -11804,7 +11804,7 @@
         <v>813</v>
       </c>
       <c r="G269" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D269,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D269,Sheet2!A:B,2,0)</f>
         <v>105.928269966,26.2285945777</v>
       </c>
     </row>
@@ -11828,7 +11828,7 @@
         <v>814</v>
       </c>
       <c r="G270" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D270,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D270,Sheet2!A:B,2,0)</f>
         <v>106.931260316,27.6999613771</v>
       </c>
     </row>
@@ -11852,7 +11852,7 @@
         <v>815</v>
       </c>
       <c r="G271" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D271,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D271,Sheet2!A:B,2,0)</f>
         <v>104.85208676,26.5918660603</v>
       </c>
     </row>
@@ -11876,7 +11876,7 @@
         <v>816</v>
       </c>
       <c r="G272" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D272,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D272,Sheet2!A:B,2,0)</f>
         <v>105.333323371,27.4085621313</v>
       </c>
     </row>
@@ -11969,7 +11969,7 @@
         <v>820</v>
       </c>
       <c r="G276" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D276,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D276,Sheet2!A:B,2,0)</f>
         <v>109.168558028,27.6749026906</v>
       </c>
     </row>
@@ -11994,7 +11994,7 @@
         <v>1060</v>
       </c>
       <c r="G277" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D277,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D277,Sheet2!A:B,2,0)</f>
         <v>102.714601139,25.0491531005</v>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
         <v>1061</v>
       </c>
       <c r="G278" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D278,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D278,Sheet2!A:B,2,0)</f>
         <v>102.545067892,24.3704471344</v>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
         <v>1065</v>
       </c>
       <c r="G282" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D282,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D282,Sheet2!A:B,2,0)</f>
         <v>103.782538888,25.5207581429</v>
       </c>
     </row>
@@ -12158,7 +12158,7 @@
         <v>1067</v>
       </c>
       <c r="G284" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D284,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D284,Sheet2!A:B,2,0)</f>
         <v>103.725020656,27.3406329636</v>
       </c>
     </row>
@@ -12182,7 +12182,7 @@
         <v>1068</v>
       </c>
       <c r="G285" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D285,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D285,Sheet2!A:B,2,0)</f>
         <v>99.1779956133,25.1204891962</v>
       </c>
     </row>
@@ -12252,7 +12252,7 @@
         <v>1071</v>
       </c>
       <c r="G288" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D288,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D288,Sheet2!A:B,2,0)</f>
         <v>100.229628399,26.8753510895</v>
       </c>
     </row>
@@ -12276,7 +12276,7 @@
         <v>1072</v>
       </c>
       <c r="G289" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D289,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D289,Sheet2!A:B,2,0)</f>
         <v>100.092612914,23.8878061038</v>
       </c>
     </row>
@@ -12323,7 +12323,7 @@
         <v>1074</v>
       </c>
       <c r="G291" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D291,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D291,Sheet2!A:B,2,0)</f>
         <v>100.98005773,22.7887777801</v>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
         <v>1039</v>
       </c>
       <c r="G293" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D293,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D293,Sheet2!A:B,2,0)</f>
         <v>91.111890896,29.6625570621</v>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
         <v>1009</v>
       </c>
       <c r="G300" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D300,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D300,Sheet2!A:B,2,0)</f>
         <v>108.953098279,34.2777998978</v>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
         <v>1010</v>
       </c>
       <c r="G301" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D301,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D301,Sheet2!A:B,2,0)</f>
         <v>109.038044563,32.70437045</v>
       </c>
     </row>
@@ -12581,7 +12581,7 @@
         <v>1011</v>
       </c>
       <c r="G302" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D302,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D302,Sheet2!A:B,2,0)</f>
         <v>107.170645452,34.3640808097</v>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
         <v>1012</v>
       </c>
       <c r="G303" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D303,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D303,Sheet2!A:B,2,0)</f>
         <v>107.045477629,33.0815689782</v>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
         <v>1013</v>
       </c>
       <c r="G304" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D304,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D304,Sheet2!A:B,2,0)</f>
         <v>109.934208154,33.8739073951</v>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
         <v>1014</v>
       </c>
       <c r="G305" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D305,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D305,Sheet2!A:B,2,0)</f>
         <v>108.968067013,34.9083676964</v>
       </c>
     </row>
@@ -12677,7 +12677,7 @@
         <v>1016</v>
       </c>
       <c r="G306" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D306,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D306,Sheet2!A:B,2,0)</f>
         <v>109.483932697,34.5023579758</v>
       </c>
     </row>
@@ -12702,7 +12702,7 @@
         <v>1017</v>
       </c>
       <c r="G307" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D307,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D307,Sheet2!A:B,2,0)</f>
         <v>108.707509278,34.345372996</v>
       </c>
     </row>
@@ -12726,7 +12726,7 @@
         <v>1018</v>
       </c>
       <c r="G308" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D308,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D308,Sheet2!A:B,2,0)</f>
         <v>109.500509757,36.6033203523</v>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
         <v>1019</v>
       </c>
       <c r="G309" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D309,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D309,Sheet2!A:B,2,0)</f>
         <v>109.745925744,38.2794392401</v>
       </c>
     </row>
@@ -12776,7 +12776,7 @@
         <v>758</v>
       </c>
       <c r="G310" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D310,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D310,Sheet2!A:B,2,0)</f>
         <v>103.823305441,36.064225525</v>
       </c>
     </row>
@@ -12800,7 +12800,7 @@
         <v>759</v>
       </c>
       <c r="G311" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D311,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D311,Sheet2!A:B,2,0)</f>
         <v>104.171240904,36.5466817062</v>
       </c>
     </row>
@@ -12824,7 +12824,7 @@
         <v>760</v>
       </c>
       <c r="G312" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D312,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D312,Sheet2!A:B,2,0)</f>
         <v>104.626637601,35.5860562418</v>
       </c>
     </row>
@@ -12848,7 +12848,7 @@
         <v>761</v>
       </c>
       <c r="G313" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D313,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D313,Sheet2!A:B,2,0)</f>
         <v>102.208126263,38.5160717995</v>
       </c>
     </row>
@@ -12872,7 +12872,7 @@
         <v>762</v>
       </c>
       <c r="G314" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D314,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D314,Sheet2!A:B,2,0)</f>
         <v>98.5084145062,39.7414737682</v>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
         <v>763</v>
       </c>
       <c r="G315" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D315,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D315,Sheet2!A:B,2,0)</f>
         <v>106.688911157,35.55011019</v>
       </c>
     </row>
@@ -12920,7 +12920,7 @@
         <v>764</v>
       </c>
       <c r="G316" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D316,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D316,Sheet2!A:B,2,0)</f>
         <v>107.644227087,35.7268007545</v>
       </c>
     </row>
@@ -12944,7 +12944,7 @@
         <v>765</v>
       </c>
       <c r="G317" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D317,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D317,Sheet2!A:B,2,0)</f>
         <v>102.640147343,37.9331721429</v>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
         <v>766</v>
       </c>
       <c r="G318" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D318,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D318,Sheet2!A:B,2,0)</f>
         <v>105.736931623,34.5843194189</v>
       </c>
     </row>
@@ -12992,7 +12992,7 @@
         <v>768</v>
       </c>
       <c r="G319" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D319,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D319,Sheet2!A:B,2,0)</f>
         <v>100.459891869,38.939320297</v>
       </c>
     </row>
@@ -13039,7 +13039,7 @@
         <v>770</v>
       </c>
       <c r="G321" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D321,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D321,Sheet2!A:B,2,0)</f>
         <v>98.2816345853,39.8023973267</v>
       </c>
     </row>
@@ -13086,7 +13086,7 @@
         <v>773</v>
       </c>
       <c r="G323" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D323,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D323,Sheet2!A:B,2,0)</f>
         <v>104.934573406,33.3944799729</v>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
         <v>969</v>
       </c>
       <c r="G324" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D324,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D324,Sheet2!A:B,2,0)</f>
         <v>101.76792099,36.640738612</v>
       </c>
     </row>
@@ -13297,7 +13297,7 @@
         <v>965</v>
       </c>
       <c r="G332" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D332,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D332,Sheet2!A:B,2,0)</f>
         <v>106.206478608,38.5026210119</v>
       </c>
     </row>
@@ -13321,7 +13321,7 @@
         <v>966</v>
       </c>
       <c r="G333" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D333,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D333,Sheet2!A:B,2,0)</f>
         <v>106.379337202,39.0202232836</v>
       </c>
     </row>
@@ -13345,7 +13345,7 @@
         <v>967</v>
       </c>
       <c r="G334" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D334,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D334,Sheet2!A:B,2,0)</f>
         <v>106.285267996,36.0215234807</v>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
         <v>968</v>
       </c>
       <c r="G335" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D335,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D335,Sheet2!A:B,2,0)</f>
         <v>106.208254199,37.9935610029</v>
       </c>
     </row>
@@ -13393,7 +13393,7 @@
         <v>968</v>
       </c>
       <c r="G336" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D336,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D336,Sheet2!A:B,2,0)</f>
         <v>105.196754199,37.5211241916</v>
       </c>
     </row>
@@ -13418,7 +13418,7 @@
         <v>1046</v>
       </c>
       <c r="G337" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D337,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D337,Sheet2!A:B,2,0)</f>
         <v>87.5649877411,43.8403803472</v>
       </c>
     </row>
@@ -13672,7 +13672,7 @@
         <v>1057</v>
       </c>
       <c r="G348" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D348,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D348,Sheet2!A:B,2,0)</f>
         <v>84.8811801861,45.5943310667</v>
       </c>
     </row>
@@ -13742,7 +13742,7 @@
         <v>1088</v>
       </c>
       <c r="G351" s="2" t="str">
-        <f>VLOOKUP(Sheet1!D351,Sheet2!A:B,2,0)</f>
+        <f>VLOOKUP(data!D351,Sheet2!A:B,2,0)</f>
         <v>114.183870524,22.2721034276</v>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
   <dimension ref="A2:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/citys.xlsx
+++ b/data/citys.xlsx
@@ -5082,43 +5082,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <condense val="0"/>
@@ -5128,30 +5092,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5483,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B340" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D320" sqref="D320"/>
+    <sheetView tabSelected="1" topLeftCell="B346" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8312,7 +8252,7 @@
       <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="9" t="s">
         <v>1551</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -8419,7 +8359,7 @@
       <c r="C107" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="9" t="s">
         <v>356</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -10445,7 +10385,7 @@
       <c r="C181" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="9" t="s">
         <v>1518</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -10471,7 +10411,7 @@
       <c r="C182" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="9" t="s">
         <v>1519</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -15062,10 +15002,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/citys.xlsx
+++ b/data/citys.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1564">
   <si>
     <t>010</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4844,10 +4844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -4972,13 +4968,21 @@
   </si>
   <si>
     <t>0853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_valid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -5133,6 +5137,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5179,7 +5191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5211,9 +5223,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5245,6 +5258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5420,11 +5434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B346" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I344" sqref="I344"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5454,7 +5468,7 @@
         <v>1478</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1530</v>
+        <v>1563</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>1479</v>
@@ -5480,7 +5494,7 @@
         <v>643</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F2" s="7">
         <f>VLOOKUP(D2,Sheet3!B:C,2,FALSE)</f>
@@ -5508,7 +5522,7 @@
         <v>645</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F3" s="7">
         <f>VLOOKUP(D3,Sheet3!B:C,2,FALSE)</f>
@@ -5536,7 +5550,7 @@
         <v>788</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F4" s="7">
         <f>VLOOKUP(D4,Sheet3!B:C,2,FALSE)</f>
@@ -5564,7 +5578,7 @@
         <v>791</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F5" s="7">
         <f>VLOOKUP(D5,Sheet3!B:C,2,FALSE)</f>
@@ -5592,7 +5606,7 @@
         <v>1495</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F6" s="7">
         <v>4</v>
@@ -5619,7 +5633,7 @@
         <v>1496</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F7" s="7">
         <f>VLOOKUP(D7,Sheet3!B:C,2,FALSE)</f>
@@ -5647,7 +5661,7 @@
         <v>439</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F8" s="7">
         <f>VLOOKUP(D8,Sheet3!B:C,2,FALSE)</f>
@@ -5675,7 +5689,7 @@
         <v>796</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F9" s="7">
         <v>4</v>
@@ -5702,7 +5716,7 @@
         <v>441</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F10" s="7">
         <f>VLOOKUP(D10,Sheet3!B:C,2,FALSE)</f>
@@ -5730,7 +5744,7 @@
         <v>442</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F11" s="7">
         <v>4</v>
@@ -5757,7 +5771,7 @@
         <v>443</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F12" s="7">
         <f>VLOOKUP(D12,Sheet3!B:C,2,FALSE)</f>
@@ -5785,7 +5799,7 @@
         <v>444</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F13" s="7">
         <f>VLOOKUP(D13,Sheet3!B:C,2,FALSE)</f>
@@ -5813,7 +5827,7 @@
         <v>445</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F14" s="7">
         <v>4</v>
@@ -5840,7 +5854,7 @@
         <v>566</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F15" s="7">
         <f>VLOOKUP(D15,Sheet3!B:C,2,FALSE)</f>
@@ -5868,7 +5882,7 @@
         <v>336</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F16" s="7">
         <f>VLOOKUP(D16,Sheet3!B:C,2,FALSE)</f>
@@ -5896,7 +5910,7 @@
         <v>337</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F17" s="7">
         <f>VLOOKUP(D17,Sheet3!B:C,2,FALSE)</f>
@@ -5924,7 +5938,7 @@
         <v>338</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F18" s="7">
         <v>4</v>
@@ -5951,7 +5965,7 @@
         <v>567</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F19" s="7">
         <v>4</v>
@@ -5978,7 +5992,7 @@
         <v>568</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F20" s="7">
         <v>4</v>
@@ -6005,7 +6019,7 @@
         <v>569</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F21" s="7">
         <v>4</v>
@@ -6032,7 +6046,7 @@
         <v>964</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F22" s="7">
         <v>4</v>
@@ -6059,7 +6073,7 @@
         <v>571</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F23" s="7">
         <v>4</v>
@@ -6086,7 +6100,7 @@
         <v>572</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F24" s="7">
         <f>VLOOKUP(D24,Sheet3!B:C,2,FALSE)</f>
@@ -6114,7 +6128,7 @@
         <v>573</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F25" s="7">
         <v>4</v>
@@ -6141,7 +6155,7 @@
         <v>667</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F26" s="7">
         <f>VLOOKUP(D26,Sheet3!B:C,2,FALSE)</f>
@@ -6169,7 +6183,7 @@
         <v>913</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F27" s="7">
         <f>VLOOKUP(D27,Sheet3!B:C,2,FALSE)</f>
@@ -6197,7 +6211,7 @@
         <v>331</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F28" s="7">
         <v>4</v>
@@ -6224,7 +6238,7 @@
         <v>1497</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F29" s="7">
         <f>VLOOKUP(D29,Sheet3!B:C,2,FALSE)</f>
@@ -6252,7 +6266,7 @@
         <v>669</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F30" s="7">
         <v>4</v>
@@ -6279,7 +6293,7 @@
         <v>538</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F31" s="7">
         <v>4</v>
@@ -6306,7 +6320,7 @@
         <v>539</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F32" s="7">
         <v>4</v>
@@ -6333,7 +6347,7 @@
         <v>670</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F33" s="7">
         <v>4</v>
@@ -6360,7 +6374,7 @@
         <v>540</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F34" s="7">
         <v>4</v>
@@ -6387,7 +6401,7 @@
         <v>671</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F35" s="7">
         <v>4</v>
@@ -6414,7 +6428,7 @@
         <v>672</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F36" s="7">
         <v>4</v>
@@ -6441,7 +6455,7 @@
         <v>673</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F37" s="7">
         <v>4</v>
@@ -6467,7 +6481,7 @@
         <v>523</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F38" s="7">
         <f>VLOOKUP(D38,Sheet3!B:C,2,FALSE)</f>
@@ -6495,7 +6509,7 @@
         <v>524</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F39" s="7">
         <f>VLOOKUP(D39,Sheet3!B:C,2,FALSE)</f>
@@ -6523,7 +6537,7 @@
         <v>525</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F40" s="7">
         <f>VLOOKUP(D40,Sheet3!B:C,2,FALSE)</f>
@@ -6551,7 +6565,7 @@
         <v>526</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F41" s="7">
         <f>VLOOKUP(D41,Sheet3!B:C,2,FALSE)</f>
@@ -6579,7 +6593,7 @@
         <v>527</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F42" s="7">
         <v>4</v>
@@ -6606,7 +6620,7 @@
         <v>528</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F43" s="7">
         <f>VLOOKUP(D43,Sheet3!B:C,2,FALSE)</f>
@@ -6634,7 +6648,7 @@
         <v>529</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F44" s="7">
         <f>VLOOKUP(D44,Sheet3!B:C,2,FALSE)</f>
@@ -6662,7 +6676,7 @@
         <v>904</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F45" s="7">
         <v>4</v>
@@ -6689,7 +6703,7 @@
         <v>531</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F46" s="7">
         <v>4</v>
@@ -6716,7 +6730,7 @@
         <v>532</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F47" s="7">
         <v>4</v>
@@ -6743,7 +6757,7 @@
         <v>678</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F48" s="7">
         <v>4</v>
@@ -6770,7 +6784,7 @@
         <v>534</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F49" s="7">
         <v>4</v>
@@ -6797,7 +6811,7 @@
         <v>535</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F50" s="7">
         <v>4</v>
@@ -6824,7 +6838,7 @@
         <v>536</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F51" s="7">
         <v>4</v>
@@ -6851,7 +6865,7 @@
         <v>495</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F52" s="7">
         <f>VLOOKUP(D52,Sheet3!B:C,2,FALSE)</f>
@@ -6879,7 +6893,7 @@
         <v>496</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F53" s="7">
         <f>VLOOKUP(D53,Sheet3!B:C,2,FALSE)</f>
@@ -6907,7 +6921,7 @@
         <v>1515</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F54" s="7">
         <v>4</v>
@@ -6933,7 +6947,7 @@
         <v>497</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F55" s="7">
         <v>4</v>
@@ -6960,7 +6974,7 @@
         <v>1500</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F56" s="7">
         <v>4</v>
@@ -6987,7 +7001,7 @@
         <v>867</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F57" s="7">
         <v>4</v>
@@ -7014,7 +7028,7 @@
         <v>500</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F58" s="7">
         <v>4</v>
@@ -7041,7 +7055,7 @@
         <v>501</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F59" s="7">
         <v>4</v>
@@ -7068,7 +7082,7 @@
         <v>327</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F60" s="7">
         <v>4</v>
@@ -7095,7 +7109,7 @@
         <v>822</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F61" s="7">
         <f>VLOOKUP(D61,Sheet3!B:C,2,FALSE)</f>
@@ -7123,7 +7137,7 @@
         <v>462</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F62" s="7">
         <f>VLOOKUP(D62,Sheet3!B:C,2,FALSE)</f>
@@ -7151,7 +7165,7 @@
         <v>665</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F63" s="7">
         <f>VLOOKUP(D63,Sheet3!B:C,2,FALSE)</f>
@@ -7179,7 +7193,7 @@
         <v>463</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F64" s="7">
         <v>4</v>
@@ -7206,7 +7220,7 @@
         <v>666</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F65" s="7">
         <v>4</v>
@@ -7232,7 +7246,7 @@
         <v>464</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F66" s="7">
         <v>4</v>
@@ -7259,7 +7273,7 @@
         <v>465</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F67" s="7">
         <v>4</v>
@@ -7286,7 +7300,7 @@
         <v>466</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F68" s="7">
         <v>4</v>
@@ -7313,7 +7327,7 @@
         <v>467</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F69" s="7">
         <v>4</v>
@@ -7340,7 +7354,7 @@
         <v>468</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F70" s="7">
         <v>4</v>
@@ -7367,7 +7381,7 @@
         <v>323</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F71" s="7">
         <v>4</v>
@@ -7394,7 +7408,7 @@
         <v>469</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F72" s="7">
         <v>4</v>
@@ -7421,7 +7435,7 @@
         <v>470</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F73" s="7">
         <v>4</v>
@@ -7448,7 +7462,7 @@
         <v>644</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F74" s="7">
         <f>VLOOKUP(D74,Sheet3!B:C,2,FALSE)</f>
@@ -7476,7 +7490,7 @@
         <v>502</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F75" s="7">
         <f>VLOOKUP(D75,Sheet3!B:C,2,FALSE)</f>
@@ -7504,7 +7518,7 @@
         <v>503</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F76" s="7">
         <f>VLOOKUP(D76,Sheet3!B:C,2,FALSE)</f>
@@ -7532,7 +7546,7 @@
         <v>874</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F77" s="7">
         <f>VLOOKUP(D77,Sheet3!B:C,2,FALSE)</f>
@@ -7560,7 +7574,7 @@
         <v>505</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F78" s="7">
         <f>VLOOKUP(D78,Sheet3!B:C,2,FALSE)</f>
@@ -7588,7 +7602,7 @@
         <v>506</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F79" s="7">
         <f>VLOOKUP(D79,Sheet3!B:C,2,FALSE)</f>
@@ -7616,7 +7630,7 @@
         <v>507</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F80" s="7">
         <f>VLOOKUP(D80,Sheet3!B:C,2,FALSE)</f>
@@ -7644,7 +7658,7 @@
         <v>508</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F81" s="7">
         <f>VLOOKUP(D81,Sheet3!B:C,2,FALSE)</f>
@@ -7672,7 +7686,7 @@
         <v>509</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F82" s="7">
         <f>VLOOKUP(D82,Sheet3!B:C,2,FALSE)</f>
@@ -7700,7 +7714,7 @@
         <v>510</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F83" s="7">
         <f>VLOOKUP(D83,Sheet3!B:C,2,FALSE)</f>
@@ -7728,7 +7742,7 @@
         <v>511</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F84" s="7">
         <f>VLOOKUP(D84,Sheet3!B:C,2,FALSE)</f>
@@ -7756,7 +7770,7 @@
         <v>512</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F85" s="7">
         <f>VLOOKUP(D85,Sheet3!B:C,2,FALSE)</f>
@@ -7784,7 +7798,7 @@
         <v>513</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F86" s="7">
         <v>4</v>
@@ -7811,7 +7825,7 @@
         <v>514</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F87" s="7">
         <f>VLOOKUP(D87,Sheet3!B:C,2,FALSE)</f>
@@ -7839,7 +7853,7 @@
         <v>630</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F88" s="7">
         <f>VLOOKUP(D88,Sheet3!B:C,2,FALSE)</f>
@@ -7867,7 +7881,7 @@
         <v>631</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F89" s="7">
         <f>VLOOKUP(D89,Sheet3!B:C,2,FALSE)</f>
@@ -7895,7 +7909,7 @@
         <v>632</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F90" s="7">
         <f>VLOOKUP(D90,Sheet3!B:C,2,FALSE)</f>
@@ -7923,7 +7937,7 @@
         <v>633</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F91" s="7">
         <f>VLOOKUP(D91,Sheet3!B:C,2,FALSE)</f>
@@ -7951,7 +7965,7 @@
         <v>634</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F92" s="7">
         <f>VLOOKUP(D92,Sheet3!B:C,2,FALSE)</f>
@@ -7979,7 +7993,7 @@
         <v>1041</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F93" s="7">
         <f>VLOOKUP(D93,Sheet3!B:C,2,FALSE)</f>
@@ -8007,7 +8021,7 @@
         <v>1504</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F94" s="7">
         <f>VLOOKUP(D94,Sheet3!B:C,2,FALSE)</f>
@@ -8035,7 +8049,7 @@
         <v>637</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F95" s="7">
         <f>VLOOKUP(D95,Sheet3!B:C,2,FALSE)</f>
@@ -8063,7 +8077,7 @@
         <v>638</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F96" s="7">
         <v>4</v>
@@ -8090,7 +8104,7 @@
         <v>639</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F97" s="7">
         <f>VLOOKUP(D97,Sheet3!B:C,2,FALSE)</f>
@@ -8118,7 +8132,7 @@
         <v>640</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F98" s="7">
         <v>4</v>
@@ -8145,7 +8159,7 @@
         <v>348</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F99" s="7">
         <f>VLOOKUP(D99,Sheet3!B:C,2,FALSE)</f>
@@ -8173,7 +8187,7 @@
         <v>349</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F100" s="7">
         <f>VLOOKUP(D100,Sheet3!B:C,2,FALSE)</f>
@@ -8201,7 +8215,7 @@
         <v>350</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F101" s="7">
         <f>VLOOKUP(D101,Sheet3!B:C,2,FALSE)</f>
@@ -8229,7 +8243,7 @@
         <v>351</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F102" s="7">
         <v>4</v>
@@ -8253,16 +8267,16 @@
         <v>8</v>
       </c>
       <c r="D103" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>1552</v>
-      </c>
       <c r="F103" s="7">
         <v>4</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>701</v>
+        <v>1562</v>
       </c>
       <c r="H103" s="2" t="str">
         <f>VLOOKUP(data!D103,Sheet2!A:B,2,0)</f>
@@ -8283,7 +8297,7 @@
         <v>353</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F104" s="7">
         <v>4</v>
@@ -8303,13 +8317,13 @@
         <v>650</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>354</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F105" s="7">
         <v>4</v>
@@ -8336,7 +8350,7 @@
         <v>355</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F106" s="7">
         <v>4</v>
@@ -8363,7 +8377,7 @@
         <v>356</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F107" s="7">
         <v>4</v>
@@ -8390,7 +8404,7 @@
         <v>357</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F108" s="7">
         <v>4</v>
@@ -8417,7 +8431,7 @@
         <v>358</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F109" s="7">
         <v>4</v>
@@ -8444,7 +8458,7 @@
         <v>359</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F110" s="7">
         <v>4</v>
@@ -8471,7 +8485,7 @@
         <v>360</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F111" s="7">
         <v>4</v>
@@ -8498,7 +8512,7 @@
         <v>647</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F112" s="7">
         <f>VLOOKUP(D112,Sheet3!B:C,2,FALSE)</f>
@@ -8526,7 +8540,7 @@
         <v>362</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F113" s="7">
         <v>4</v>
@@ -8553,7 +8567,7 @@
         <v>314</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F114" s="7">
         <v>4</v>
@@ -8580,7 +8594,7 @@
         <v>315</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F115" s="7">
         <v>4</v>
@@ -8607,7 +8621,7 @@
         <v>363</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F116" s="7">
         <f>VLOOKUP(D116,Sheet3!B:C,2,FALSE)</f>
@@ -8635,7 +8649,7 @@
         <v>364</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F117" s="7">
         <f>VLOOKUP(D117,Sheet3!B:C,2,FALSE)</f>
@@ -8663,7 +8677,7 @@
         <v>365</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F118" s="7">
         <f>VLOOKUP(D118,Sheet3!B:C,2,FALSE)</f>
@@ -8691,7 +8705,7 @@
         <v>366</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F119" s="7">
         <f>VLOOKUP(D119,Sheet3!B:C,2,FALSE)</f>
@@ -8719,7 +8733,7 @@
         <v>367</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F120" s="7">
         <v>4</v>
@@ -8746,7 +8760,7 @@
         <v>368</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F121" s="7">
         <v>4</v>
@@ -8773,7 +8787,7 @@
         <v>369</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F122" s="7">
         <v>4</v>
@@ -8800,7 +8814,7 @@
         <v>720</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F123" s="7">
         <v>4</v>
@@ -8827,7 +8841,7 @@
         <v>371</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F124" s="7">
         <f>VLOOKUP(D124,Sheet3!B:C,2,FALSE)</f>
@@ -8855,7 +8869,7 @@
         <v>515</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F125" s="7">
         <f>VLOOKUP(D125,Sheet3!B:C,2,FALSE)</f>
@@ -8883,7 +8897,7 @@
         <v>516</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F126" s="7">
         <f>VLOOKUP(D126,Sheet3!B:C,2,FALSE)</f>
@@ -8911,7 +8925,7 @@
         <v>517</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F127" s="7">
         <f>VLOOKUP(D127,Sheet3!B:C,2,FALSE)</f>
@@ -8939,7 +8953,7 @@
         <v>518</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F128" s="7">
         <v>4</v>
@@ -8966,7 +8980,7 @@
         <v>519</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F129" s="7">
         <v>4</v>
@@ -8993,7 +9007,7 @@
         <v>520</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F130" s="7">
         <v>4</v>
@@ -9020,7 +9034,7 @@
         <v>890</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F131" s="7">
         <v>4</v>
@@ -9047,7 +9061,7 @@
         <v>892</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F132" s="7">
         <v>4</v>
@@ -9074,7 +9088,7 @@
         <v>330</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F133" s="7">
         <v>4</v>
@@ -9101,7 +9115,7 @@
         <v>521</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F134" s="7">
         <v>4</v>
@@ -9128,7 +9142,7 @@
         <v>522</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F135" s="7">
         <v>4</v>
@@ -9155,7 +9169,7 @@
         <v>550</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F136" s="7">
         <f>VLOOKUP(D136,Sheet3!B:C,2,FALSE)</f>
@@ -9183,7 +9197,7 @@
         <v>939</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F137" s="7">
         <f>VLOOKUP(D137,Sheet3!B:C,2,FALSE)</f>
@@ -9211,7 +9225,7 @@
         <v>552</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F138" s="7">
         <f>VLOOKUP(D138,Sheet3!B:C,2,FALSE)</f>
@@ -9239,7 +9253,7 @@
         <v>942</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F139" s="7">
         <f>VLOOKUP(D139,Sheet3!B:C,2,FALSE)</f>
@@ -9267,7 +9281,7 @@
         <v>554</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F140" s="7">
         <f>VLOOKUP(D140,Sheet3!B:C,2,FALSE)</f>
@@ -9295,7 +9309,7 @@
         <v>555</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F141" s="7">
         <f>VLOOKUP(D141,Sheet3!B:C,2,FALSE)</f>
@@ -9323,7 +9337,7 @@
         <v>556</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F142" s="7">
         <f>VLOOKUP(D142,Sheet3!B:C,2,FALSE)</f>
@@ -9351,7 +9365,7 @@
         <v>557</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F143" s="7">
         <v>4</v>
@@ -9378,7 +9392,7 @@
         <v>558</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F144" s="7">
         <f>VLOOKUP(D144,Sheet3!B:C,2,FALSE)</f>
@@ -9406,7 +9420,7 @@
         <v>559</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F145" s="7">
         <v>4</v>
@@ -9433,7 +9447,7 @@
         <v>560</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F146" s="7">
         <f>VLOOKUP(D146,Sheet3!B:C,2,FALSE)</f>
@@ -9461,7 +9475,7 @@
         <v>561</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F147" s="7">
         <f>VLOOKUP(D147,Sheet3!B:C,2,FALSE)</f>
@@ -9489,7 +9503,7 @@
         <v>562</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F148" s="7">
         <f>VLOOKUP(D148,Sheet3!B:C,2,FALSE)</f>
@@ -9517,7 +9531,7 @@
         <v>563</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F149" s="7">
         <v>4</v>
@@ -9544,7 +9558,7 @@
         <v>564</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F150" s="7">
         <f>VLOOKUP(D150,Sheet3!B:C,2,FALSE)</f>
@@ -9572,7 +9586,7 @@
         <v>565</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F151" s="7">
         <f>VLOOKUP(D151,Sheet3!B:C,2,FALSE)</f>
@@ -9600,7 +9614,7 @@
         <v>335</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F152" s="7">
         <v>4</v>
@@ -9627,7 +9641,7 @@
         <v>802</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F153" s="7">
         <f>VLOOKUP(D153,Sheet3!B:C,2,FALSE)</f>
@@ -9655,7 +9669,7 @@
         <v>447</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F154" s="7">
         <f>VLOOKUP(D154,Sheet3!B:C,2,FALSE)</f>
@@ -9683,7 +9697,7 @@
         <v>448</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F155" s="7">
         <v>4</v>
@@ -9710,7 +9724,7 @@
         <v>449</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F156" s="7">
         <v>4</v>
@@ -9737,7 +9751,7 @@
         <v>450</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F157" s="7">
         <v>4</v>
@@ -9764,7 +9778,7 @@
         <v>451</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F158" s="7">
         <f>VLOOKUP(D158,Sheet3!B:C,2,FALSE)</f>
@@ -9792,7 +9806,7 @@
         <v>321</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F159" s="7">
         <v>4</v>
@@ -9819,7 +9833,7 @@
         <v>322</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F160" s="7">
         <v>4</v>
@@ -9846,7 +9860,7 @@
         <v>452</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F161" s="7">
         <v>4</v>
@@ -9873,7 +9887,7 @@
         <v>453</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F162" s="7">
         <f>VLOOKUP(D162,Sheet3!B:C,2,FALSE)</f>
@@ -9901,7 +9915,7 @@
         <v>454</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F163" s="7">
         <v>4</v>
@@ -9928,7 +9942,7 @@
         <v>814</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F164" s="7">
         <v>4</v>
@@ -9955,7 +9969,7 @@
         <v>456</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F165" s="7">
         <v>4</v>
@@ -9982,7 +9996,7 @@
         <v>457</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F166" s="7">
         <f>VLOOKUP(D166,Sheet3!B:C,2,FALSE)</f>
@@ -10010,7 +10024,7 @@
         <v>818</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F167" s="7">
         <v>4</v>
@@ -10037,7 +10051,7 @@
         <v>459</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F168" s="7">
         <v>4</v>
@@ -10064,7 +10078,7 @@
         <v>460</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F169" s="7">
         <v>4</v>
@@ -10091,7 +10105,7 @@
         <v>471</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F170" s="7">
         <f>VLOOKUP(D170,Sheet3!B:C,2,FALSE)</f>
@@ -10119,7 +10133,7 @@
         <v>472</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F171" s="7">
         <v>4</v>
@@ -10146,7 +10160,7 @@
         <v>473</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F172" s="7">
         <v>4</v>
@@ -10173,7 +10187,7 @@
         <v>474</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F173" s="7">
         <v>4</v>
@@ -10200,7 +10214,7 @@
         <v>475</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F174" s="7">
         <v>4</v>
@@ -10227,7 +10241,7 @@
         <v>476</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F175" s="7">
         <v>4</v>
@@ -10253,7 +10267,7 @@
         <v>477</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F176" s="7">
         <v>4</v>
@@ -10280,7 +10294,7 @@
         <v>478</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F177" s="7">
         <v>4</v>
@@ -10307,7 +10321,7 @@
         <v>479</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F178" s="7">
         <v>4</v>
@@ -10334,7 +10348,7 @@
         <v>480</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F179" s="7">
         <v>4</v>
@@ -10361,7 +10375,7 @@
         <v>481</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F180" s="7">
         <f>VLOOKUP(D180,Sheet3!B:C,2,FALSE)</f>
@@ -10389,7 +10403,7 @@
         <v>1518</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F181" s="7">
         <v>4</v>
@@ -10415,7 +10429,7 @@
         <v>1519</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F182" s="7">
         <v>4</v>
@@ -10441,7 +10455,7 @@
         <v>482</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F183" s="7">
         <v>4</v>
@@ -10468,7 +10482,7 @@
         <v>483</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F184" s="7">
         <v>4</v>
@@ -10495,7 +10509,7 @@
         <v>324</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F185" s="7">
         <f>VLOOKUP(D185,Sheet3!B:C,2,FALSE)</f>
@@ -10523,7 +10537,7 @@
         <v>325</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F186" s="7">
         <f>VLOOKUP(D186,Sheet3!B:C,2,FALSE)</f>
@@ -10551,7 +10565,7 @@
         <v>326</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F187" s="7">
         <f>VLOOKUP(D187,Sheet3!B:C,2,FALSE)</f>
@@ -10579,7 +10593,7 @@
         <v>851</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F188" s="7">
         <v>4</v>
@@ -10606,7 +10620,7 @@
         <v>853</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F189" s="7">
         <f>VLOOKUP(D189,Sheet3!B:C,2,FALSE)</f>
@@ -10634,7 +10648,7 @@
         <v>486</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F190" s="7">
         <f>VLOOKUP(D190,Sheet3!B:C,2,FALSE)</f>
@@ -10662,7 +10676,7 @@
         <v>487</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F191" s="7">
         <v>4</v>
@@ -10689,7 +10703,7 @@
         <v>488</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F192" s="7">
         <v>4</v>
@@ -10716,7 +10730,7 @@
         <v>489</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F193" s="7">
         <v>4</v>
@@ -10743,7 +10757,7 @@
         <v>490</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F194" s="7">
         <v>4</v>
@@ -10770,7 +10784,7 @@
         <v>491</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F195" s="7">
         <v>4</v>
@@ -10797,7 +10811,7 @@
         <v>492</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F196" s="7">
         <f>VLOOKUP(D196,Sheet3!B:C,2,FALSE)</f>
@@ -10825,7 +10839,7 @@
         <v>1506</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F197" s="7">
         <v>4</v>
@@ -10852,7 +10866,7 @@
         <v>494</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F198" s="7">
         <v>4</v>
@@ -10878,7 +10892,7 @@
         <v>739</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F199" s="7">
         <f>VLOOKUP(D199,Sheet3!B:C,2,FALSE)</f>
@@ -10906,7 +10920,7 @@
         <v>384</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F200" s="7">
         <f>VLOOKUP(D200,Sheet3!B:C,2,FALSE)</f>
@@ -10934,7 +10948,7 @@
         <v>385</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F201" s="7">
         <f>VLOOKUP(D201,Sheet3!B:C,2,FALSE)</f>
@@ -10962,7 +10976,7 @@
         <v>386</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F202" s="7">
         <f>VLOOKUP(D202,Sheet3!B:C,2,FALSE)</f>
@@ -10990,7 +11004,7 @@
         <v>387</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F203" s="7">
         <f>VLOOKUP(D203,Sheet3!B:C,2,FALSE)</f>
@@ -11018,7 +11032,7 @@
         <v>388</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F204" s="7">
         <f>VLOOKUP(D204,Sheet3!B:C,2,FALSE)</f>
@@ -11046,7 +11060,7 @@
         <v>389</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F205" s="7">
         <f>VLOOKUP(D205,Sheet3!B:C,2,FALSE)</f>
@@ -11074,7 +11088,7 @@
         <v>390</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F206" s="7">
         <f>VLOOKUP(D206,Sheet3!B:C,2,FALSE)</f>
@@ -11102,7 +11116,7 @@
         <v>391</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F207" s="7">
         <f>VLOOKUP(D207,Sheet3!B:C,2,FALSE)</f>
@@ -11130,7 +11144,7 @@
         <v>392</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F208" s="7">
         <v>4</v>
@@ -11157,7 +11171,7 @@
         <v>750</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F209" s="7">
         <v>4</v>
@@ -11184,7 +11198,7 @@
         <v>394</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F210" s="7">
         <v>4</v>
@@ -11211,7 +11225,7 @@
         <v>753</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F211" s="7">
         <f>VLOOKUP(D211,Sheet3!B:C,2,FALSE)</f>
@@ -11239,7 +11253,7 @@
         <v>396</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F212" s="7">
         <v>4</v>
@@ -11266,7 +11280,7 @@
         <v>397</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F213" s="7">
         <v>4</v>
@@ -11293,7 +11307,7 @@
         <v>398</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F214" s="7">
         <v>4</v>
@@ -11320,7 +11334,7 @@
         <v>399</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F215" s="7">
         <v>4</v>
@@ -11347,7 +11361,7 @@
         <v>318</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F216" s="7">
         <v>4</v>
@@ -11374,7 +11388,7 @@
         <v>319</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F217" s="7">
         <v>4</v>
@@ -11401,7 +11415,7 @@
         <v>400</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F218" s="7">
         <v>4</v>
@@ -11428,7 +11442,7 @@
         <v>401</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F219" s="7">
         <f>VLOOKUP(D219,Sheet3!B:C,2,FALSE)</f>
@@ -11456,7 +11470,7 @@
         <v>402</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F220" s="7">
         <f>VLOOKUP(D220,Sheet3!B:C,2,FALSE)</f>
@@ -11484,7 +11498,7 @@
         <v>403</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F221" s="7">
         <v>4</v>
@@ -11511,7 +11525,7 @@
         <v>404</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F222" s="7">
         <v>4</v>
@@ -11538,7 +11552,7 @@
         <v>405</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F223" s="7">
         <f>VLOOKUP(D223,Sheet3!B:C,2,FALSE)</f>
@@ -11563,10 +11577,10 @@
         <v>62</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F224" s="7">
         <f>VLOOKUP(D224,Sheet3!B:C,2,FALSE)</f>
@@ -11594,7 +11608,7 @@
         <v>1523</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F225" s="7">
         <v>4</v>
@@ -11621,7 +11635,7 @@
         <v>408</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F226" s="7">
         <v>4</v>
@@ -11645,10 +11659,10 @@
         <v>63</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F227" s="7">
         <v>4</v>
@@ -11675,7 +11689,7 @@
         <v>410</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F228" s="7">
         <v>4</v>
@@ -11702,7 +11716,7 @@
         <v>1527</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F229" s="7">
         <v>4</v>
@@ -11729,7 +11743,7 @@
         <v>1526</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F230" s="7">
         <v>4</v>
@@ -11756,7 +11770,7 @@
         <v>1508</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F231" s="7">
         <v>4</v>
@@ -11783,7 +11797,7 @@
         <v>771</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F232" s="7">
         <v>4</v>
@@ -11810,7 +11824,7 @@
         <v>773</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F233" s="7">
         <v>4</v>
@@ -11837,7 +11851,7 @@
         <v>424</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F234" s="7">
         <f>VLOOKUP(D234,Sheet3!B:C,2,FALSE)</f>
@@ -11865,7 +11879,7 @@
         <v>425</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F235" s="7">
         <f>VLOOKUP(D235,Sheet3!B:C,2,FALSE)</f>
@@ -11893,7 +11907,7 @@
         <v>426</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F236" s="7">
         <v>4</v>
@@ -11919,7 +11933,7 @@
         <v>427</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F237" s="7">
         <v>4</v>
@@ -11945,7 +11959,7 @@
         <v>428</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F238" s="7">
         <v>4</v>
@@ -11971,7 +11985,7 @@
         <v>429</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F239" s="7">
         <v>4</v>
@@ -11997,7 +12011,7 @@
         <v>430</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F240" s="7">
         <v>4</v>
@@ -12017,13 +12031,13 @@
         <v>333</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>431</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F241" s="7">
         <v>4</v>
@@ -12043,13 +12057,13 @@
         <v>333</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>432</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F242" s="7">
         <v>4</v>
@@ -12075,7 +12089,7 @@
         <v>433</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F243" s="7">
         <v>4</v>
@@ -12095,13 +12109,13 @@
         <v>333</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>434</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F244" s="7">
         <v>4</v>
@@ -12121,13 +12135,13 @@
         <v>333</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>787</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F245" s="7">
         <v>4</v>
@@ -12153,7 +12167,7 @@
         <v>646</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F246" s="7">
         <f>VLOOKUP(D246,Sheet3!B:C,2,FALSE)</f>
@@ -12181,7 +12195,7 @@
         <v>583</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F247" s="7">
         <f>VLOOKUP(D247,Sheet3!B:C,2,FALSE)</f>
@@ -12203,13 +12217,13 @@
         <v>685</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F248" s="7">
         <f>VLOOKUP(D248,Sheet3!B:C,2,FALSE)</f>
@@ -12234,10 +12248,10 @@
         <v>254</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F249" s="7">
         <v>4</v>
@@ -12264,7 +12278,7 @@
         <v>584</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F250" s="7">
         <v>4</v>
@@ -12291,7 +12305,7 @@
         <v>585</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F251" s="7">
         <f>VLOOKUP(D251,Sheet3!B:C,2,FALSE)</f>
@@ -12319,7 +12333,7 @@
         <v>586</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F252" s="7">
         <v>4</v>
@@ -12340,13 +12354,13 @@
         <v>685</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>587</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F253" s="7">
         <v>4</v>
@@ -12373,7 +12387,7 @@
         <v>588</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F254" s="7">
         <v>4</v>
@@ -12400,7 +12414,7 @@
         <v>589</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F255" s="7">
         <v>4</v>
@@ -12427,7 +12441,7 @@
         <v>590</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F256" s="7">
         <v>4</v>
@@ -12448,13 +12462,13 @@
         <v>685</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>591</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F257" s="7">
         <v>4</v>
@@ -12475,13 +12489,13 @@
         <v>685</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>592</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F258" s="7">
         <v>4</v>
@@ -12508,7 +12522,7 @@
         <v>593</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F259" s="7">
         <v>4</v>
@@ -12535,7 +12549,7 @@
         <v>594</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F260" s="7">
         <v>4</v>
@@ -12562,7 +12576,7 @@
         <v>595</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F261" s="7">
         <v>4</v>
@@ -12589,7 +12603,7 @@
         <v>596</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F262" s="7">
         <v>4</v>
@@ -12616,7 +12630,7 @@
         <v>597</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F263" s="7">
         <v>4</v>
@@ -12643,7 +12657,7 @@
         <v>598</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F264" s="7">
         <v>4</v>
@@ -12670,7 +12684,7 @@
         <v>599</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F265" s="7">
         <v>4</v>
@@ -12696,7 +12710,7 @@
         <v>600</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F266" s="7">
         <v>4</v>
@@ -12722,7 +12736,7 @@
         <v>342</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F267" s="7">
         <v>4</v>
@@ -12748,7 +12762,7 @@
         <v>416</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F268" s="7">
         <f>VLOOKUP(D268,Sheet3!B:C,2,FALSE)</f>
@@ -12776,7 +12790,7 @@
         <v>417</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F269" s="7">
         <v>4</v>
@@ -12800,10 +12814,10 @@
         <v>70</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F270" s="7">
         <v>4</v>
@@ -12830,7 +12844,7 @@
         <v>418</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F271" s="7">
         <v>4</v>
@@ -12857,7 +12871,7 @@
         <v>419</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F272" s="7">
         <v>4</v>
@@ -12884,7 +12898,7 @@
         <v>420</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F273" s="7">
         <v>4</v>
@@ -12910,7 +12924,7 @@
         <v>421</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F274" s="7">
         <v>4</v>
@@ -12936,7 +12950,7 @@
         <v>422</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F275" s="7">
         <v>4</v>
@@ -12962,7 +12976,7 @@
         <v>423</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F276" s="7">
         <v>4</v>
@@ -12989,7 +13003,7 @@
         <v>343</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F277" s="7">
         <f>VLOOKUP(D277,Sheet3!B:C,2,FALSE)</f>
@@ -13017,7 +13031,7 @@
         <v>344</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F278" s="7">
         <v>4</v>
@@ -13044,7 +13058,7 @@
         <v>618</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F279" s="7">
         <v>4</v>
@@ -13070,7 +13084,7 @@
         <v>619</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F280" s="7">
         <v>4</v>
@@ -13096,7 +13110,7 @@
         <v>620</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F281" s="7">
         <v>4</v>
@@ -13122,7 +13136,7 @@
         <v>621</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F282" s="7">
         <v>4</v>
@@ -13149,7 +13163,7 @@
         <v>677</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F283" s="7">
         <v>4</v>
@@ -13175,7 +13189,7 @@
         <v>622</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F284" s="7">
         <v>4</v>
@@ -13202,7 +13216,7 @@
         <v>623</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F285" s="7">
         <v>4</v>
@@ -13229,7 +13243,7 @@
         <v>624</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F286" s="7">
         <v>4</v>
@@ -13255,7 +13269,7 @@
         <v>625</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F287" s="7">
         <v>4</v>
@@ -13281,7 +13295,7 @@
         <v>626</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F288" s="7">
         <v>4</v>
@@ -13308,7 +13322,7 @@
         <v>627</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F289" s="7">
         <v>4</v>
@@ -13335,7 +13349,7 @@
         <v>628</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F290" s="7">
         <v>4</v>
@@ -13361,7 +13375,7 @@
         <v>629</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F291" s="7">
         <v>4</v>
@@ -13388,7 +13402,7 @@
         <v>1035</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F292" s="7">
         <v>4</v>
@@ -13414,7 +13428,7 @@
         <v>601</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F293" s="7">
         <v>4</v>
@@ -13441,7 +13455,7 @@
         <v>602</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F294" s="7">
         <v>4</v>
@@ -13467,7 +13481,7 @@
         <v>603</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F295" s="7">
         <v>4</v>
@@ -13493,7 +13507,7 @@
         <v>604</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F296" s="7">
         <v>4</v>
@@ -13519,7 +13533,7 @@
         <v>605</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F297" s="7">
         <v>4</v>
@@ -13539,13 +13553,13 @@
         <v>686</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>606</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F298" s="7">
         <v>4</v>
@@ -13571,7 +13585,7 @@
         <v>607</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F299" s="7">
         <v>4</v>
@@ -13597,7 +13611,7 @@
         <v>574</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F300" s="7">
         <f>VLOOKUP(D300,Sheet3!B:C,2,FALSE)</f>
@@ -13625,7 +13639,7 @@
         <v>575</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F301" s="7">
         <v>4</v>
@@ -13652,7 +13666,7 @@
         <v>576</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F302" s="7">
         <v>4</v>
@@ -13679,7 +13693,7 @@
         <v>577</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F303" s="7">
         <v>4</v>
@@ -13706,7 +13720,7 @@
         <v>578</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F304" s="7">
         <v>4</v>
@@ -13733,7 +13747,7 @@
         <v>579</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F305" s="7">
         <v>4</v>
@@ -13760,7 +13774,7 @@
         <v>975</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F306" s="7">
         <v>4</v>
@@ -13787,7 +13801,7 @@
         <v>581</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F307" s="7">
         <f>VLOOKUP(D307,Sheet3!B:C,2,FALSE)</f>
@@ -13815,7 +13829,7 @@
         <v>582</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F308" s="7">
         <v>4</v>
@@ -13842,7 +13856,7 @@
         <v>339</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F309" s="7">
         <f>VLOOKUP(D309,Sheet3!B:C,2,FALSE)</f>
@@ -13870,7 +13884,7 @@
         <v>372</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F310" s="7">
         <f>VLOOKUP(D310,Sheet3!B:C,2,FALSE)</f>
@@ -13898,7 +13912,7 @@
         <v>373</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F311" s="7">
         <v>4</v>
@@ -13925,7 +13939,7 @@
         <v>374</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F312" s="7">
         <v>4</v>
@@ -13946,13 +13960,13 @@
         <v>652</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F313" s="7">
         <v>4</v>
@@ -13979,7 +13993,7 @@
         <v>376</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F314" s="7">
         <v>4</v>
@@ -14006,7 +14020,7 @@
         <v>377</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F315" s="7">
         <v>4</v>
@@ -14033,7 +14047,7 @@
         <v>378</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F316" s="7">
         <v>4</v>
@@ -14054,13 +14068,13 @@
         <v>652</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F317" s="7">
         <v>4</v>
@@ -14087,7 +14101,7 @@
         <v>380</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F318" s="7">
         <v>4</v>
@@ -14114,7 +14128,7 @@
         <v>732</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F319" s="7">
         <v>4</v>
@@ -14141,7 +14155,7 @@
         <v>317</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F320" s="7">
         <v>4</v>
@@ -14161,13 +14175,13 @@
         <v>652</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F321" s="7">
         <v>4</v>
@@ -14194,7 +14208,7 @@
         <v>736</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F322" s="7">
         <v>4</v>
@@ -14214,13 +14228,13 @@
         <v>652</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F323" s="7">
         <v>4</v>
@@ -14247,7 +14261,7 @@
         <v>546</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F324" s="7">
         <f>VLOOKUP(D324,Sheet3!B:C,2,FALSE)</f>
@@ -14269,13 +14283,13 @@
         <v>681</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F325" s="7">
         <v>4</v>
@@ -14301,7 +14315,7 @@
         <v>1456</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F326" s="7">
         <v>4</v>
@@ -14327,7 +14341,7 @@
         <v>548</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F327" s="7">
         <v>4</v>
@@ -14347,13 +14361,13 @@
         <v>681</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F328" s="7">
         <v>4</v>
@@ -14379,7 +14393,7 @@
         <v>332</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F329" s="7">
         <v>4</v>
@@ -14405,7 +14419,7 @@
         <v>935</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F330" s="7">
         <v>4</v>
@@ -14431,7 +14445,7 @@
         <v>334</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F331" s="7">
         <v>4</v>
@@ -14451,13 +14465,13 @@
         <v>680</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>924</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F332" s="7">
         <f>VLOOKUP(D332,Sheet3!B:C,2,FALSE)</f>
@@ -14485,7 +14499,7 @@
         <v>542</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F333" s="7">
         <v>4</v>
@@ -14512,7 +14526,7 @@
         <v>543</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F334" s="7">
         <v>4</v>
@@ -14539,7 +14553,7 @@
         <v>544</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F335" s="7">
         <v>4</v>
@@ -14560,13 +14574,13 @@
         <v>680</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F336" s="7">
         <v>4</v>
@@ -14593,7 +14607,7 @@
         <v>1493</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F337" s="7">
         <f>VLOOKUP(D337,Sheet3!B:C,2,FALSE)</f>
@@ -14621,7 +14635,7 @@
         <v>1457</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F338" s="7">
         <v>4</v>
@@ -14647,7 +14661,7 @@
         <v>608</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F339" s="7">
         <v>4</v>
@@ -14667,13 +14681,13 @@
         <v>687</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>609</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F340" s="7">
         <v>4</v>
@@ -14699,7 +14713,7 @@
         <v>610</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F341" s="7">
         <v>4</v>
@@ -14725,7 +14739,7 @@
         <v>611</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F342" s="7">
         <v>4</v>
@@ -14751,7 +14765,7 @@
         <v>675</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F343" s="7">
         <v>4</v>
@@ -14777,7 +14791,7 @@
         <v>612</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F344" s="7">
         <v>4</v>
@@ -14803,7 +14817,7 @@
         <v>613</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F345" s="7">
         <v>4</v>
@@ -14829,7 +14843,7 @@
         <v>614</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F346" s="7">
         <v>4</v>
@@ -14855,7 +14869,7 @@
         <v>615</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F347" s="7">
         <v>4</v>
@@ -14881,7 +14895,7 @@
         <v>676</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F348" s="7">
         <v>4</v>
@@ -14908,7 +14922,7 @@
         <v>616</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F349" s="7">
         <v>4</v>
@@ -14934,7 +14948,7 @@
         <v>617</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F350" s="7">
         <v>4</v>
@@ -14954,13 +14968,13 @@
         <v>641</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F351" s="7">
         <v>4</v>
@@ -14981,13 +14995,13 @@
         <v>642</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>649</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F352" s="7">
         <v>4</v>
@@ -15015,7 +15029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18875,7 +18889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/citys.xlsx
+++ b/data/citys.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -4844,6 +4844,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>is_valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -4971,18 +4975,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_valid</t>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -4991,29 +4991,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF323E32"/>
+      <color indexed="57"/>
       <name val="Simsun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF4D4D4D"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5025,13 +5021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5091,18 +5087,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -5135,21 +5119,25 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5191,7 +5179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5223,10 +5211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5258,7 +5245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5434,11 +5420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5468,7 +5454,7 @@
         <v>1478</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1563</v>
+        <v>1530</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>1479</v>
@@ -5494,17 +5480,17 @@
         <v>643</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="F2" s="7">
-        <f>VLOOKUP(D2,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D2,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>1498</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f>VLOOKUP(data!D2,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D2,Sheet2!A:B,2,0)</f>
         <v>116.395645038,39.9299857781</v>
       </c>
     </row>
@@ -5522,17 +5508,17 @@
         <v>645</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="F3" s="7">
-        <f>VLOOKUP(D3,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D3,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>1499</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f>VLOOKUP(data!D3,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D3,Sheet2!A:B,2,0)</f>
         <v>117.210813092,39.1439299033</v>
       </c>
     </row>
@@ -5550,17 +5536,17 @@
         <v>788</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F4" s="7">
-        <f>VLOOKUP(D4,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D4,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>789</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f>VLOOKUP(data!D4,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D4,Sheet2!A:B,2,0)</f>
         <v>114.522081844,38.0489583146</v>
       </c>
     </row>
@@ -5578,17 +5564,17 @@
         <v>791</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F5" s="7">
-        <f>VLOOKUP(D5,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D5,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>792</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>VLOOKUP(data!D5,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D5,Sheet2!A:B,2,0)</f>
         <v>115.494810169,38.886564548</v>
       </c>
     </row>
@@ -5606,7 +5592,7 @@
         <v>1495</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F6" s="7">
         <v>4</v>
@@ -5615,7 +5601,7 @@
         <v>793</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>VLOOKUP(data!D6,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D6,Sheet2!A:B,2,0)</f>
         <v>117.933822456,40.9925210525</v>
       </c>
     </row>
@@ -5633,17 +5619,17 @@
         <v>1496</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F7" s="7">
-        <f>VLOOKUP(D7,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D7,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>794</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>VLOOKUP(data!D7,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D7,Sheet2!A:B,2,0)</f>
         <v>114.482693932,36.6093079285</v>
       </c>
     </row>
@@ -5661,17 +5647,17 @@
         <v>439</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F8" s="7">
-        <f>VLOOKUP(D8,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D8,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>795</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>VLOOKUP(data!D8,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D8,Sheet2!A:B,2,0)</f>
         <v>118.183450598,39.6505309225</v>
       </c>
     </row>
@@ -5689,7 +5675,7 @@
         <v>796</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F9" s="7">
         <v>4</v>
@@ -5698,7 +5684,7 @@
         <v>797</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>VLOOKUP(data!D9,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D9,Sheet2!A:B,2,0)</f>
         <v>119.604367616,39.9454615659</v>
       </c>
     </row>
@@ -5716,17 +5702,17 @@
         <v>441</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F10" s="7">
-        <f>VLOOKUP(D10,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D10,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>798</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>VLOOKUP(data!D10,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D10,Sheet2!A:B,2,0)</f>
         <v>116.863806476,38.2976153503</v>
       </c>
     </row>
@@ -5744,7 +5730,7 @@
         <v>442</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F11" s="7">
         <v>4</v>
@@ -5753,7 +5739,7 @@
         <v>799</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>VLOOKUP(data!D11,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D11,Sheet2!A:B,2,0)</f>
         <v>115.686228653,37.7469290459</v>
       </c>
     </row>
@@ -5771,17 +5757,17 @@
         <v>443</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F12" s="7">
-        <f>VLOOKUP(D12,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D12,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>798</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>VLOOKUP(data!D12,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D12,Sheet2!A:B,2,0)</f>
         <v>116.703602223,39.5186106251</v>
       </c>
     </row>
@@ -5799,17 +5785,17 @@
         <v>444</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F13" s="7">
-        <f>VLOOKUP(D13,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D13,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>800</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f>VLOOKUP(data!D13,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D13,Sheet2!A:B,2,0)</f>
         <v>114.520486813,37.0695311969</v>
       </c>
     </row>
@@ -5827,7 +5813,7 @@
         <v>445</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F14" s="7">
         <v>4</v>
@@ -5836,7 +5822,7 @@
         <v>801</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>VLOOKUP(data!D14,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D14,Sheet2!A:B,2,0)</f>
         <v>114.89378153,40.8111884911</v>
       </c>
     </row>
@@ -5854,17 +5840,17 @@
         <v>566</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F15" s="7">
-        <f>VLOOKUP(D15,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D15,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>957</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>VLOOKUP(data!D15,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D15,Sheet2!A:B,2,0)</f>
         <v>112.550863589,37.890277054</v>
       </c>
     </row>
@@ -5882,17 +5868,17 @@
         <v>336</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F16" s="7">
-        <f>VLOOKUP(D16,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D16,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>958</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>VLOOKUP(data!D16,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D16,Sheet2!A:B,2,0)</f>
         <v>113.120292086,36.2016643857</v>
       </c>
     </row>
@@ -5910,17 +5896,17 @@
         <v>337</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F17" s="7">
-        <f>VLOOKUP(D17,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D17,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>959</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>VLOOKUP(data!D17,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D17,Sheet2!A:B,2,0)</f>
         <v>113.290508673,40.1137444997</v>
       </c>
     </row>
@@ -5938,7 +5924,7 @@
         <v>338</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F18" s="7">
         <v>4</v>
@@ -5947,7 +5933,7 @@
         <v>960</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>VLOOKUP(data!D18,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D18,Sheet2!A:B,2,0)</f>
         <v>112.867332758,35.4998344672</v>
       </c>
     </row>
@@ -5965,7 +5951,7 @@
         <v>567</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F19" s="7">
         <v>4</v>
@@ -5974,7 +5960,7 @@
         <v>961</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>VLOOKUP(data!D19,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D19,Sheet2!A:B,2,0)</f>
         <v>112.7385144,37.6933615268</v>
       </c>
     </row>
@@ -5992,7 +5978,7 @@
         <v>568</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F20" s="7">
         <v>4</v>
@@ -6001,7 +5987,7 @@
         <v>962</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>VLOOKUP(data!D20,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D20,Sheet2!A:B,2,0)</f>
         <v>111.538787596,36.0997454436</v>
       </c>
     </row>
@@ -6019,7 +6005,7 @@
         <v>569</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F21" s="7">
         <v>4</v>
@@ -6028,7 +6014,7 @@
         <v>963</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>VLOOKUP(data!D21,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D21,Sheet2!A:B,2,0)</f>
         <v>111.143156602,37.527316097</v>
       </c>
     </row>
@@ -6046,7 +6032,7 @@
         <v>964</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F22" s="7">
         <v>4</v>
@@ -6055,7 +6041,7 @@
         <v>965</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>VLOOKUP(data!D22,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D22,Sheet2!A:B,2,0)</f>
         <v>112.479927727,39.3376719662</v>
       </c>
     </row>
@@ -6073,7 +6059,7 @@
         <v>571</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F23" s="7">
         <v>4</v>
@@ -6082,7 +6068,7 @@
         <v>966</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f>VLOOKUP(data!D23,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D23,Sheet2!A:B,2,0)</f>
         <v>112.727938829,38.461030573</v>
       </c>
     </row>
@@ -6100,17 +6086,17 @@
         <v>572</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F24" s="7">
-        <f>VLOOKUP(D24,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D24,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>967</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f>VLOOKUP(data!D24,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D24,Sheet2!A:B,2,0)</f>
         <v>111.006853653,35.0388594798</v>
       </c>
     </row>
@@ -6128,7 +6114,7 @@
         <v>573</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F25" s="7">
         <v>4</v>
@@ -6137,7 +6123,7 @@
         <v>968</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f>VLOOKUP(data!D25,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D25,Sheet2!A:B,2,0)</f>
         <v>113.569237602,37.8695294932</v>
       </c>
     </row>
@@ -6155,17 +6141,17 @@
         <v>667</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F26" s="7">
-        <f>VLOOKUP(D26,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D26,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>912</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f>VLOOKUP(data!D26,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D26,Sheet2!A:B,2,0)</f>
         <v>111.66035052,40.8283188731</v>
       </c>
     </row>
@@ -6183,17 +6169,17 @@
         <v>913</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F27" s="7">
-        <f>VLOOKUP(D27,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D27,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>914</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>VLOOKUP(data!D27,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D27,Sheet2!A:B,2,0)</f>
         <v>109.846238532,40.6471194257</v>
       </c>
     </row>
@@ -6211,7 +6197,7 @@
         <v>331</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F28" s="7">
         <v>4</v>
@@ -6220,7 +6206,7 @@
         <v>915</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f>VLOOKUP(data!D28,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D28,Sheet2!A:B,2,0)</f>
         <v>118.930761192,42.2971123203</v>
       </c>
     </row>
@@ -6238,17 +6224,17 @@
         <v>1497</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F29" s="7">
-        <f>VLOOKUP(D29,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D29,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>1502</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f>VLOOKUP(data!D29,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D29,Sheet2!A:B,2,0)</f>
         <v>109.993706251,39.8164895606</v>
       </c>
     </row>
@@ -6266,7 +6252,7 @@
         <v>669</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F30" s="7">
         <v>4</v>
@@ -6275,7 +6261,7 @@
         <v>916</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f>VLOOKUP(data!D30,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D30,Sheet2!A:B,2,0)</f>
         <v>113.112846391,41.0223629468</v>
       </c>
     </row>
@@ -6293,7 +6279,7 @@
         <v>538</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F31" s="7">
         <v>4</v>
@@ -6302,7 +6288,7 @@
         <v>917</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f>VLOOKUP(data!D31,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D31,Sheet2!A:B,2,0)</f>
         <v>106.831999097,39.6831770068</v>
       </c>
     </row>
@@ -6320,7 +6306,7 @@
         <v>539</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F32" s="7">
         <v>4</v>
@@ -6329,7 +6315,7 @@
         <v>918</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f>VLOOKUP(data!D32,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D32,Sheet2!A:B,2,0)</f>
         <v>122.048166514,46.0837570652</v>
       </c>
     </row>
@@ -6347,7 +6333,7 @@
         <v>670</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F33" s="7">
         <v>4</v>
@@ -6356,7 +6342,7 @@
         <v>919</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f>VLOOKUP(data!D33,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D33,Sheet2!A:B,2,0)</f>
         <v>119.760821794,49.2016360546</v>
       </c>
     </row>
@@ -6374,7 +6360,7 @@
         <v>540</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F34" s="7">
         <v>4</v>
@@ -6383,7 +6369,7 @@
         <v>920</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f>VLOOKUP(data!D34,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D34,Sheet2!A:B,2,0)</f>
         <v>122.260363263,43.633756073</v>
       </c>
     </row>
@@ -6401,7 +6387,7 @@
         <v>671</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F35" s="7">
         <v>4</v>
@@ -6410,7 +6396,7 @@
         <v>921</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f>VLOOKUP(data!D35,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D35,Sheet2!A:B,2,0)</f>
         <v>105.695682871,38.8430752644</v>
       </c>
     </row>
@@ -6428,7 +6414,7 @@
         <v>672</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F36" s="7">
         <v>4</v>
@@ -6437,7 +6423,7 @@
         <v>922</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f>VLOOKUP(data!D36,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D36,Sheet2!A:B,2,0)</f>
         <v>107.42380672,40.7691799024</v>
       </c>
     </row>
@@ -6455,7 +6441,7 @@
         <v>673</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F37" s="7">
         <v>4</v>
@@ -6481,17 +6467,17 @@
         <v>523</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F38" s="7">
-        <f>VLOOKUP(D38,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D38,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>897</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f>VLOOKUP(data!D38,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D38,Sheet2!A:B,2,0)</f>
         <v>123.432790922,41.8086447835</v>
       </c>
     </row>
@@ -6509,17 +6495,17 @@
         <v>524</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F39" s="7">
-        <f>VLOOKUP(D39,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D39,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>898</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f>VLOOKUP(data!D39,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D39,Sheet2!A:B,2,0)</f>
         <v>121.593477781,38.9487099383</v>
       </c>
     </row>
@@ -6537,17 +6523,17 @@
         <v>525</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F40" s="7">
-        <f>VLOOKUP(D40,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D40,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>899</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f>VLOOKUP(data!D40,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D40,Sheet2!A:B,2,0)</f>
         <v>123.007763329,41.1187436822</v>
       </c>
     </row>
@@ -6565,17 +6551,17 @@
         <v>526</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F41" s="7">
-        <f>VLOOKUP(D41,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D41,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>900</v>
       </c>
       <c r="H41" s="2" t="str">
-        <f>VLOOKUP(data!D41,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D41,Sheet2!A:B,2,0)</f>
         <v>124.338543115,40.1290228266</v>
       </c>
     </row>
@@ -6593,7 +6579,7 @@
         <v>527</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F42" s="7">
         <v>4</v>
@@ -6602,7 +6588,7 @@
         <v>901</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f>VLOOKUP(data!D42,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D42,Sheet2!A:B,2,0)</f>
         <v>123.929819767,41.8773038296</v>
       </c>
     </row>
@@ -6620,17 +6606,17 @@
         <v>528</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F43" s="7">
-        <f>VLOOKUP(D43,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D43,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>902</v>
       </c>
       <c r="H43" s="2" t="str">
-        <f>VLOOKUP(data!D43,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D43,Sheet2!A:B,2,0)</f>
         <v>121.147748738,41.1308788759</v>
       </c>
     </row>
@@ -6648,17 +6634,17 @@
         <v>529</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F44" s="7">
-        <f>VLOOKUP(D44,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D44,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>903</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f>VLOOKUP(data!D44,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D44,Sheet2!A:B,2,0)</f>
         <v>122.233391371,40.6686510665</v>
       </c>
     </row>
@@ -6676,7 +6662,7 @@
         <v>904</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F45" s="7">
         <v>4</v>
@@ -6685,7 +6671,7 @@
         <v>905</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f>VLOOKUP(data!D45,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D45,Sheet2!A:B,2,0)</f>
         <v>123.77806237,41.3258376266</v>
       </c>
     </row>
@@ -6703,7 +6689,7 @@
         <v>531</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F46" s="7">
         <v>4</v>
@@ -6712,7 +6698,7 @@
         <v>906</v>
       </c>
       <c r="H46" s="2" t="str">
-        <f>VLOOKUP(data!D46,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D46,Sheet2!A:B,2,0)</f>
         <v>120.446162703,41.5718276679</v>
       </c>
     </row>
@@ -6730,7 +6716,7 @@
         <v>532</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F47" s="7">
         <v>4</v>
@@ -6739,7 +6725,7 @@
         <v>907</v>
       </c>
       <c r="H47" s="2" t="str">
-        <f>VLOOKUP(data!D47,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D47,Sheet2!A:B,2,0)</f>
         <v>121.660822129,42.0192501071</v>
       </c>
     </row>
@@ -6757,7 +6743,7 @@
         <v>678</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F48" s="7">
         <v>4</v>
@@ -6766,7 +6752,7 @@
         <v>908</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f>VLOOKUP(data!D48,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D48,Sheet2!A:B,2,0)</f>
         <v>120.860757645,40.7430298813</v>
       </c>
     </row>
@@ -6784,7 +6770,7 @@
         <v>534</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F49" s="7">
         <v>4</v>
@@ -6793,7 +6779,7 @@
         <v>909</v>
       </c>
       <c r="H49" s="2" t="str">
-        <f>VLOOKUP(data!D49,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D49,Sheet2!A:B,2,0)</f>
         <v>123.172451205,41.2733392656</v>
       </c>
     </row>
@@ -6811,7 +6797,7 @@
         <v>535</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F50" s="7">
         <v>4</v>
@@ -6820,7 +6806,7 @@
         <v>910</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f>VLOOKUP(data!D50,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D50,Sheet2!A:B,2,0)</f>
         <v>122.07322781,41.141248023</v>
       </c>
     </row>
@@ -6838,7 +6824,7 @@
         <v>536</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F51" s="7">
         <v>4</v>
@@ -6847,7 +6833,7 @@
         <v>911</v>
       </c>
       <c r="H51" s="2" t="str">
-        <f>VLOOKUP(data!D51,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D51,Sheet2!A:B,2,0)</f>
         <v>123.854849615,42.2997570121</v>
       </c>
     </row>
@@ -6865,17 +6851,17 @@
         <v>495</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F52" s="7">
-        <f>VLOOKUP(D52,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D52,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>863</v>
       </c>
       <c r="H52" s="2" t="str">
-        <f>VLOOKUP(data!D52,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D52,Sheet2!A:B,2,0)</f>
         <v>125.313642427,43.8983376071</v>
       </c>
     </row>
@@ -6893,17 +6879,17 @@
         <v>496</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F53" s="7">
-        <f>VLOOKUP(D53,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D53,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>864</v>
       </c>
       <c r="H53" s="2" t="str">
-        <f>VLOOKUP(data!D53,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D53,Sheet2!A:B,2,0)</f>
         <v>126.564543989,43.8719883344</v>
       </c>
     </row>
@@ -6921,7 +6907,7 @@
         <v>1515</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F54" s="7">
         <v>4</v>
@@ -6947,7 +6933,7 @@
         <v>497</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F55" s="7">
         <v>4</v>
@@ -6956,7 +6942,7 @@
         <v>866</v>
       </c>
       <c r="H55" s="2" t="str">
-        <f>VLOOKUP(data!D55,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D55,Sheet2!A:B,2,0)</f>
         <v>122.840776679,45.6210862752</v>
       </c>
     </row>
@@ -6974,7 +6960,7 @@
         <v>1500</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F56" s="7">
         <v>4</v>
@@ -6983,7 +6969,7 @@
         <v>1501</v>
       </c>
       <c r="H56" s="2" t="str">
-        <f>VLOOKUP(data!D56,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D56,Sheet2!A:B,2,0)</f>
         <v>126.435797675,41.945859397</v>
       </c>
     </row>
@@ -7001,7 +6987,7 @@
         <v>867</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F57" s="7">
         <v>4</v>
@@ -7010,7 +6996,7 @@
         <v>868</v>
       </c>
       <c r="H57" s="2" t="str">
-        <f>VLOOKUP(data!D57,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D57,Sheet2!A:B,2,0)</f>
         <v>125.133686052,42.9233026191</v>
       </c>
     </row>
@@ -7028,7 +7014,7 @@
         <v>500</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F58" s="7">
         <v>4</v>
@@ -7037,7 +7023,7 @@
         <v>869</v>
       </c>
       <c r="H58" s="2" t="str">
-        <f>VLOOKUP(data!D58,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D58,Sheet2!A:B,2,0)</f>
         <v>124.391382074,43.1755247011</v>
       </c>
     </row>
@@ -7055,7 +7041,7 @@
         <v>501</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F59" s="7">
         <v>4</v>
@@ -7064,7 +7050,7 @@
         <v>870</v>
       </c>
       <c r="H59" s="2" t="str">
-        <f>VLOOKUP(data!D59,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D59,Sheet2!A:B,2,0)</f>
         <v>124.832994532,45.1360489701</v>
       </c>
     </row>
@@ -7082,7 +7068,7 @@
         <v>327</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F60" s="7">
         <v>4</v>
@@ -7091,7 +7077,7 @@
         <v>871</v>
       </c>
       <c r="H60" s="2" t="str">
-        <f>VLOOKUP(data!D60,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D60,Sheet2!A:B,2,0)</f>
         <v>125.942650139,41.7363971299</v>
       </c>
     </row>
@@ -7109,17 +7095,17 @@
         <v>822</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F61" s="7">
-        <f>VLOOKUP(D61,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D61,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>823</v>
       </c>
       <c r="H61" s="2" t="str">
-        <f>VLOOKUP(data!D61,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D61,Sheet2!A:B,2,0)</f>
         <v>126.657716855,45.7732246332</v>
       </c>
     </row>
@@ -7137,17 +7123,17 @@
         <v>462</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F62" s="7">
-        <f>VLOOKUP(D62,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D62,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>824</v>
       </c>
       <c r="H62" s="2" t="str">
-        <f>VLOOKUP(data!D62,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D62,Sheet2!A:B,2,0)</f>
         <v>125.02183973,46.59670902</v>
       </c>
     </row>
@@ -7165,17 +7151,17 @@
         <v>665</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F63" s="7">
-        <f>VLOOKUP(D63,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D63,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>825</v>
       </c>
       <c r="H63" s="2" t="str">
-        <f>VLOOKUP(data!D63,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D63,Sheet2!A:B,2,0)</f>
         <v>123.987288942,47.3476998134</v>
       </c>
     </row>
@@ -7193,7 +7179,7 @@
         <v>463</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F64" s="7">
         <v>4</v>
@@ -7202,7 +7188,7 @@
         <v>826</v>
       </c>
       <c r="H64" s="2" t="str">
-        <f>VLOOKUP(data!D64,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D64,Sheet2!A:B,2,0)</f>
         <v>130.284734586,46.8137796047</v>
       </c>
     </row>
@@ -7220,7 +7206,7 @@
         <v>666</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F65" s="7">
         <v>4</v>
@@ -7246,7 +7232,7 @@
         <v>464</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F66" s="7">
         <v>4</v>
@@ -7255,7 +7241,7 @@
         <v>828</v>
       </c>
       <c r="H66" s="2" t="str">
-        <f>VLOOKUP(data!D66,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D66,Sheet2!A:B,2,0)</f>
         <v>127.500830295,50.2506900907</v>
       </c>
     </row>
@@ -7273,7 +7259,7 @@
         <v>465</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F67" s="7">
         <v>4</v>
@@ -7282,7 +7268,7 @@
         <v>829</v>
       </c>
       <c r="H67" s="2" t="str">
-        <f>VLOOKUP(data!D67,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D67,Sheet2!A:B,2,0)</f>
         <v>130.292472051,47.3386659037</v>
       </c>
     </row>
@@ -7300,7 +7286,7 @@
         <v>466</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F68" s="7">
         <v>4</v>
@@ -7309,7 +7295,7 @@
         <v>830</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f>VLOOKUP(data!D68,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D68,Sheet2!A:B,2,0)</f>
         <v>130.941767273,45.3215398866</v>
       </c>
     </row>
@@ -7327,7 +7313,7 @@
         <v>467</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F69" s="7">
         <v>4</v>
@@ -7336,7 +7322,7 @@
         <v>831</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f>VLOOKUP(data!D69,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D69,Sheet2!A:B,2,0)</f>
         <v>129.608035396,44.5885211528</v>
       </c>
     </row>
@@ -7354,7 +7340,7 @@
         <v>468</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F70" s="7">
         <v>4</v>
@@ -7363,7 +7349,7 @@
         <v>832</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f>VLOOKUP(data!D70,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D70,Sheet2!A:B,2,0)</f>
         <v>131.019048047,45.7750053686</v>
       </c>
     </row>
@@ -7381,7 +7367,7 @@
         <v>323</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F71" s="7">
         <v>4</v>
@@ -7390,7 +7376,7 @@
         <v>833</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f>VLOOKUP(data!D71,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D71,Sheet2!A:B,2,0)</f>
         <v>126.989094572,46.646063927</v>
       </c>
     </row>
@@ -7408,7 +7394,7 @@
         <v>469</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F72" s="7">
         <v>4</v>
@@ -7417,7 +7403,7 @@
         <v>834</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f>VLOOKUP(data!D72,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D72,Sheet2!A:B,2,0)</f>
         <v>131.17140174,46.6551020625</v>
       </c>
     </row>
@@ -7435,7 +7421,7 @@
         <v>470</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F73" s="7">
         <v>4</v>
@@ -7444,7 +7430,7 @@
         <v>835</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f>VLOOKUP(data!D73,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D73,Sheet2!A:B,2,0)</f>
         <v>128.910765978,47.7346850751</v>
       </c>
     </row>
@@ -7462,17 +7448,17 @@
         <v>644</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F74" s="7">
-        <f>VLOOKUP(D74,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D74,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>1503</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f>VLOOKUP(data!D74,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D74,Sheet2!A:B,2,0)</f>
         <v>121.487899486,31.24916171</v>
       </c>
     </row>
@@ -7490,17 +7476,17 @@
         <v>502</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F75" s="7">
-        <f>VLOOKUP(D75,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D75,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>872</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f>VLOOKUP(data!D75,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D75,Sheet2!A:B,2,0)</f>
         <v>118.778074408,32.0572355018</v>
       </c>
     </row>
@@ -7518,17 +7504,17 @@
         <v>503</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F76" s="7">
-        <f>VLOOKUP(D76,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D76,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>873</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f>VLOOKUP(data!D76,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D76,Sheet2!A:B,2,0)</f>
         <v>120.619907115,31.317987368</v>
       </c>
     </row>
@@ -7546,17 +7532,17 @@
         <v>874</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F77" s="7">
-        <f>VLOOKUP(D77,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D77,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>875</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f>VLOOKUP(data!D77,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D77,Sheet2!A:B,2,0)</f>
         <v>119.981861013,31.7713967447</v>
       </c>
     </row>
@@ -7574,17 +7560,17 @@
         <v>505</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F78" s="7">
-        <f>VLOOKUP(D78,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D78,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>876</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f>VLOOKUP(data!D78,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D78,Sheet2!A:B,2,0)</f>
         <v>119.173872217,34.601548967</v>
       </c>
     </row>
@@ -7602,17 +7588,17 @@
         <v>506</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F79" s="7">
-        <f>VLOOKUP(D79,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D79,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>877</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f>VLOOKUP(data!D79,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D79,Sheet2!A:B,2,0)</f>
         <v>119.919606016,32.4760532748</v>
       </c>
     </row>
@@ -7630,17 +7616,17 @@
         <v>507</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F80" s="7">
-        <f>VLOOKUP(D80,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D80,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>878</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f>VLOOKUP(data!D80,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D80,Sheet2!A:B,2,0)</f>
         <v>120.305455901,31.5700374519</v>
       </c>
     </row>
@@ -7658,17 +7644,17 @@
         <v>508</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F81" s="7">
-        <f>VLOOKUP(D81,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D81,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>879</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f>VLOOKUP(data!D81,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D81,Sheet2!A:B,2,0)</f>
         <v>117.188106623,34.2715534311</v>
       </c>
     </row>
@@ -7686,17 +7672,17 @@
         <v>509</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F82" s="7">
-        <f>VLOOKUP(D82,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D82,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>877</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f>VLOOKUP(data!D82,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D82,Sheet2!A:B,2,0)</f>
         <v>119.427777551,32.4085052546</v>
       </c>
     </row>
@@ -7714,17 +7700,17 @@
         <v>510</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F83" s="7">
-        <f>VLOOKUP(D83,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D83,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>880</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f>VLOOKUP(data!D83,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D83,Sheet2!A:B,2,0)</f>
         <v>119.455835405,32.2044094436</v>
       </c>
     </row>
@@ -7742,17 +7728,17 @@
         <v>511</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F84" s="7">
-        <f>VLOOKUP(D84,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D84,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>881</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f>VLOOKUP(data!D84,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D84,Sheet2!A:B,2,0)</f>
         <v>119.030186365,33.6065127393</v>
       </c>
     </row>
@@ -7770,17 +7756,17 @@
         <v>512</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F85" s="7">
-        <f>VLOOKUP(D85,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D85,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>882</v>
       </c>
       <c r="H85" s="2" t="str">
-        <f>VLOOKUP(data!D85,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D85,Sheet2!A:B,2,0)</f>
         <v>120.873800951,32.0146645408</v>
       </c>
     </row>
@@ -7798,7 +7784,7 @@
         <v>513</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F86" s="7">
         <v>4</v>
@@ -7807,7 +7793,7 @@
         <v>881</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f>VLOOKUP(data!D86,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D86,Sheet2!A:B,2,0)</f>
         <v>118.296893379,33.9520497337</v>
       </c>
     </row>
@@ -7825,17 +7811,17 @@
         <v>514</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F87" s="7">
-        <f>VLOOKUP(D87,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D87,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>883</v>
       </c>
       <c r="H87" s="2" t="str">
-        <f>VLOOKUP(data!D87,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D87,Sheet2!A:B,2,0)</f>
         <v>120.148871818,33.3798618771</v>
       </c>
     </row>
@@ -7853,17 +7839,17 @@
         <v>630</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F88" s="7">
-        <f>VLOOKUP(D88,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D88,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="H88" s="2" t="str">
-        <f>VLOOKUP(data!D88,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D88,Sheet2!A:B,2,0)</f>
         <v>120.219375416,30.2592444615</v>
       </c>
     </row>
@@ -7881,17 +7867,17 @@
         <v>631</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F89" s="7">
-        <f>VLOOKUP(D89,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D89,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="H89" s="2" t="str">
-        <f>VLOOKUP(data!D89,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D89,Sheet2!A:B,2,0)</f>
         <v>121.579005973,29.8852589659</v>
       </c>
     </row>
@@ -7909,17 +7895,17 @@
         <v>632</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F90" s="7">
-        <f>VLOOKUP(D90,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D90,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="H90" s="2" t="str">
-        <f>VLOOKUP(data!D90,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D90,Sheet2!A:B,2,0)</f>
         <v>120.760427699,30.7739922396</v>
       </c>
     </row>
@@ -7937,17 +7923,17 @@
         <v>633</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F91" s="7">
-        <f>VLOOKUP(D91,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D91,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="H91" s="2" t="str">
-        <f>VLOOKUP(data!D91,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D91,Sheet2!A:B,2,0)</f>
         <v>120.592467386,30.0023645805</v>
       </c>
     </row>
@@ -7965,17 +7951,17 @@
         <v>634</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F92" s="7">
-        <f>VLOOKUP(D92,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D92,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>790</v>
       </c>
       <c r="H92" s="2" t="str">
-        <f>VLOOKUP(data!D92,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D92,Sheet2!A:B,2,0)</f>
         <v>120.690634734,28.002837594</v>
       </c>
     </row>
@@ -7993,17 +7979,17 @@
         <v>1041</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F93" s="7">
-        <f>VLOOKUP(D93,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D93,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="H93" s="2" t="str">
-        <f>VLOOKUP(data!D93,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D93,Sheet2!A:B,2,0)</f>
         <v>122.169872098,30.0360103026</v>
       </c>
     </row>
@@ -8021,17 +8007,17 @@
         <v>1504</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F94" s="7">
-        <f>VLOOKUP(D94,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D94,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>1505</v>
       </c>
       <c r="H94" s="2" t="str">
-        <f>VLOOKUP(data!D94,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D94,Sheet2!A:B,2,0)</f>
         <v>120.137243163,30.8779251557</v>
       </c>
     </row>
@@ -8049,17 +8035,17 @@
         <v>637</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F95" s="7">
-        <f>VLOOKUP(D95,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D95,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>1043</v>
       </c>
       <c r="H95" s="2" t="str">
-        <f>VLOOKUP(data!D95,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D95,Sheet2!A:B,2,0)</f>
         <v>119.652575704,29.1028991054</v>
       </c>
     </row>
@@ -8077,7 +8063,7 @@
         <v>638</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F96" s="7">
         <v>4</v>
@@ -8086,7 +8072,7 @@
         <v>1044</v>
       </c>
       <c r="H96" s="2" t="str">
-        <f>VLOOKUP(data!D96,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D96,Sheet2!A:B,2,0)</f>
         <v>119.929575843,28.4562995521</v>
       </c>
     </row>
@@ -8104,17 +8090,17 @@
         <v>639</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F97" s="7">
-        <f>VLOOKUP(D97,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D97,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="H97" s="2" t="str">
-        <f>VLOOKUP(data!D97,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D97,Sheet2!A:B,2,0)</f>
         <v>121.440612936,28.6682832857</v>
       </c>
     </row>
@@ -8132,7 +8118,7 @@
         <v>640</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F98" s="7">
         <v>4</v>
@@ -8141,7 +8127,7 @@
         <v>1046</v>
       </c>
       <c r="H98" s="2" t="str">
-        <f>VLOOKUP(data!D98,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D98,Sheet2!A:B,2,0)</f>
         <v>118.875841652,28.9569104475</v>
       </c>
     </row>
@@ -8159,17 +8145,17 @@
         <v>348</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F99" s="7">
-        <f>VLOOKUP(D99,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D99,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>697</v>
       </c>
       <c r="H99" s="2" t="str">
-        <f>VLOOKUP(data!D99,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D99,Sheet2!A:B,2,0)</f>
         <v>117.282699092,31.8669422607</v>
       </c>
     </row>
@@ -8187,17 +8173,17 @@
         <v>349</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F100" s="7">
-        <f>VLOOKUP(D100,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D100,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>698</v>
       </c>
       <c r="H100" s="2" t="str">
-        <f>VLOOKUP(data!D100,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D100,Sheet2!A:B,2,0)</f>
         <v>118.384108423,31.3660197875</v>
       </c>
     </row>
@@ -8215,17 +8201,17 @@
         <v>350</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F101" s="7">
-        <f>VLOOKUP(D101,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D101,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>699</v>
       </c>
       <c r="H101" s="2" t="str">
-        <f>VLOOKUP(data!D101,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D101,Sheet2!A:B,2,0)</f>
         <v>117.058738772,30.5378978174</v>
       </c>
     </row>
@@ -8243,7 +8229,7 @@
         <v>351</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F102" s="7">
         <v>4</v>
@@ -8252,7 +8238,7 @@
         <v>700</v>
       </c>
       <c r="H102" s="2" t="str">
-        <f>VLOOKUP(data!D102,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D102,Sheet2!A:B,2,0)</f>
         <v>117.357079866,32.9294989067</v>
       </c>
     </row>
@@ -8267,19 +8253,19 @@
         <v>8</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F103" s="7">
         <v>4</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1562</v>
+        <v>701</v>
       </c>
       <c r="H103" s="2" t="str">
-        <f>VLOOKUP(data!D103,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D103,Sheet2!A:B,2,0)</f>
         <v>115.787928245,33.8712105653</v>
       </c>
     </row>
@@ -8297,7 +8283,7 @@
         <v>353</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F104" s="7">
         <v>4</v>
@@ -8317,13 +8303,13 @@
         <v>650</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>354</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F105" s="7">
         <v>4</v>
@@ -8332,7 +8318,7 @@
         <v>703</v>
       </c>
       <c r="H105" s="2" t="str">
-        <f>VLOOKUP(data!D105,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D105,Sheet2!A:B,2,0)</f>
         <v>117.494476772,30.6600192482</v>
       </c>
     </row>
@@ -8350,7 +8336,7 @@
         <v>355</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F106" s="7">
         <v>4</v>
@@ -8359,7 +8345,7 @@
         <v>704</v>
       </c>
       <c r="H106" s="2" t="str">
-        <f>VLOOKUP(data!D106,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D106,Sheet2!A:B,2,0)</f>
         <v>118.324570351,32.3173505954</v>
       </c>
     </row>
@@ -8377,7 +8363,7 @@
         <v>356</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F107" s="7">
         <v>4</v>
@@ -8386,7 +8372,7 @@
         <v>701</v>
       </c>
       <c r="H107" s="2" t="str">
-        <f>VLOOKUP(data!D107,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D107,Sheet2!A:B,2,0)</f>
         <v>115.820932259,32.9012113306</v>
       </c>
     </row>
@@ -8404,7 +8390,7 @@
         <v>357</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F108" s="7">
         <v>4</v>
@@ -8413,7 +8399,7 @@
         <v>705</v>
       </c>
       <c r="H108" s="2" t="str">
-        <f>VLOOKUP(data!D108,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D108,Sheet2!A:B,2,0)</f>
         <v>118.293569632,29.7344348562</v>
       </c>
     </row>
@@ -8431,7 +8417,7 @@
         <v>358</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F109" s="7">
         <v>4</v>
@@ -8440,7 +8426,7 @@
         <v>706</v>
       </c>
       <c r="H109" s="2" t="str">
-        <f>VLOOKUP(data!D109,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D109,Sheet2!A:B,2,0)</f>
         <v>116.791447429,33.9600233054</v>
       </c>
     </row>
@@ -8458,7 +8444,7 @@
         <v>359</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F110" s="7">
         <v>4</v>
@@ -8467,7 +8453,7 @@
         <v>707</v>
       </c>
       <c r="H110" s="2" t="str">
-        <f>VLOOKUP(data!D110,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D110,Sheet2!A:B,2,0)</f>
         <v>117.018638863,32.6428118237</v>
       </c>
     </row>
@@ -8485,7 +8471,7 @@
         <v>360</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F111" s="7">
         <v>4</v>
@@ -8494,7 +8480,7 @@
         <v>708</v>
       </c>
       <c r="H111" s="2" t="str">
-        <f>VLOOKUP(data!D111,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D111,Sheet2!A:B,2,0)</f>
         <v>116.505252683,31.7555583552</v>
       </c>
     </row>
@@ -8512,17 +8498,17 @@
         <v>647</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F112" s="7">
-        <f>VLOOKUP(D112,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D112,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>709</v>
       </c>
       <c r="H112" s="2" t="str">
-        <f>VLOOKUP(data!D112,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D112,Sheet2!A:B,2,0)</f>
         <v>118.515881847,31.6885281589</v>
       </c>
     </row>
@@ -8540,7 +8526,7 @@
         <v>362</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F113" s="7">
         <v>4</v>
@@ -8549,7 +8535,7 @@
         <v>710</v>
       </c>
       <c r="H113" s="2" t="str">
-        <f>VLOOKUP(data!D113,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D113,Sheet2!A:B,2,0)</f>
         <v>116.988692412,33.6367723858</v>
       </c>
     </row>
@@ -8567,7 +8553,7 @@
         <v>314</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F114" s="7">
         <v>4</v>
@@ -8576,7 +8562,7 @@
         <v>711</v>
       </c>
       <c r="H114" s="2" t="str">
-        <f>VLOOKUP(data!D114,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D114,Sheet2!A:B,2,0)</f>
         <v>117.819428729,30.9409296947</v>
       </c>
     </row>
@@ -8594,7 +8580,7 @@
         <v>315</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F115" s="7">
         <v>4</v>
@@ -8603,7 +8589,7 @@
         <v>712</v>
       </c>
       <c r="H115" s="2" t="str">
-        <f>VLOOKUP(data!D115,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D115,Sheet2!A:B,2,0)</f>
         <v>118.752096311,30.9516423543</v>
       </c>
     </row>
@@ -8621,17 +8607,17 @@
         <v>363</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F116" s="7">
-        <f>VLOOKUP(D116,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D116,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>713</v>
       </c>
       <c r="H116" s="2" t="str">
-        <f>VLOOKUP(data!D116,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D116,Sheet2!A:B,2,0)</f>
         <v>119.330221107,26.0471254966</v>
       </c>
     </row>
@@ -8649,17 +8635,17 @@
         <v>364</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F117" s="7">
-        <f>VLOOKUP(D117,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D117,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>714</v>
       </c>
       <c r="H117" s="2" t="str">
-        <f>VLOOKUP(data!D117,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D117,Sheet2!A:B,2,0)</f>
         <v>118.103886046,24.4892306125</v>
       </c>
     </row>
@@ -8677,17 +8663,17 @@
         <v>365</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F118" s="7">
-        <f>VLOOKUP(D118,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D118,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>715</v>
       </c>
       <c r="H118" s="2" t="str">
-        <f>VLOOKUP(data!D118,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D118,Sheet2!A:B,2,0)</f>
         <v>118.600362343,24.901652384</v>
       </c>
     </row>
@@ -8705,17 +8691,17 @@
         <v>366</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F119" s="7">
-        <f>VLOOKUP(D119,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D119,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>716</v>
       </c>
       <c r="H119" s="2" t="str">
-        <f>VLOOKUP(data!D119,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D119,Sheet2!A:B,2,0)</f>
         <v>117.017996739,25.0786854335</v>
       </c>
     </row>
@@ -8733,7 +8719,7 @@
         <v>367</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F120" s="7">
         <v>4</v>
@@ -8742,7 +8728,7 @@
         <v>717</v>
       </c>
       <c r="H120" s="2" t="str">
-        <f>VLOOKUP(data!D120,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D120,Sheet2!A:B,2,0)</f>
         <v>119.54208215,26.6565274192</v>
       </c>
     </row>
@@ -8760,7 +8746,7 @@
         <v>368</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F121" s="7">
         <v>4</v>
@@ -8769,7 +8755,7 @@
         <v>718</v>
       </c>
       <c r="H121" s="2" t="str">
-        <f>VLOOKUP(data!D121,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D121,Sheet2!A:B,2,0)</f>
         <v>118.181882949,26.6436264742</v>
       </c>
     </row>
@@ -8787,7 +8773,7 @@
         <v>369</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F122" s="7">
         <v>4</v>
@@ -8796,7 +8782,7 @@
         <v>719</v>
       </c>
       <c r="H122" s="2" t="str">
-        <f>VLOOKUP(data!D122,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D122,Sheet2!A:B,2,0)</f>
         <v>119.077730964,25.4484501367</v>
       </c>
     </row>
@@ -8814,7 +8800,7 @@
         <v>720</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F123" s="7">
         <v>4</v>
@@ -8823,7 +8809,7 @@
         <v>721</v>
       </c>
       <c r="H123" s="2" t="str">
-        <f>VLOOKUP(data!D123,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D123,Sheet2!A:B,2,0)</f>
         <v>117.642193934,26.2708352794</v>
       </c>
     </row>
@@ -8841,17 +8827,17 @@
         <v>371</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F124" s="7">
-        <f>VLOOKUP(D124,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D124,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>722</v>
       </c>
       <c r="H124" s="2" t="str">
-        <f>VLOOKUP(data!D124,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D124,Sheet2!A:B,2,0)</f>
         <v>117.676204679,24.5170647798</v>
       </c>
     </row>
@@ -8869,17 +8855,17 @@
         <v>515</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F125" s="7">
-        <f>VLOOKUP(D125,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D125,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>884</v>
       </c>
       <c r="H125" s="2" t="str">
-        <f>VLOOKUP(data!D125,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D125,Sheet2!A:B,2,0)</f>
         <v>115.893527546,28.6895780001</v>
       </c>
     </row>
@@ -8897,17 +8883,17 @@
         <v>516</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F126" s="7">
-        <f>VLOOKUP(D126,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D126,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>885</v>
       </c>
       <c r="H126" s="2" t="str">
-        <f>VLOOKUP(data!D126,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D126,Sheet2!A:B,2,0)</f>
         <v>114.935909079,25.8452955363</v>
       </c>
     </row>
@@ -8925,17 +8911,17 @@
         <v>517</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F127" s="7">
-        <f>VLOOKUP(D127,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D127,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>886</v>
       </c>
       <c r="H127" s="2" t="str">
-        <f>VLOOKUP(data!D127,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D127,Sheet2!A:B,2,0)</f>
         <v>115.999848022,29.7196395261</v>
       </c>
     </row>
@@ -8953,7 +8939,7 @@
         <v>518</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F128" s="7">
         <v>4</v>
@@ -8962,7 +8948,7 @@
         <v>887</v>
       </c>
       <c r="H128" s="2" t="str">
-        <f>VLOOKUP(data!D128,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D128,Sheet2!A:B,2,0)</f>
         <v>117.186522625,29.3035627684</v>
       </c>
     </row>
@@ -8980,7 +8966,7 @@
         <v>519</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F129" s="7">
         <v>4</v>
@@ -8989,7 +8975,7 @@
         <v>888</v>
       </c>
       <c r="H129" s="2" t="str">
-        <f>VLOOKUP(data!D129,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D129,Sheet2!A:B,2,0)</f>
         <v>114.992038711,27.1138476502</v>
       </c>
     </row>
@@ -9007,7 +8993,7 @@
         <v>520</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F130" s="7">
         <v>4</v>
@@ -9016,7 +9002,7 @@
         <v>889</v>
       </c>
       <c r="H130" s="2" t="str">
-        <f>VLOOKUP(data!D130,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D130,Sheet2!A:B,2,0)</f>
         <v>113.859917033,27.639544223</v>
       </c>
     </row>
@@ -9034,7 +9020,7 @@
         <v>890</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F131" s="7">
         <v>4</v>
@@ -9043,7 +9029,7 @@
         <v>891</v>
       </c>
       <c r="H131" s="2" t="str">
-        <f>VLOOKUP(data!D131,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D131,Sheet2!A:B,2,0)</f>
         <v>117.955463877,28.4576225539</v>
       </c>
     </row>
@@ -9061,7 +9047,7 @@
         <v>892</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F132" s="7">
         <v>4</v>
@@ -9070,7 +9056,7 @@
         <v>893</v>
       </c>
       <c r="H132" s="2" t="str">
-        <f>VLOOKUP(data!D132,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D132,Sheet2!A:B,2,0)</f>
         <v>114.947117417,27.8223215586</v>
       </c>
     </row>
@@ -9088,7 +9074,7 @@
         <v>330</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F133" s="7">
         <v>4</v>
@@ -9097,7 +9083,7 @@
         <v>894</v>
       </c>
       <c r="H133" s="2" t="str">
-        <f>VLOOKUP(data!D133,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D133,Sheet2!A:B,2,0)</f>
         <v>114.400038672,27.8111298958</v>
       </c>
     </row>
@@ -9115,7 +9101,7 @@
         <v>521</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F134" s="7">
         <v>4</v>
@@ -9124,7 +9110,7 @@
         <v>895</v>
       </c>
       <c r="H134" s="2" t="str">
-        <f>VLOOKUP(data!D134,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D134,Sheet2!A:B,2,0)</f>
         <v>117.035450186,28.2413095972</v>
       </c>
     </row>
@@ -9142,7 +9128,7 @@
         <v>522</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F135" s="7">
         <v>4</v>
@@ -9151,7 +9137,7 @@
         <v>896</v>
       </c>
       <c r="H135" s="2" t="str">
-        <f>VLOOKUP(data!D135,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D135,Sheet2!A:B,2,0)</f>
         <v>116.360918867,27.9545451703</v>
       </c>
     </row>
@@ -9169,17 +9155,17 @@
         <v>550</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F136" s="7">
-        <f>VLOOKUP(D136,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D136,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>938</v>
       </c>
       <c r="H136" s="2" t="str">
-        <f>VLOOKUP(data!D136,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D136,Sheet2!A:B,2,0)</f>
         <v>117.024967066,36.6827847272</v>
       </c>
     </row>
@@ -9197,17 +9183,17 @@
         <v>939</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F137" s="7">
-        <f>VLOOKUP(D137,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D137,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>940</v>
       </c>
       <c r="H137" s="2" t="str">
-        <f>VLOOKUP(data!D137,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D137,Sheet2!A:B,2,0)</f>
         <v>120.384428184,36.1052149013</v>
       </c>
     </row>
@@ -9225,17 +9211,17 @@
         <v>552</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F138" s="7">
-        <f>VLOOKUP(D138,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D138,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>941</v>
       </c>
       <c r="H138" s="2" t="str">
-        <f>VLOOKUP(data!D138,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D138,Sheet2!A:B,2,0)</f>
         <v>122.093958366,37.5287870813</v>
       </c>
     </row>
@@ -9253,17 +9239,17 @@
         <v>942</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F139" s="7">
-        <f>VLOOKUP(D139,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D139,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>943</v>
       </c>
       <c r="H139" s="2" t="str">
-        <f>VLOOKUP(data!D139,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D139,Sheet2!A:B,2,0)</f>
         <v>121.30955503,37.5365615629</v>
       </c>
     </row>
@@ -9281,17 +9267,17 @@
         <v>554</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F140" s="7">
-        <f>VLOOKUP(D140,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D140,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>944</v>
       </c>
       <c r="H140" s="2" t="str">
-        <f>VLOOKUP(data!D140,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D140,Sheet2!A:B,2,0)</f>
         <v>119.142633823,36.7161148731</v>
       </c>
     </row>
@@ -9309,17 +9295,17 @@
         <v>555</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F141" s="7">
-        <f>VLOOKUP(D141,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D141,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>945</v>
       </c>
       <c r="H141" s="2" t="str">
-        <f>VLOOKUP(data!D141,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D141,Sheet2!A:B,2,0)</f>
         <v>117.089414917,36.1880777589</v>
       </c>
     </row>
@@ -9337,17 +9323,17 @@
         <v>556</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F142" s="7">
-        <f>VLOOKUP(D142,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D142,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>946</v>
       </c>
       <c r="H142" s="2" t="str">
-        <f>VLOOKUP(data!D142,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D142,Sheet2!A:B,2,0)</f>
         <v>117.968292415,37.4053139418</v>
       </c>
     </row>
@@ -9365,7 +9351,7 @@
         <v>557</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F143" s="7">
         <v>4</v>
@@ -9374,7 +9360,7 @@
         <v>947</v>
       </c>
       <c r="H143" s="2" t="str">
-        <f>VLOOKUP(data!D143,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D143,Sheet2!A:B,2,0)</f>
         <v>116.328161364,37.4608259263</v>
       </c>
     </row>
@@ -9392,17 +9378,17 @@
         <v>558</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F144" s="7">
-        <f>VLOOKUP(D144,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D144,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>948</v>
       </c>
       <c r="H144" s="2" t="str">
-        <f>VLOOKUP(data!D144,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D144,Sheet2!A:B,2,0)</f>
         <v>118.583926333,37.4871211553</v>
       </c>
     </row>
@@ -9420,7 +9406,7 @@
         <v>559</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F145" s="7">
         <v>4</v>
@@ -9429,7 +9415,7 @@
         <v>949</v>
       </c>
       <c r="H145" s="2" t="str">
-        <f>VLOOKUP(data!D145,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D145,Sheet2!A:B,2,0)</f>
         <v>115.463359775,35.2624404961</v>
       </c>
     </row>
@@ -9447,17 +9433,17 @@
         <v>560</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F146" s="7">
-        <f>VLOOKUP(D146,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D146,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>950</v>
       </c>
       <c r="H146" s="2" t="str">
-        <f>VLOOKUP(data!D146,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D146,Sheet2!A:B,2,0)</f>
         <v>116.600797625,35.4021216643</v>
       </c>
     </row>
@@ -9475,17 +9461,17 @@
         <v>561</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F147" s="7">
-        <f>VLOOKUP(D147,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D147,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>951</v>
       </c>
       <c r="H147" s="2" t="str">
-        <f>VLOOKUP(data!D147,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D147,Sheet2!A:B,2,0)</f>
         <v>115.986869139,36.4558285147</v>
       </c>
     </row>
@@ -9503,17 +9489,17 @@
         <v>562</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F148" s="7">
-        <f>VLOOKUP(D148,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D148,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>952</v>
       </c>
       <c r="H148" s="2" t="str">
-        <f>VLOOKUP(data!D148,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D148,Sheet2!A:B,2,0)</f>
         <v>118.340768237,35.0724090744</v>
       </c>
     </row>
@@ -9531,7 +9517,7 @@
         <v>563</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F149" s="7">
         <v>4</v>
@@ -9540,7 +9526,7 @@
         <v>953</v>
       </c>
       <c r="H149" s="2" t="str">
-        <f>VLOOKUP(data!D149,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D149,Sheet2!A:B,2,0)</f>
         <v>117.684666912,36.2336541336</v>
       </c>
     </row>
@@ -9558,17 +9544,17 @@
         <v>564</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F150" s="7">
-        <f>VLOOKUP(D150,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D150,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>954</v>
       </c>
       <c r="H150" s="2" t="str">
-        <f>VLOOKUP(data!D150,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D150,Sheet2!A:B,2,0)</f>
         <v>119.507179943,35.4202251931</v>
       </c>
     </row>
@@ -9586,17 +9572,17 @@
         <v>565</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F151" s="7">
-        <f>VLOOKUP(D151,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D151,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>955</v>
       </c>
       <c r="H151" s="2" t="str">
-        <f>VLOOKUP(data!D151,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D151,Sheet2!A:B,2,0)</f>
         <v>118.059134278,36.8046848542</v>
       </c>
     </row>
@@ -9614,7 +9600,7 @@
         <v>335</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F152" s="7">
         <v>4</v>
@@ -9623,7 +9609,7 @@
         <v>956</v>
       </c>
       <c r="H152" s="2" t="str">
-        <f>VLOOKUP(data!D152,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D152,Sheet2!A:B,2,0)</f>
         <v>117.279305383,34.8078830784</v>
       </c>
     </row>
@@ -9641,17 +9627,17 @@
         <v>802</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F153" s="7">
-        <f>VLOOKUP(D153,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D153,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>803</v>
       </c>
       <c r="H153" s="2" t="str">
-        <f>VLOOKUP(data!D153,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D153,Sheet2!A:B,2,0)</f>
         <v>113.64964385,34.7566100641</v>
       </c>
     </row>
@@ -9669,17 +9655,17 @@
         <v>447</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F154" s="7">
-        <f>VLOOKUP(D154,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D154,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>804</v>
       </c>
       <c r="H154" s="2" t="str">
-        <f>VLOOKUP(data!D154,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D154,Sheet2!A:B,2,0)</f>
         <v>112.447524769,34.6573678177</v>
       </c>
     </row>
@@ -9697,7 +9683,7 @@
         <v>448</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F155" s="7">
         <v>4</v>
@@ -9706,7 +9692,7 @@
         <v>805</v>
       </c>
       <c r="H155" s="2" t="str">
-        <f>VLOOKUP(data!D155,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D155,Sheet2!A:B,2,0)</f>
         <v>114.351642118,34.8018541758</v>
       </c>
     </row>
@@ -9724,7 +9710,7 @@
         <v>449</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F156" s="7">
         <v>4</v>
@@ -9733,7 +9719,7 @@
         <v>806</v>
       </c>
       <c r="H156" s="2" t="str">
-        <f>VLOOKUP(data!D156,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D156,Sheet2!A:B,2,0)</f>
         <v>113.83531246,34.0267395887</v>
       </c>
     </row>
@@ -9751,7 +9737,7 @@
         <v>450</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F157" s="7">
         <v>4</v>
@@ -9760,7 +9746,7 @@
         <v>807</v>
       </c>
       <c r="H157" s="2" t="str">
-        <f>VLOOKUP(data!D157,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D157,Sheet2!A:B,2,0)</f>
         <v>114.351806508,36.1102667222</v>
       </c>
     </row>
@@ -9778,17 +9764,17 @@
         <v>451</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F158" s="7">
-        <f>VLOOKUP(D158,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D158,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>808</v>
       </c>
       <c r="H158" s="2" t="str">
-        <f>VLOOKUP(data!D158,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D158,Sheet2!A:B,2,0)</f>
         <v>113.300848978,33.7453014565</v>
       </c>
     </row>
@@ -9806,7 +9792,7 @@
         <v>321</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F159" s="7">
         <v>4</v>
@@ -9815,7 +9801,7 @@
         <v>809</v>
       </c>
       <c r="H159" s="2" t="str">
-        <f>VLOOKUP(data!D159,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D159,Sheet2!A:B,2,0)</f>
         <v>114.297769838,35.7554258742</v>
       </c>
     </row>
@@ -9833,7 +9819,7 @@
         <v>322</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F160" s="7">
         <v>4</v>
@@ -9842,7 +9828,7 @@
         <v>810</v>
       </c>
       <c r="H160" s="2" t="str">
-        <f>VLOOKUP(data!D160,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D160,Sheet2!A:B,2,0)</f>
         <v>113.211835885,35.234607555</v>
       </c>
     </row>
@@ -9860,7 +9846,7 @@
         <v>452</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F161" s="7">
         <v>4</v>
@@ -9869,7 +9855,7 @@
         <v>811</v>
       </c>
       <c r="H161" s="2" t="str">
-        <f>VLOOKUP(data!D161,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D161,Sheet2!A:B,2,0)</f>
         <v>114.0460614,33.5762786885</v>
       </c>
     </row>
@@ -9887,17 +9873,17 @@
         <v>453</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F162" s="7">
-        <f>VLOOKUP(D162,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D162,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>812</v>
       </c>
       <c r="H162" s="2" t="str">
-        <f>VLOOKUP(data!D162,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D162,Sheet2!A:B,2,0)</f>
         <v>112.542841901,33.0114195691</v>
       </c>
     </row>
@@ -9915,7 +9901,7 @@
         <v>454</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F163" s="7">
         <v>4</v>
@@ -9924,7 +9910,7 @@
         <v>813</v>
       </c>
       <c r="H163" s="2" t="str">
-        <f>VLOOKUP(data!D163,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D163,Sheet2!A:B,2,0)</f>
         <v>115.026627441,35.7532978882</v>
       </c>
     </row>
@@ -9942,7 +9928,7 @@
         <v>814</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F164" s="7">
         <v>4</v>
@@ -9951,7 +9937,7 @@
         <v>815</v>
       </c>
       <c r="H164" s="2" t="str">
-        <f>VLOOKUP(data!D164,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D164,Sheet2!A:B,2,0)</f>
         <v>111.181262093,34.7833199411</v>
       </c>
     </row>
@@ -9969,7 +9955,7 @@
         <v>456</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F165" s="7">
         <v>4</v>
@@ -9978,7 +9964,7 @@
         <v>816</v>
       </c>
       <c r="H165" s="2" t="str">
-        <f>VLOOKUP(data!D165,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D165,Sheet2!A:B,2,0)</f>
         <v>115.641885688,34.4385886402</v>
       </c>
     </row>
@@ -9996,17 +9982,17 @@
         <v>457</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F166" s="7">
-        <f>VLOOKUP(D166,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D166,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>817</v>
       </c>
       <c r="H166" s="2" t="str">
-        <f>VLOOKUP(data!D166,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D166,Sheet2!A:B,2,0)</f>
         <v>113.912690161,35.3072575577</v>
       </c>
     </row>
@@ -10024,7 +10010,7 @@
         <v>818</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F167" s="7">
         <v>4</v>
@@ -10033,7 +10019,7 @@
         <v>819</v>
       </c>
       <c r="H167" s="2" t="str">
-        <f>VLOOKUP(data!D167,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D167,Sheet2!A:B,2,0)</f>
         <v>114.085490993,32.1285823075</v>
       </c>
     </row>
@@ -10051,7 +10037,7 @@
         <v>459</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F168" s="7">
         <v>4</v>
@@ -10060,7 +10046,7 @@
         <v>820</v>
       </c>
       <c r="H168" s="2" t="str">
-        <f>VLOOKUP(data!D168,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D168,Sheet2!A:B,2,0)</f>
         <v>114.049153547,32.9831581541</v>
       </c>
     </row>
@@ -10078,7 +10064,7 @@
         <v>460</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F169" s="7">
         <v>4</v>
@@ -10087,7 +10073,7 @@
         <v>821</v>
       </c>
       <c r="H169" s="2" t="str">
-        <f>VLOOKUP(data!D169,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D169,Sheet2!A:B,2,0)</f>
         <v>114.654101942,33.6237408181</v>
       </c>
     </row>
@@ -10105,17 +10091,17 @@
         <v>471</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F170" s="7">
-        <f>VLOOKUP(D170,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D170,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>836</v>
       </c>
       <c r="H170" s="2" t="str">
-        <f>VLOOKUP(data!D170,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D170,Sheet2!A:B,2,0)</f>
         <v>114.316200103,30.5810841269</v>
       </c>
     </row>
@@ -10133,7 +10119,7 @@
         <v>472</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F171" s="7">
         <v>4</v>
@@ -10142,7 +10128,7 @@
         <v>837</v>
       </c>
       <c r="H171" s="2" t="str">
-        <f>VLOOKUP(data!D171,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D171,Sheet2!A:B,2,0)</f>
         <v>112.250092848,32.2291685915</v>
       </c>
     </row>
@@ -10160,7 +10146,7 @@
         <v>473</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F172" s="7">
         <v>4</v>
@@ -10169,7 +10155,7 @@
         <v>838</v>
       </c>
       <c r="H172" s="2" t="str">
-        <f>VLOOKUP(data!D172,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D172,Sheet2!A:B,2,0)</f>
         <v>110.801228917,32.6369943395</v>
       </c>
     </row>
@@ -10187,7 +10173,7 @@
         <v>474</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F173" s="7">
         <v>4</v>
@@ -10196,7 +10182,7 @@
         <v>839</v>
       </c>
       <c r="H173" s="2" t="str">
-        <f>VLOOKUP(data!D173,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D173,Sheet2!A:B,2,0)</f>
         <v>115.050683164,30.2161271277</v>
       </c>
     </row>
@@ -10214,7 +10200,7 @@
         <v>475</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F174" s="7">
         <v>4</v>
@@ -10223,7 +10209,7 @@
         <v>840</v>
       </c>
       <c r="H174" s="2" t="str">
-        <f>VLOOKUP(data!D174,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D174,Sheet2!A:B,2,0)</f>
         <v>114.895594041,30.3844393228</v>
       </c>
     </row>
@@ -10241,7 +10227,7 @@
         <v>476</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F175" s="7">
         <v>4</v>
@@ -10267,7 +10253,7 @@
         <v>477</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F176" s="7">
         <v>4</v>
@@ -10276,7 +10262,7 @@
         <v>842</v>
       </c>
       <c r="H176" s="2" t="str">
-        <f>VLOOKUP(data!D176,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D176,Sheet2!A:B,2,0)</f>
         <v>114.906618047,30.4461089379</v>
       </c>
     </row>
@@ -10294,7 +10280,7 @@
         <v>478</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F177" s="7">
         <v>4</v>
@@ -10303,7 +10289,7 @@
         <v>843</v>
       </c>
       <c r="H177" s="2" t="str">
-        <f>VLOOKUP(data!D177,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D177,Sheet2!A:B,2,0)</f>
         <v>112.241865807,30.332590523</v>
       </c>
     </row>
@@ -10321,7 +10307,7 @@
         <v>479</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F178" s="7">
         <v>4</v>
@@ -10330,7 +10316,7 @@
         <v>844</v>
       </c>
       <c r="H178" s="2" t="str">
-        <f>VLOOKUP(data!D178,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D178,Sheet2!A:B,2,0)</f>
         <v>112.217330299,31.0426112029</v>
       </c>
     </row>
@@ -10348,7 +10334,7 @@
         <v>480</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F179" s="7">
         <v>4</v>
@@ -10357,7 +10343,7 @@
         <v>837</v>
       </c>
       <c r="H179" s="2" t="str">
-        <f>VLOOKUP(data!D179,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D179,Sheet2!A:B,2,0)</f>
         <v>113.379358364,31.7178576082</v>
       </c>
     </row>
@@ -10375,17 +10361,17 @@
         <v>481</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F180" s="7">
-        <f>VLOOKUP(D180,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D180,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>845</v>
       </c>
       <c r="H180" s="2" t="str">
-        <f>VLOOKUP(data!D180,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D180,Sheet2!A:B,2,0)</f>
         <v>111.310981092,30.732757818</v>
       </c>
     </row>
@@ -10403,7 +10389,7 @@
         <v>1518</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F181" s="7">
         <v>4</v>
@@ -10429,7 +10415,7 @@
         <v>1519</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F182" s="7">
         <v>4</v>
@@ -10455,7 +10441,7 @@
         <v>482</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F183" s="7">
         <v>4</v>
@@ -10464,7 +10450,7 @@
         <v>846</v>
       </c>
       <c r="H183" s="2" t="str">
-        <f>VLOOKUP(data!D183,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D183,Sheet2!A:B,2,0)</f>
         <v>113.935734392,30.9279547842</v>
       </c>
     </row>
@@ -10482,7 +10468,7 @@
         <v>483</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F184" s="7">
         <v>4</v>
@@ -10491,7 +10477,7 @@
         <v>847</v>
       </c>
       <c r="H184" s="2" t="str">
-        <f>VLOOKUP(data!D184,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D184,Sheet2!A:B,2,0)</f>
         <v>114.300060592,29.8806567577</v>
       </c>
     </row>
@@ -10509,17 +10495,17 @@
         <v>324</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F185" s="7">
-        <f>VLOOKUP(D185,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D185,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>848</v>
       </c>
       <c r="H185" s="2" t="str">
-        <f>VLOOKUP(data!D185,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D185,Sheet2!A:B,2,0)</f>
         <v>112.979352788,28.2134782309</v>
       </c>
     </row>
@@ -10537,17 +10523,17 @@
         <v>325</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F186" s="7">
-        <f>VLOOKUP(D186,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D186,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>849</v>
       </c>
       <c r="H186" s="2" t="str">
-        <f>VLOOKUP(data!D186,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D186,Sheet2!A:B,2,0)</f>
         <v>113.146195519,29.3780070755</v>
       </c>
     </row>
@@ -10565,17 +10551,17 @@
         <v>326</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F187" s="7">
-        <f>VLOOKUP(D187,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D187,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>850</v>
       </c>
       <c r="H187" s="2" t="str">
-        <f>VLOOKUP(data!D187,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D187,Sheet2!A:B,2,0)</f>
         <v>112.935555633,27.835095053</v>
       </c>
     </row>
@@ -10593,7 +10579,7 @@
         <v>851</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F188" s="7">
         <v>4</v>
@@ -10602,7 +10588,7 @@
         <v>852</v>
       </c>
       <c r="H188" s="2" t="str">
-        <f>VLOOKUP(data!D188,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D188,Sheet2!A:B,2,0)</f>
         <v>111.653718137,29.0121488552</v>
       </c>
     </row>
@@ -10620,17 +10606,17 @@
         <v>853</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F189" s="7">
-        <f>VLOOKUP(D189,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D189,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>854</v>
       </c>
       <c r="H189" s="2" t="str">
-        <f>VLOOKUP(data!D189,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D189,Sheet2!A:B,2,0)</f>
         <v>113.037704468,25.7822639757</v>
       </c>
     </row>
@@ -10648,17 +10634,17 @@
         <v>486</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F190" s="7">
-        <f>VLOOKUP(D190,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D190,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>855</v>
       </c>
       <c r="H190" s="2" t="str">
-        <f>VLOOKUP(data!D190,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D190,Sheet2!A:B,2,0)</f>
         <v>112.583818811,26.8981644154</v>
       </c>
     </row>
@@ -10676,7 +10662,7 @@
         <v>487</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F191" s="7">
         <v>4</v>
@@ -10685,7 +10671,7 @@
         <v>856</v>
       </c>
       <c r="H191" s="2" t="str">
-        <f>VLOOKUP(data!D191,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D191,Sheet2!A:B,2,0)</f>
         <v>109.986958796,27.5574829012</v>
       </c>
     </row>
@@ -10703,7 +10689,7 @@
         <v>488</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F192" s="7">
         <v>4</v>
@@ -10712,7 +10698,7 @@
         <v>857</v>
       </c>
       <c r="H192" s="2" t="str">
-        <f>VLOOKUP(data!D192,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D192,Sheet2!A:B,2,0)</f>
         <v>111.996396357,27.7410733023</v>
       </c>
     </row>
@@ -10730,7 +10716,7 @@
         <v>489</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F193" s="7">
         <v>4</v>
@@ -10739,7 +10725,7 @@
         <v>858</v>
       </c>
       <c r="H193" s="2" t="str">
-        <f>VLOOKUP(data!D193,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D193,Sheet2!A:B,2,0)</f>
         <v>111.461525404,27.2368112449</v>
       </c>
     </row>
@@ -10757,7 +10743,7 @@
         <v>490</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F194" s="7">
         <v>4</v>
@@ -10766,7 +10752,7 @@
         <v>859</v>
       </c>
       <c r="H194" s="2" t="str">
-        <f>VLOOKUP(data!D194,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D194,Sheet2!A:B,2,0)</f>
         <v>112.366546645,28.5880877799</v>
       </c>
     </row>
@@ -10784,7 +10770,7 @@
         <v>491</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F195" s="7">
         <v>4</v>
@@ -10793,7 +10779,7 @@
         <v>860</v>
       </c>
       <c r="H195" s="2" t="str">
-        <f>VLOOKUP(data!D195,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D195,Sheet2!A:B,2,0)</f>
         <v>111.614647686,26.4359716468</v>
       </c>
     </row>
@@ -10811,17 +10797,17 @@
         <v>492</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F196" s="7">
-        <f>VLOOKUP(D196,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D196,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>861</v>
       </c>
       <c r="H196" s="2" t="str">
-        <f>VLOOKUP(data!D196,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D196,Sheet2!A:B,2,0)</f>
         <v>113.131695341,27.8274329277</v>
       </c>
     </row>
@@ -10839,7 +10825,7 @@
         <v>1506</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F197" s="7">
         <v>4</v>
@@ -10848,7 +10834,7 @@
         <v>1507</v>
       </c>
       <c r="H197" s="2" t="str">
-        <f>VLOOKUP(data!D197,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D197,Sheet2!A:B,2,0)</f>
         <v>110.481620157,29.1248893532</v>
       </c>
     </row>
@@ -10866,7 +10852,7 @@
         <v>494</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F198" s="7">
         <v>4</v>
@@ -10892,17 +10878,17 @@
         <v>739</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F199" s="7">
-        <f>VLOOKUP(D199,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D199,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>740</v>
       </c>
       <c r="H199" s="2" t="str">
-        <f>VLOOKUP(data!D199,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D199,Sheet2!A:B,2,0)</f>
         <v>113.307649675,23.1200491021</v>
       </c>
     </row>
@@ -10920,17 +10906,17 @@
         <v>384</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F200" s="7">
-        <f>VLOOKUP(D200,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D200,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>741</v>
       </c>
       <c r="H200" s="2" t="str">
-        <f>VLOOKUP(data!D200,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D200,Sheet2!A:B,2,0)</f>
         <v>114.025973657,22.5460535462</v>
       </c>
     </row>
@@ -10948,17 +10934,17 @@
         <v>385</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F201" s="7">
-        <f>VLOOKUP(D201,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D201,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>742</v>
       </c>
       <c r="H201" s="2" t="str">
-        <f>VLOOKUP(data!D201,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D201,Sheet2!A:B,2,0)</f>
         <v>113.562447026,22.2569146461</v>
       </c>
     </row>
@@ -10976,17 +10962,17 @@
         <v>386</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F202" s="7">
-        <f>VLOOKUP(D202,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D202,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>743</v>
       </c>
       <c r="H202" s="2" t="str">
-        <f>VLOOKUP(data!D202,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D202,Sheet2!A:B,2,0)</f>
         <v>113.763433991,23.0430238154</v>
       </c>
     </row>
@@ -11004,17 +10990,17 @@
         <v>387</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F203" s="7">
-        <f>VLOOKUP(D203,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D203,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>744</v>
       </c>
       <c r="H203" s="2" t="str">
-        <f>VLOOKUP(data!D203,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D203,Sheet2!A:B,2,0)</f>
         <v>113.134025635,23.0350948405</v>
       </c>
     </row>
@@ -11032,17 +11018,17 @@
         <v>388</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F204" s="7">
-        <f>VLOOKUP(D204,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D204,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>746</v>
       </c>
       <c r="H204" s="2" t="str">
-        <f>VLOOKUP(data!D204,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D204,Sheet2!A:B,2,0)</f>
         <v>114.41065808,23.1135398524</v>
       </c>
     </row>
@@ -11060,17 +11046,17 @@
         <v>389</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F205" s="7">
-        <f>VLOOKUP(D205,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D205,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>747</v>
       </c>
       <c r="H205" s="2" t="str">
-        <f>VLOOKUP(data!D205,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D205,Sheet2!A:B,2,0)</f>
         <v>113.078125341,22.5751167835</v>
       </c>
     </row>
@@ -11088,17 +11074,17 @@
         <v>390</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F206" s="7">
-        <f>VLOOKUP(D206,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D206,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>748</v>
       </c>
       <c r="H206" s="2" t="str">
-        <f>VLOOKUP(data!D206,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D206,Sheet2!A:B,2,0)</f>
         <v>113.422060021,22.5451775145</v>
       </c>
     </row>
@@ -11116,17 +11102,17 @@
         <v>391</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F207" s="7">
-        <f>VLOOKUP(D207,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D207,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>742</v>
       </c>
       <c r="H207" s="2" t="str">
-        <f>VLOOKUP(data!D207,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D207,Sheet2!A:B,2,0)</f>
         <v>116.728650288,23.3839084533</v>
       </c>
     </row>
@@ -11144,7 +11130,7 @@
         <v>392</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F208" s="7">
         <v>4</v>
@@ -11153,7 +11139,7 @@
         <v>749</v>
       </c>
       <c r="H208" s="2" t="str">
-        <f>VLOOKUP(data!D208,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D208,Sheet2!A:B,2,0)</f>
         <v>110.365067263,21.2574631038</v>
       </c>
     </row>
@@ -11171,7 +11157,7 @@
         <v>750</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F209" s="7">
         <v>4</v>
@@ -11180,7 +11166,7 @@
         <v>751</v>
       </c>
       <c r="H209" s="2" t="str">
-        <f>VLOOKUP(data!D209,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D209,Sheet2!A:B,2,0)</f>
         <v>116.630075991,23.6618116765</v>
       </c>
     </row>
@@ -11198,7 +11184,7 @@
         <v>394</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F210" s="7">
         <v>4</v>
@@ -11207,7 +11193,7 @@
         <v>752</v>
       </c>
       <c r="H210" s="2" t="str">
-        <f>VLOOKUP(data!D210,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D210,Sheet2!A:B,2,0)</f>
         <v>114.713721476,23.7572508505</v>
       </c>
     </row>
@@ -11225,17 +11211,17 @@
         <v>753</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F211" s="7">
-        <f>VLOOKUP(D211,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D211,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>754</v>
       </c>
       <c r="H211" s="2" t="str">
-        <f>VLOOKUP(data!D211,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D211,Sheet2!A:B,2,0)</f>
         <v>116.379500855,23.5479994669</v>
       </c>
     </row>
@@ -11253,7 +11239,7 @@
         <v>396</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F212" s="7">
         <v>4</v>
@@ -11262,7 +11248,7 @@
         <v>755</v>
       </c>
       <c r="H212" s="2" t="str">
-        <f>VLOOKUP(data!D212,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D212,Sheet2!A:B,2,0)</f>
         <v>110.931245331,21.6682257188</v>
       </c>
     </row>
@@ -11280,7 +11266,7 @@
         <v>397</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F213" s="7">
         <v>4</v>
@@ -11289,7 +11275,7 @@
         <v>745</v>
       </c>
       <c r="H213" s="2" t="str">
-        <f>VLOOKUP(data!D213,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D213,Sheet2!A:B,2,0)</f>
         <v>116.126403098,24.304570606</v>
       </c>
     </row>
@@ -11307,7 +11293,7 @@
         <v>398</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F214" s="7">
         <v>4</v>
@@ -11316,7 +11302,7 @@
         <v>756</v>
       </c>
       <c r="H214" s="2" t="str">
-        <f>VLOOKUP(data!D214,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D214,Sheet2!A:B,2,0)</f>
         <v>113.040773349,23.6984685504</v>
       </c>
     </row>
@@ -11334,7 +11320,7 @@
         <v>399</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F215" s="7">
         <v>4</v>
@@ -11343,7 +11329,7 @@
         <v>757</v>
       </c>
       <c r="H215" s="2" t="str">
-        <f>VLOOKUP(data!D215,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D215,Sheet2!A:B,2,0)</f>
         <v>113.594461107,24.8029603119</v>
       </c>
     </row>
@@ -11361,7 +11347,7 @@
         <v>318</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F216" s="7">
         <v>4</v>
@@ -11370,7 +11356,7 @@
         <v>758</v>
       </c>
       <c r="H216" s="2" t="str">
-        <f>VLOOKUP(data!D216,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D216,Sheet2!A:B,2,0)</f>
         <v>115.372924289,22.7787305002</v>
       </c>
     </row>
@@ -11388,7 +11374,7 @@
         <v>319</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F217" s="7">
         <v>4</v>
@@ -11397,7 +11383,7 @@
         <v>759</v>
       </c>
       <c r="H217" s="2" t="str">
-        <f>VLOOKUP(data!D217,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D217,Sheet2!A:B,2,0)</f>
         <v>111.977009756,21.8715173045</v>
       </c>
     </row>
@@ -11415,7 +11401,7 @@
         <v>400</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F218" s="7">
         <v>4</v>
@@ -11424,7 +11410,7 @@
         <v>760</v>
       </c>
       <c r="H218" s="2" t="str">
-        <f>VLOOKUP(data!D218,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D218,Sheet2!A:B,2,0)</f>
         <v>112.050945959,22.9379756855</v>
       </c>
     </row>
@@ -11442,17 +11428,17 @@
         <v>401</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F219" s="7">
-        <f>VLOOKUP(D219,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D219,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>760</v>
       </c>
       <c r="H219" s="2" t="str">
-        <f>VLOOKUP(data!D219,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D219,Sheet2!A:B,2,0)</f>
         <v>112.47965337,23.0786632829</v>
       </c>
     </row>
@@ -11470,17 +11456,17 @@
         <v>402</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F220" s="7">
-        <f>VLOOKUP(D220,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D220,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>761</v>
       </c>
       <c r="H220" s="2" t="str">
-        <f>VLOOKUP(data!D220,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D220,Sheet2!A:B,2,0)</f>
         <v>108.297233556,22.8064929356</v>
       </c>
     </row>
@@ -11498,7 +11484,7 @@
         <v>403</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F221" s="7">
         <v>4</v>
@@ -11507,7 +11493,7 @@
         <v>762</v>
       </c>
       <c r="H221" s="2" t="str">
-        <f>VLOOKUP(data!D221,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D221,Sheet2!A:B,2,0)</f>
         <v>109.122627919,21.472718235</v>
       </c>
     </row>
@@ -11525,7 +11511,7 @@
         <v>404</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F222" s="7">
         <v>4</v>
@@ -11534,7 +11520,7 @@
         <v>763</v>
       </c>
       <c r="H222" s="2" t="str">
-        <f>VLOOKUP(data!D222,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D222,Sheet2!A:B,2,0)</f>
         <v>108.351791153,21.6173984705</v>
       </c>
     </row>
@@ -11552,17 +11538,17 @@
         <v>405</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F223" s="7">
-        <f>VLOOKUP(D223,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D223,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>764</v>
       </c>
       <c r="H223" s="2" t="str">
-        <f>VLOOKUP(data!D223,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D223,Sheet2!A:B,2,0)</f>
         <v>110.260920147,25.262901246</v>
       </c>
     </row>
@@ -11577,20 +11563,20 @@
         <v>62</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F224" s="7">
-        <f>VLOOKUP(D224,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D224,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>765</v>
       </c>
       <c r="H224" s="2" t="str">
-        <f>VLOOKUP(data!D224,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D224,Sheet2!A:B,2,0)</f>
         <v>109.42240181,24.3290533525</v>
       </c>
     </row>
@@ -11608,7 +11594,7 @@
         <v>1523</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F225" s="7">
         <v>4</v>
@@ -11617,7 +11603,7 @@
         <v>766</v>
       </c>
       <c r="H225" s="2" t="str">
-        <f>VLOOKUP(data!D225,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D225,Sheet2!A:B,2,0)</f>
         <v>107.357322038,22.4154552965</v>
       </c>
     </row>
@@ -11635,7 +11621,7 @@
         <v>408</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F226" s="7">
         <v>4</v>
@@ -11644,7 +11630,7 @@
         <v>767</v>
       </c>
       <c r="H226" s="2" t="str">
-        <f>VLOOKUP(data!D226,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D226,Sheet2!A:B,2,0)</f>
         <v>109.231816505,23.7411659265</v>
       </c>
     </row>
@@ -11659,10 +11645,10 @@
         <v>63</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F227" s="7">
         <v>4</v>
@@ -11671,7 +11657,7 @@
         <v>768</v>
       </c>
       <c r="H227" s="2" t="str">
-        <f>VLOOKUP(data!D227,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D227,Sheet2!A:B,2,0)</f>
         <v>111.30547195,23.4853946367</v>
       </c>
     </row>
@@ -11689,7 +11675,7 @@
         <v>410</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F228" s="7">
         <v>4</v>
@@ -11698,7 +11684,7 @@
         <v>769</v>
       </c>
       <c r="H228" s="2" t="str">
-        <f>VLOOKUP(data!D228,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D228,Sheet2!A:B,2,0)</f>
         <v>108.069947709,24.6995207829</v>
       </c>
     </row>
@@ -11716,7 +11702,7 @@
         <v>1527</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="F229" s="7">
         <v>4</v>
@@ -11725,7 +11711,7 @@
         <v>770</v>
       </c>
       <c r="H229" s="2" t="str">
-        <f>VLOOKUP(data!D229,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D229,Sheet2!A:B,2,0)</f>
         <v>110.151676316,22.6439736084</v>
       </c>
     </row>
@@ -11743,7 +11729,7 @@
         <v>1526</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="F230" s="7">
         <v>4</v>
@@ -11752,7 +11738,7 @@
         <v>770</v>
       </c>
       <c r="H230" s="2" t="str">
-        <f>VLOOKUP(data!D230,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D230,Sheet2!A:B,2,0)</f>
         <v>109.613707557,23.1033731644</v>
       </c>
     </row>
@@ -11770,7 +11756,7 @@
         <v>1508</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F231" s="7">
         <v>4</v>
@@ -11779,7 +11765,7 @@
         <v>1509</v>
       </c>
       <c r="H231" s="2" t="str">
-        <f>VLOOKUP(data!D231,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D231,Sheet2!A:B,2,0)</f>
         <v>111.552594179,24.4110535471</v>
       </c>
     </row>
@@ -11797,7 +11783,7 @@
         <v>771</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F232" s="7">
         <v>4</v>
@@ -11806,7 +11792,7 @@
         <v>772</v>
       </c>
       <c r="H232" s="2" t="str">
-        <f>VLOOKUP(data!D232,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D232,Sheet2!A:B,2,0)</f>
         <v>108.638798056,21.9733504653</v>
       </c>
     </row>
@@ -11824,7 +11810,7 @@
         <v>773</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F233" s="7">
         <v>4</v>
@@ -11833,7 +11819,7 @@
         <v>774</v>
       </c>
       <c r="H233" s="2" t="str">
-        <f>VLOOKUP(data!D233,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D233,Sheet2!A:B,2,0)</f>
         <v>106.631821404,23.9015123679</v>
       </c>
     </row>
@@ -11851,17 +11837,17 @@
         <v>424</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F234" s="7">
-        <f>VLOOKUP(D234,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D234,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>784</v>
       </c>
       <c r="H234" s="2" t="str">
-        <f>VLOOKUP(data!D234,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D234,Sheet2!A:B,2,0)</f>
         <v>110.330801848,20.022071277</v>
       </c>
     </row>
@@ -11879,17 +11865,17 @@
         <v>425</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F235" s="7">
-        <f>VLOOKUP(D235,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D235,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>785</v>
       </c>
       <c r="H235" s="2" t="str">
-        <f>VLOOKUP(data!D235,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D235,Sheet2!A:B,2,0)</f>
         <v>109.522771281,18.2577759149</v>
       </c>
     </row>
@@ -11907,7 +11893,7 @@
         <v>426</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F236" s="7">
         <v>4</v>
@@ -11933,7 +11919,7 @@
         <v>427</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F237" s="7">
         <v>4</v>
@@ -11959,7 +11945,7 @@
         <v>428</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F238" s="7">
         <v>4</v>
@@ -11985,7 +11971,7 @@
         <v>429</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F239" s="7">
         <v>4</v>
@@ -12011,7 +11997,7 @@
         <v>430</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F240" s="7">
         <v>4</v>
@@ -12031,13 +12017,13 @@
         <v>333</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>431</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F241" s="7">
         <v>4</v>
@@ -12057,13 +12043,13 @@
         <v>333</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>432</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F242" s="7">
         <v>4</v>
@@ -12089,7 +12075,7 @@
         <v>433</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F243" s="7">
         <v>4</v>
@@ -12109,13 +12095,13 @@
         <v>333</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>434</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F244" s="7">
         <v>4</v>
@@ -12135,13 +12121,13 @@
         <v>333</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>787</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F245" s="7">
         <v>4</v>
@@ -12167,17 +12153,17 @@
         <v>646</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F246" s="7">
-        <f>VLOOKUP(D246,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D246,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G246" s="8" t="s">
         <v>1510</v>
       </c>
       <c r="H246" s="2" t="str">
-        <f>VLOOKUP(data!D246,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D246,Sheet2!A:B,2,0)</f>
         <v>106.530635013,29.5446061089</v>
       </c>
     </row>
@@ -12195,17 +12181,17 @@
         <v>583</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F247" s="7">
-        <f>VLOOKUP(D247,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D247,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>980</v>
       </c>
       <c r="H247" s="2" t="str">
-        <f>VLOOKUP(data!D247,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D247,Sheet2!A:B,2,0)</f>
         <v>104.067923463,30.6799428454</v>
       </c>
     </row>
@@ -12217,23 +12203,23 @@
         <v>685</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F248" s="7">
-        <f>VLOOKUP(D248,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D248,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>982</v>
       </c>
       <c r="H248" s="2" t="str">
-        <f>VLOOKUP(data!D248,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D248,Sheet2!A:B,2,0)</f>
         <v>104.705518975,31.5047012581</v>
       </c>
     </row>
@@ -12248,10 +12234,10 @@
         <v>254</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F249" s="7">
         <v>4</v>
@@ -12260,7 +12246,7 @@
         <v>983</v>
       </c>
       <c r="H249" s="2" t="str">
-        <f>VLOOKUP(data!D249,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D249,Sheet2!A:B,2,0)</f>
         <v>104.635930302,30.132191434</v>
       </c>
     </row>
@@ -12278,7 +12264,7 @@
         <v>584</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F250" s="7">
         <v>4</v>
@@ -12287,7 +12273,7 @@
         <v>984</v>
       </c>
       <c r="H250" s="2" t="str">
-        <f>VLOOKUP(data!D250,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D250,Sheet2!A:B,2,0)</f>
         <v>106.757915842,31.8691891592</v>
       </c>
     </row>
@@ -12305,17 +12291,17 @@
         <v>585</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F251" s="7">
-        <f>VLOOKUP(D251,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D251,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>985</v>
       </c>
       <c r="H251" s="2" t="str">
-        <f>VLOOKUP(data!D251,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D251,Sheet2!A:B,2,0)</f>
         <v>104.402397818,31.1311396527</v>
       </c>
     </row>
@@ -12333,7 +12319,7 @@
         <v>586</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F252" s="7">
         <v>4</v>
@@ -12342,7 +12328,7 @@
         <v>1511</v>
       </c>
       <c r="H252" s="2" t="str">
-        <f>VLOOKUP(data!D252,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D252,Sheet2!A:B,2,0)</f>
         <v>107.494973447,31.2141988589</v>
       </c>
     </row>
@@ -12354,13 +12340,13 @@
         <v>685</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>587</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F253" s="7">
         <v>4</v>
@@ -12369,7 +12355,7 @@
         <v>986</v>
       </c>
       <c r="H253" s="2" t="str">
-        <f>VLOOKUP(data!D253,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D253,Sheet2!A:B,2,0)</f>
         <v>106.635720331,30.4639838879</v>
       </c>
     </row>
@@ -12387,7 +12373,7 @@
         <v>588</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F254" s="7">
         <v>4</v>
@@ -12396,7 +12382,7 @@
         <v>987</v>
       </c>
       <c r="H254" s="2" t="str">
-        <f>VLOOKUP(data!D254,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D254,Sheet2!A:B,2,0)</f>
         <v>105.81968694,32.4410401584</v>
       </c>
     </row>
@@ -12414,7 +12400,7 @@
         <v>589</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F255" s="7">
         <v>4</v>
@@ -12423,7 +12409,7 @@
         <v>988</v>
       </c>
       <c r="H255" s="2" t="str">
-        <f>VLOOKUP(data!D255,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D255,Sheet2!A:B,2,0)</f>
         <v>103.760824239,29.6009576111</v>
       </c>
     </row>
@@ -12441,7 +12427,7 @@
         <v>590</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F256" s="7">
         <v>4</v>
@@ -12450,7 +12436,7 @@
         <v>989</v>
       </c>
       <c r="H256" s="2" t="str">
-        <f>VLOOKUP(data!D256,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D256,Sheet2!A:B,2,0)</f>
         <v>105.443970289,28.8959298039</v>
       </c>
     </row>
@@ -12462,13 +12448,13 @@
         <v>685</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D257" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D257" s="9" t="s">
         <v>591</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1530</v>
+        <v>1563</v>
       </c>
       <c r="F257" s="7">
         <v>4</v>
@@ -12477,7 +12463,7 @@
         <v>988</v>
       </c>
       <c r="H257" s="2" t="str">
-        <f>VLOOKUP(data!D257,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D257,Sheet2!A:B,2,0)</f>
         <v>103.841429563,30.0611150799</v>
       </c>
     </row>
@@ -12489,13 +12475,13 @@
         <v>685</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>592</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F258" s="7">
         <v>4</v>
@@ -12504,7 +12490,7 @@
         <v>983</v>
       </c>
       <c r="H258" s="2" t="str">
-        <f>VLOOKUP(data!D258,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D258,Sheet2!A:B,2,0)</f>
         <v>105.073055992,29.5994615348</v>
       </c>
     </row>
@@ -12522,7 +12508,7 @@
         <v>593</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F259" s="7">
         <v>4</v>
@@ -12531,7 +12517,7 @@
         <v>990</v>
       </c>
       <c r="H259" s="2" t="str">
-        <f>VLOOKUP(data!D259,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D259,Sheet2!A:B,2,0)</f>
         <v>106.105553984,30.8009651682</v>
       </c>
     </row>
@@ -12549,7 +12535,7 @@
         <v>594</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F260" s="7">
         <v>4</v>
@@ -12558,7 +12544,7 @@
         <v>991</v>
       </c>
       <c r="H260" s="2" t="str">
-        <f>VLOOKUP(data!D260,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D260,Sheet2!A:B,2,0)</f>
         <v>101.722423152,26.5875712571</v>
       </c>
     </row>
@@ -12576,7 +12562,7 @@
         <v>595</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F261" s="7">
         <v>4</v>
@@ -12585,7 +12571,7 @@
         <v>992</v>
       </c>
       <c r="H261" s="2" t="str">
-        <f>VLOOKUP(data!D261,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D261,Sheet2!A:B,2,0)</f>
         <v>105.564887792,30.5574913504</v>
       </c>
     </row>
@@ -12603,7 +12589,7 @@
         <v>596</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F262" s="7">
         <v>4</v>
@@ -12612,7 +12598,7 @@
         <v>993</v>
       </c>
       <c r="H262" s="2" t="str">
-        <f>VLOOKUP(data!D262,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D262,Sheet2!A:B,2,0)</f>
         <v>104.633019062,28.7696747963</v>
       </c>
     </row>
@@ -12630,7 +12616,7 @@
         <v>597</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F263" s="7">
         <v>4</v>
@@ -12639,7 +12625,7 @@
         <v>994</v>
       </c>
       <c r="H263" s="2" t="str">
-        <f>VLOOKUP(data!D263,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D263,Sheet2!A:B,2,0)</f>
         <v>103.009356466,29.9997163371</v>
       </c>
     </row>
@@ -12657,7 +12643,7 @@
         <v>598</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F264" s="7">
         <v>4</v>
@@ -12666,7 +12652,7 @@
         <v>995</v>
       </c>
       <c r="H264" s="2" t="str">
-        <f>VLOOKUP(data!D264,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D264,Sheet2!A:B,2,0)</f>
         <v>104.776071339,29.3591568895</v>
       </c>
     </row>
@@ -12684,7 +12670,7 @@
         <v>599</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F265" s="7">
         <v>4</v>
@@ -12710,7 +12696,7 @@
         <v>600</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F266" s="7">
         <v>4</v>
@@ -12736,7 +12722,7 @@
         <v>342</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F267" s="7">
         <v>4</v>
@@ -12762,17 +12748,17 @@
         <v>416</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F268" s="7">
-        <f>VLOOKUP(D268,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D268,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>775</v>
       </c>
       <c r="H268" s="2" t="str">
-        <f>VLOOKUP(data!D268,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D268,Sheet2!A:B,2,0)</f>
         <v>106.709177096,26.6299067414</v>
       </c>
     </row>
@@ -12790,7 +12776,7 @@
         <v>417</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F269" s="7">
         <v>4</v>
@@ -12799,7 +12785,7 @@
         <v>776</v>
       </c>
       <c r="H269" s="2" t="str">
-        <f>VLOOKUP(data!D269,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D269,Sheet2!A:B,2,0)</f>
         <v>105.928269966,26.2285945777</v>
       </c>
     </row>
@@ -12814,10 +12800,10 @@
         <v>70</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F270" s="7">
         <v>4</v>
@@ -12826,7 +12812,7 @@
         <v>777</v>
       </c>
       <c r="H270" s="2" t="str">
-        <f>VLOOKUP(data!D270,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D270,Sheet2!A:B,2,0)</f>
         <v>106.931260316,27.6999613771</v>
       </c>
     </row>
@@ -12844,7 +12830,7 @@
         <v>418</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F271" s="7">
         <v>4</v>
@@ -12853,7 +12839,7 @@
         <v>778</v>
       </c>
       <c r="H271" s="2" t="str">
-        <f>VLOOKUP(data!D271,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D271,Sheet2!A:B,2,0)</f>
         <v>104.85208676,26.5918660603</v>
       </c>
     </row>
@@ -12871,7 +12857,7 @@
         <v>419</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F272" s="7">
         <v>4</v>
@@ -12880,7 +12866,7 @@
         <v>779</v>
       </c>
       <c r="H272" s="2" t="str">
-        <f>VLOOKUP(data!D272,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D272,Sheet2!A:B,2,0)</f>
         <v>105.333323371,27.4085621313</v>
       </c>
     </row>
@@ -12898,7 +12884,7 @@
         <v>420</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F273" s="7">
         <v>4</v>
@@ -12924,7 +12910,7 @@
         <v>421</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F274" s="7">
         <v>4</v>
@@ -12950,7 +12936,7 @@
         <v>422</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F275" s="7">
         <v>4</v>
@@ -12976,7 +12962,7 @@
         <v>423</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F276" s="7">
         <v>4</v>
@@ -12985,7 +12971,7 @@
         <v>783</v>
       </c>
       <c r="H276" s="2" t="str">
-        <f>VLOOKUP(data!D276,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D276,Sheet2!A:B,2,0)</f>
         <v>109.168558028,27.6749026906</v>
       </c>
     </row>
@@ -13003,17 +12989,17 @@
         <v>343</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F277" s="7">
-        <f>VLOOKUP(D277,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D277,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="H277" s="2" t="str">
-        <f>VLOOKUP(data!D277,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D277,Sheet2!A:B,2,0)</f>
         <v>102.714601139,25.0491531005</v>
       </c>
     </row>
@@ -13031,7 +13017,7 @@
         <v>344</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F278" s="7">
         <v>4</v>
@@ -13040,7 +13026,7 @@
         <v>1021</v>
       </c>
       <c r="H278" s="2" t="str">
-        <f>VLOOKUP(data!D278,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D278,Sheet2!A:B,2,0)</f>
         <v>102.545067892,24.3704471344</v>
       </c>
     </row>
@@ -13058,7 +13044,7 @@
         <v>618</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F279" s="7">
         <v>4</v>
@@ -13084,7 +13070,7 @@
         <v>619</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F280" s="7">
         <v>4</v>
@@ -13110,7 +13096,7 @@
         <v>620</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F281" s="7">
         <v>4</v>
@@ -13136,7 +13122,7 @@
         <v>621</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F282" s="7">
         <v>4</v>
@@ -13145,7 +13131,7 @@
         <v>1025</v>
       </c>
       <c r="H282" s="2" t="str">
-        <f>VLOOKUP(data!D282,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D282,Sheet2!A:B,2,0)</f>
         <v>103.782538888,25.5207581429</v>
       </c>
     </row>
@@ -13163,7 +13149,7 @@
         <v>677</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F283" s="7">
         <v>4</v>
@@ -13189,7 +13175,7 @@
         <v>622</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F284" s="7">
         <v>4</v>
@@ -13198,7 +13184,7 @@
         <v>1027</v>
       </c>
       <c r="H284" s="2" t="str">
-        <f>VLOOKUP(data!D284,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D284,Sheet2!A:B,2,0)</f>
         <v>103.725020656,27.3406329636</v>
       </c>
     </row>
@@ -13216,7 +13202,7 @@
         <v>623</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F285" s="7">
         <v>4</v>
@@ -13225,7 +13211,7 @@
         <v>1028</v>
       </c>
       <c r="H285" s="2" t="str">
-        <f>VLOOKUP(data!D285,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D285,Sheet2!A:B,2,0)</f>
         <v>99.1779956133,25.1204891962</v>
       </c>
     </row>
@@ -13243,7 +13229,7 @@
         <v>624</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F286" s="7">
         <v>4</v>
@@ -13269,7 +13255,7 @@
         <v>625</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F287" s="7">
         <v>4</v>
@@ -13295,7 +13281,7 @@
         <v>626</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F288" s="7">
         <v>4</v>
@@ -13304,7 +13290,7 @@
         <v>1031</v>
       </c>
       <c r="H288" s="2" t="str">
-        <f>VLOOKUP(data!D288,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D288,Sheet2!A:B,2,0)</f>
         <v>100.229628399,26.8753510895</v>
       </c>
     </row>
@@ -13322,7 +13308,7 @@
         <v>627</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F289" s="7">
         <v>4</v>
@@ -13331,7 +13317,7 @@
         <v>1032</v>
       </c>
       <c r="H289" s="2" t="str">
-        <f>VLOOKUP(data!D289,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D289,Sheet2!A:B,2,0)</f>
         <v>100.092612914,23.8878061038</v>
       </c>
     </row>
@@ -13349,7 +13335,7 @@
         <v>628</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F290" s="7">
         <v>4</v>
@@ -13375,7 +13361,7 @@
         <v>629</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F291" s="7">
         <v>4</v>
@@ -13384,7 +13370,7 @@
         <v>1034</v>
       </c>
       <c r="H291" s="2" t="str">
-        <f>VLOOKUP(data!D291,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D291,Sheet2!A:B,2,0)</f>
         <v>100.98005773,22.7887777801</v>
       </c>
     </row>
@@ -13402,7 +13388,7 @@
         <v>1035</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F292" s="7">
         <v>4</v>
@@ -13428,7 +13414,7 @@
         <v>601</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F293" s="7">
         <v>4</v>
@@ -13437,7 +13423,7 @@
         <v>999</v>
       </c>
       <c r="H293" s="2" t="str">
-        <f>VLOOKUP(data!D293,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D293,Sheet2!A:B,2,0)</f>
         <v>91.111890896,29.6625570621</v>
       </c>
     </row>
@@ -13455,7 +13441,7 @@
         <v>602</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F294" s="7">
         <v>4</v>
@@ -13481,7 +13467,7 @@
         <v>603</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F295" s="7">
         <v>4</v>
@@ -13507,7 +13493,7 @@
         <v>604</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F296" s="7">
         <v>4</v>
@@ -13533,7 +13519,7 @@
         <v>605</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F297" s="7">
         <v>4</v>
@@ -13553,13 +13539,13 @@
         <v>686</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>606</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F298" s="7">
         <v>4</v>
@@ -13585,7 +13571,7 @@
         <v>607</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F299" s="7">
         <v>4</v>
@@ -13611,17 +13597,17 @@
         <v>574</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F300" s="7">
-        <f>VLOOKUP(D300,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D300,Sheet3!B:C,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>969</v>
       </c>
       <c r="H300" s="2" t="str">
-        <f>VLOOKUP(data!D300,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D300,Sheet2!A:B,2,0)</f>
         <v>108.953098279,34.2777998978</v>
       </c>
     </row>
@@ -13639,7 +13625,7 @@
         <v>575</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F301" s="7">
         <v>4</v>
@@ -13648,7 +13634,7 @@
         <v>970</v>
       </c>
       <c r="H301" s="2" t="str">
-        <f>VLOOKUP(data!D301,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D301,Sheet2!A:B,2,0)</f>
         <v>109.038044563,32.70437045</v>
       </c>
     </row>
@@ -13666,7 +13652,7 @@
         <v>576</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F302" s="7">
         <v>4</v>
@@ -13675,7 +13661,7 @@
         <v>971</v>
       </c>
       <c r="H302" s="2" t="str">
-        <f>VLOOKUP(data!D302,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D302,Sheet2!A:B,2,0)</f>
         <v>107.170645452,34.3640808097</v>
       </c>
     </row>
@@ -13693,7 +13679,7 @@
         <v>577</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F303" s="7">
         <v>4</v>
@@ -13702,7 +13688,7 @@
         <v>972</v>
       </c>
       <c r="H303" s="2" t="str">
-        <f>VLOOKUP(data!D303,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D303,Sheet2!A:B,2,0)</f>
         <v>107.045477629,33.0815689782</v>
       </c>
     </row>
@@ -13720,7 +13706,7 @@
         <v>578</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F304" s="7">
         <v>4</v>
@@ -13729,7 +13715,7 @@
         <v>973</v>
       </c>
       <c r="H304" s="2" t="str">
-        <f>VLOOKUP(data!D304,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D304,Sheet2!A:B,2,0)</f>
         <v>109.934208154,33.8739073951</v>
       </c>
     </row>
@@ -13747,7 +13733,7 @@
         <v>579</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F305" s="7">
         <v>4</v>
@@ -13756,7 +13742,7 @@
         <v>974</v>
       </c>
       <c r="H305" s="2" t="str">
-        <f>VLOOKUP(data!D305,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D305,Sheet2!A:B,2,0)</f>
         <v>108.968067013,34.9083676964</v>
       </c>
     </row>
@@ -13774,7 +13760,7 @@
         <v>975</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F306" s="7">
         <v>4</v>
@@ -13783,7 +13769,7 @@
         <v>976</v>
       </c>
       <c r="H306" s="2" t="str">
-        <f>VLOOKUP(data!D306,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D306,Sheet2!A:B,2,0)</f>
         <v>109.483932697,34.5023579758</v>
       </c>
     </row>
@@ -13801,17 +13787,17 @@
         <v>581</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F307" s="7">
-        <f>VLOOKUP(D307,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D307,Sheet3!B:C,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>977</v>
       </c>
       <c r="H307" s="2" t="str">
-        <f>VLOOKUP(data!D307,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D307,Sheet2!A:B,2,0)</f>
         <v>108.707509278,34.345372996</v>
       </c>
     </row>
@@ -13829,7 +13815,7 @@
         <v>582</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F308" s="7">
         <v>4</v>
@@ -13838,7 +13824,7 @@
         <v>978</v>
       </c>
       <c r="H308" s="2" t="str">
-        <f>VLOOKUP(data!D308,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D308,Sheet2!A:B,2,0)</f>
         <v>109.500509757,36.6033203523</v>
       </c>
     </row>
@@ -13856,17 +13842,17 @@
         <v>339</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F309" s="7">
-        <f>VLOOKUP(D309,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D309,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>979</v>
       </c>
       <c r="H309" s="2" t="str">
-        <f>VLOOKUP(data!D309,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D309,Sheet2!A:B,2,0)</f>
         <v>109.745925744,38.2794392401</v>
       </c>
     </row>
@@ -13884,17 +13870,17 @@
         <v>372</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F310" s="7">
-        <f>VLOOKUP(D310,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D310,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>723</v>
       </c>
       <c r="H310" s="2" t="str">
-        <f>VLOOKUP(data!D310,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D310,Sheet2!A:B,2,0)</f>
         <v>103.823305441,36.064225525</v>
       </c>
     </row>
@@ -13912,7 +13898,7 @@
         <v>373</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F311" s="7">
         <v>4</v>
@@ -13921,7 +13907,7 @@
         <v>724</v>
       </c>
       <c r="H311" s="2" t="str">
-        <f>VLOOKUP(data!D311,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D311,Sheet2!A:B,2,0)</f>
         <v>104.171240904,36.5466817062</v>
       </c>
     </row>
@@ -13939,7 +13925,7 @@
         <v>374</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F312" s="7">
         <v>4</v>
@@ -13948,7 +13934,7 @@
         <v>725</v>
       </c>
       <c r="H312" s="2" t="str">
-        <f>VLOOKUP(data!D312,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D312,Sheet2!A:B,2,0)</f>
         <v>104.626637601,35.5860562418</v>
       </c>
     </row>
@@ -13960,13 +13946,13 @@
         <v>652</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F313" s="7">
         <v>4</v>
@@ -13975,7 +13961,7 @@
         <v>726</v>
       </c>
       <c r="H313" s="2" t="str">
-        <f>VLOOKUP(data!D313,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D313,Sheet2!A:B,2,0)</f>
         <v>102.208126263,38.5160717995</v>
       </c>
     </row>
@@ -13993,7 +13979,7 @@
         <v>376</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F314" s="7">
         <v>4</v>
@@ -14002,7 +13988,7 @@
         <v>727</v>
       </c>
       <c r="H314" s="2" t="str">
-        <f>VLOOKUP(data!D314,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D314,Sheet2!A:B,2,0)</f>
         <v>98.5084145062,39.7414737682</v>
       </c>
     </row>
@@ -14020,7 +14006,7 @@
         <v>377</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F315" s="7">
         <v>4</v>
@@ -14029,7 +14015,7 @@
         <v>728</v>
       </c>
       <c r="H315" s="2" t="str">
-        <f>VLOOKUP(data!D315,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D315,Sheet2!A:B,2,0)</f>
         <v>106.688911157,35.55011019</v>
       </c>
     </row>
@@ -14047,7 +14033,7 @@
         <v>378</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F316" s="7">
         <v>4</v>
@@ -14056,7 +14042,7 @@
         <v>729</v>
       </c>
       <c r="H316" s="2" t="str">
-        <f>VLOOKUP(data!D316,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D316,Sheet2!A:B,2,0)</f>
         <v>107.644227087,35.7268007545</v>
       </c>
     </row>
@@ -14068,13 +14054,13 @@
         <v>652</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F317" s="7">
         <v>4</v>
@@ -14083,7 +14069,7 @@
         <v>730</v>
       </c>
       <c r="H317" s="2" t="str">
-        <f>VLOOKUP(data!D317,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D317,Sheet2!A:B,2,0)</f>
         <v>102.640147343,37.9331721429</v>
       </c>
     </row>
@@ -14101,7 +14087,7 @@
         <v>380</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F318" s="7">
         <v>4</v>
@@ -14110,7 +14096,7 @@
         <v>731</v>
       </c>
       <c r="H318" s="2" t="str">
-        <f>VLOOKUP(data!D318,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D318,Sheet2!A:B,2,0)</f>
         <v>105.736931623,34.5843194189</v>
       </c>
     </row>
@@ -14128,7 +14114,7 @@
         <v>732</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F319" s="7">
         <v>4</v>
@@ -14137,7 +14123,7 @@
         <v>733</v>
       </c>
       <c r="H319" s="2" t="str">
-        <f>VLOOKUP(data!D319,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D319,Sheet2!A:B,2,0)</f>
         <v>100.459891869,38.939320297</v>
       </c>
     </row>
@@ -14155,7 +14141,7 @@
         <v>317</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F320" s="7">
         <v>4</v>
@@ -14175,13 +14161,13 @@
         <v>652</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F321" s="7">
         <v>4</v>
@@ -14190,7 +14176,7 @@
         <v>735</v>
       </c>
       <c r="H321" s="2" t="str">
-        <f>VLOOKUP(data!D321,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D321,Sheet2!A:B,2,0)</f>
         <v>98.2816345853,39.8023973267</v>
       </c>
     </row>
@@ -14208,7 +14194,7 @@
         <v>736</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F322" s="7">
         <v>4</v>
@@ -14228,13 +14214,13 @@
         <v>652</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F323" s="7">
         <v>4</v>
@@ -14243,7 +14229,7 @@
         <v>738</v>
       </c>
       <c r="H323" s="2" t="str">
-        <f>VLOOKUP(data!D323,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D323,Sheet2!A:B,2,0)</f>
         <v>104.934573406,33.3944799729</v>
       </c>
     </row>
@@ -14261,17 +14247,17 @@
         <v>546</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F324" s="7">
-        <f>VLOOKUP(D324,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D324,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>929</v>
       </c>
       <c r="H324" s="2" t="str">
-        <f>VLOOKUP(data!D324,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D324,Sheet2!A:B,2,0)</f>
         <v>101.76792099,36.640738612</v>
       </c>
     </row>
@@ -14283,13 +14269,13 @@
         <v>681</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F325" s="7">
         <v>4</v>
@@ -14315,7 +14301,7 @@
         <v>1456</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F326" s="7">
         <v>4</v>
@@ -14341,7 +14327,7 @@
         <v>548</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F327" s="7">
         <v>4</v>
@@ -14361,13 +14347,13 @@
         <v>681</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F328" s="7">
         <v>4</v>
@@ -14393,7 +14379,7 @@
         <v>332</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F329" s="7">
         <v>4</v>
@@ -14419,7 +14405,7 @@
         <v>935</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F330" s="7">
         <v>4</v>
@@ -14445,7 +14431,7 @@
         <v>334</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F331" s="7">
         <v>4</v>
@@ -14465,23 +14451,23 @@
         <v>680</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>924</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F332" s="7">
-        <f>VLOOKUP(D332,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D332,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>925</v>
       </c>
       <c r="H332" s="2" t="str">
-        <f>VLOOKUP(data!D332,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D332,Sheet2!A:B,2,0)</f>
         <v>106.206478608,38.5026210119</v>
       </c>
     </row>
@@ -14499,7 +14485,7 @@
         <v>542</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F333" s="7">
         <v>4</v>
@@ -14508,7 +14494,7 @@
         <v>926</v>
       </c>
       <c r="H333" s="2" t="str">
-        <f>VLOOKUP(data!D333,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D333,Sheet2!A:B,2,0)</f>
         <v>106.379337202,39.0202232836</v>
       </c>
     </row>
@@ -14526,7 +14512,7 @@
         <v>543</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F334" s="7">
         <v>4</v>
@@ -14535,7 +14521,7 @@
         <v>927</v>
       </c>
       <c r="H334" s="2" t="str">
-        <f>VLOOKUP(data!D334,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D334,Sheet2!A:B,2,0)</f>
         <v>106.285267996,36.0215234807</v>
       </c>
     </row>
@@ -14553,7 +14539,7 @@
         <v>544</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F335" s="7">
         <v>4</v>
@@ -14562,7 +14548,7 @@
         <v>928</v>
       </c>
       <c r="H335" s="2" t="str">
-        <f>VLOOKUP(data!D335,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D335,Sheet2!A:B,2,0)</f>
         <v>106.208254199,37.9935610029</v>
       </c>
     </row>
@@ -14574,13 +14560,13 @@
         <v>680</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F336" s="7">
         <v>4</v>
@@ -14589,7 +14575,7 @@
         <v>928</v>
       </c>
       <c r="H336" s="2" t="str">
-        <f>VLOOKUP(data!D336,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D336,Sheet2!A:B,2,0)</f>
         <v>105.196754199,37.5211241916</v>
       </c>
     </row>
@@ -14607,17 +14593,17 @@
         <v>1493</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F337" s="7">
-        <f>VLOOKUP(D337,Sheet3!B:C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D337,Sheet3!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="H337" s="2" t="str">
-        <f>VLOOKUP(data!D337,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D337,Sheet2!A:B,2,0)</f>
         <v>87.5649877411,43.8403803472</v>
       </c>
     </row>
@@ -14635,7 +14621,7 @@
         <v>1457</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F338" s="7">
         <v>4</v>
@@ -14661,7 +14647,7 @@
         <v>608</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F339" s="7">
         <v>4</v>
@@ -14681,13 +14667,13 @@
         <v>687</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>609</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F340" s="7">
         <v>4</v>
@@ -14713,7 +14699,7 @@
         <v>610</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F341" s="7">
         <v>4</v>
@@ -14739,7 +14725,7 @@
         <v>611</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F342" s="7">
         <v>4</v>
@@ -14765,7 +14751,7 @@
         <v>675</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F343" s="7">
         <v>4</v>
@@ -14791,7 +14777,7 @@
         <v>612</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F344" s="7">
         <v>4</v>
@@ -14817,7 +14803,7 @@
         <v>613</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F345" s="7">
         <v>4</v>
@@ -14843,7 +14829,7 @@
         <v>614</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F346" s="7">
         <v>4</v>
@@ -14869,7 +14855,7 @@
         <v>615</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F347" s="7">
         <v>4</v>
@@ -14895,7 +14881,7 @@
         <v>676</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F348" s="7">
         <v>4</v>
@@ -14904,7 +14890,7 @@
         <v>1017</v>
       </c>
       <c r="H348" s="2" t="str">
-        <f>VLOOKUP(data!D348,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D348,Sheet2!A:B,2,0)</f>
         <v>84.8811801861,45.5943310667</v>
       </c>
     </row>
@@ -14922,7 +14908,7 @@
         <v>616</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F349" s="7">
         <v>4</v>
@@ -14948,7 +14934,7 @@
         <v>617</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F350" s="7">
         <v>4</v>
@@ -14968,13 +14954,13 @@
         <v>641</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F351" s="7">
         <v>4</v>
@@ -14983,7 +14969,7 @@
         <v>1512</v>
       </c>
       <c r="H351" s="2" t="str">
-        <f>VLOOKUP(data!D351,Sheet2!A:B,2,0)</f>
+        <f ca="1">VLOOKUP(data!D351,Sheet2!A:B,2,0)</f>
         <v>114.183870524,22.2721034276</v>
       </c>
     </row>
@@ -14995,13 +14981,13 @@
         <v>642</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>649</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F352" s="7">
         <v>4</v>
@@ -15014,14 +15000,15 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>999</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15029,7 +15016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18889,7 +18876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
